--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0766931276</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>10000000</v>
+        <v>19000000</v>
       </c>
       <c r="J2" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>21000000</v>
+        <v>10000000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="4">
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,7 +587,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>1500000</v>
+        <v>21000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,7 +627,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1050000</v>
+        <v>1500000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,7 +667,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>5000000</v>
+        <v>1050000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -680,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,7 +707,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -720,11 +720,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -747,7 +747,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>2000000</v>
+        <v>25000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -760,11 +760,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -787,7 +787,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -800,11 +800,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -827,7 +827,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1050000</v>
+        <v>18000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -840,11 +840,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -867,7 +867,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>1800000</v>
+        <v>1050000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -880,11 +880,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -907,10 +907,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>7500000</v>
+        <v>1800000</v>
       </c>
       <c r="J12" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -920,11 +920,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -947,10 +947,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>32000000</v>
+        <v>7500000</v>
       </c>
       <c r="J13" t="n">
-        <v>3000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="14">
@@ -960,11 +960,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -987,10 +987,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1300000</v>
+        <v>32000000</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="15">
@@ -1000,11 +1000,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1027,7 +1027,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1040,11 +1040,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1067,7 +1067,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>24800000</v>
+        <v>1500000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1080,11 +1080,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1107,10 +1107,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>1500000</v>
+        <v>24800000</v>
       </c>
       <c r="J17" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1150,7 +1150,7 @@
         <v>1500000</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="19">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1187,7 +1187,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1200,11 +1200,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1227,7 +1227,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>3000000</v>
+        <v>2800000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1267,10 +1267,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>9500000</v>
+        <v>3000000</v>
       </c>
       <c r="J21" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1280,11 +1280,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1307,10 +1307,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>900000</v>
+        <v>9500000</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="23">
@@ -1320,11 +1320,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1347,7 +1347,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>2600000</v>
+        <v>900000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1360,11 +1360,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1387,10 +1387,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>1000000</v>
+        <v>2600000</v>
       </c>
       <c r="J24" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1400,11 +1400,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1427,10 +1427,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>3700000</v>
+        <v>1000000</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="26">
@@ -1440,11 +1440,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1467,7 +1467,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>6000000</v>
+        <v>3700000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1480,11 +1480,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1507,10 +1507,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>14730000</v>
+        <v>6000000</v>
       </c>
       <c r="J27" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1520,11 +1520,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1547,10 +1547,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>14000000</v>
+        <v>14730000</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="29">
@@ -1560,11 +1560,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1587,7 +1587,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>2000000</v>
+        <v>14000000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1600,11 +1600,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1615,8 +1615,10 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="n">
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1625,7 +1627,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1638,11 +1640,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1653,10 +1655,8 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0788716689</t>
-        </is>
+      <c r="F31" t="n">
+        <v/>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1665,7 +1665,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1678,11 +1678,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1693,8 +1693,10 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="n">
-        <v/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1703,7 +1705,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1716,11 +1718,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1731,10 +1733,8 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F33" t="n">
+        <v/>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1743,10 +1743,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J33" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1756,11 +1756,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0347433400</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1783,10 +1783,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>21000000</v>
+        <v>10000000</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="35">
@@ -1796,11 +1796,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0347433400</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1823,7 +1823,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>20500000</v>
+        <v>21000000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1836,11 +1836,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1851,8 +1851,10 @@
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="n">
-        <v/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0865677896</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1861,7 +1863,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>900000</v>
+        <v>20500000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1874,11 +1876,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1889,10 +1891,8 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F37" t="n">
+        <v/>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1901,7 +1901,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>2500000</v>
+        <v>900000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1914,11 +1914,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1941,7 +1941,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1954,11 +1954,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1994,11 +1994,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2021,7 +2021,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2034,11 +2034,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2061,10 +2061,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="J41" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2074,11 +2074,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2101,10 +2101,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="43">
@@ -2114,11 +2114,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2141,7 +2141,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2154,11 +2154,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2181,10 +2181,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J44" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2194,11 +2194,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2221,10 +2221,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="46">
@@ -2234,11 +2234,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2261,7 +2261,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>53000000</v>
+        <v>30000000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2274,11 +2274,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2301,7 +2301,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>27500000</v>
+        <v>53000000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2314,11 +2314,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2329,8 +2329,10 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="n">
-        <v/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0845450305</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2339,7 +2341,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>2000000</v>
+        <v>27500000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2352,11 +2354,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2367,10 +2369,8 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0772155826</t>
-        </is>
+      <c r="F49" t="n">
+        <v/>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2392,11 +2392,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2419,7 +2419,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2432,11 +2432,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2459,7 +2459,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>9000000</v>
+        <v>2500000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2472,11 +2472,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2499,7 +2499,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>35000000</v>
+        <v>9000000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2512,11 +2512,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2527,8 +2527,10 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="n">
-        <v/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0918877304</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2537,7 +2539,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>30000000</v>
+        <v>35000000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2550,11 +2552,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2565,10 +2567,8 @@
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0949625783</t>
-        </is>
+      <c r="F54" t="n">
+        <v/>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2577,7 +2577,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>4000000</v>
+        <v>30000000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2590,11 +2590,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2617,7 +2617,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>31500000</v>
+        <v>4000000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2630,11 +2630,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2657,7 +2657,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>45000000</v>
+        <v>31500000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2670,11 +2670,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2697,7 +2697,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>5000000</v>
+        <v>45000000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2710,11 +2710,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2737,10 +2737,10 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>26000000</v>
+        <v>5000000</v>
       </c>
       <c r="J58" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2750,11 +2750,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2777,10 +2777,10 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>1900000</v>
+        <v>26000000</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="60">
@@ -2790,11 +2790,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2817,10 +2817,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>24300000</v>
+        <v>1900000</v>
       </c>
       <c r="J60" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2830,11 +2830,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2857,10 +2857,10 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>4000000</v>
+        <v>24300000</v>
       </c>
       <c r="J61" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="62">
@@ -2870,11 +2870,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2897,10 +2897,10 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
       <c r="J62" t="n">
-        <v>18000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="63">
@@ -2910,11 +2910,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2937,10 +2937,10 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="J63" t="n">
-        <v>5000000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="64">
@@ -2950,11 +2950,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2977,10 +2977,10 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>33000000</v>
+        <v>8000000</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="65">
@@ -2990,11 +2990,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3017,10 +3017,10 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>16000000</v>
+        <v>33000000</v>
       </c>
       <c r="J65" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3030,11 +3030,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3057,10 +3057,10 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>19000000</v>
+        <v>16000000</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="67">
@@ -3070,11 +3070,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3097,10 +3097,10 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>15000000</v>
+        <v>19000000</v>
       </c>
       <c r="J67" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3110,11 +3110,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3137,10 +3137,10 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>33000000</v>
+        <v>15000000</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="69">
@@ -3150,11 +3150,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3177,7 +3177,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>38000000</v>
+        <v>33000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3190,11 +3190,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3217,7 +3217,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>6000000</v>
+        <v>38000000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3230,11 +3230,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>17000000</v>
+        <v>6000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3270,11 +3270,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3297,10 +3297,10 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>10000000</v>
+        <v>17000000</v>
       </c>
       <c r="J72" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3310,11 +3310,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0777004897</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3340,7 +3340,7 @@
         <v>10000000</v>
       </c>
       <c r="J73" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="74">
@@ -3350,11 +3350,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3365,8 +3365,10 @@
       <c r="E74" t="n">
         <v/>
       </c>
-      <c r="F74" t="n">
-        <v/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -3375,10 +3377,10 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>23500000</v>
+        <v>10000000</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="75">
@@ -3388,11 +3390,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3413,10 +3415,10 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>23500000</v>
       </c>
       <c r="J75" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3426,11 +3428,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3451,10 +3453,10 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>33500000</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="77">
@@ -3464,11 +3466,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3489,7 +3491,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>27500000</v>
+        <v>33500000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3502,11 +3504,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3527,10 +3529,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>22500000</v>
+        <v>27500000</v>
       </c>
       <c r="J78" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3540,11 +3542,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3565,10 +3567,10 @@
         <v/>
       </c>
       <c r="I79" t="n">
+        <v>22500000</v>
+      </c>
+      <c r="J79" t="n">
         <v>5000000</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3578,11 +3580,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3603,7 +3605,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>17500000</v>
+        <v>5000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3616,11 +3618,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3641,10 +3643,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>500000</v>
+        <v>17500000</v>
       </c>
       <c r="J81" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3654,11 +3656,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3679,10 +3681,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>1800000</v>
+        <v>500000</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="83">
@@ -3692,11 +3694,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3717,7 +3719,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>5000000</v>
+        <v>1800000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3730,11 +3732,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3755,7 +3757,7 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3768,11 +3770,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3793,7 +3795,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>57000000</v>
+        <v>10000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3806,11 +3808,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3831,7 +3833,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>5000000</v>
+        <v>57000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3844,11 +3846,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3869,7 +3871,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3882,11 +3884,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3907,10 +3909,10 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J88" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3920,11 +3922,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3935,10 +3937,8 @@
       <c r="E89" t="n">
         <v/>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F89" t="n">
+        <v/>
       </c>
       <c r="G89" t="n">
         <v/>
@@ -3947,10 +3947,10 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>33500000</v>
+        <v>15000000</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="90">
@@ -3960,11 +3960,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>TN-89</t>
+          <t>0329634779</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3987,10 +3987,10 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>3000000</v>
+        <v>33500000</v>
       </c>
       <c r="J90" t="n">
-        <v>27000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4000,11 +4000,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4015,8 +4015,10 @@
       <c r="E91" t="n">
         <v/>
       </c>
-      <c r="F91" t="n">
-        <v/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -4025,10 +4027,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>22000000</v>
+        <v>3000000</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="92">
@@ -4038,11 +4040,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4063,10 +4065,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>10000000</v>
+        <v>22000000</v>
       </c>
       <c r="J92" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4076,11 +4078,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4101,10 +4103,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J93" t="n">
-        <v>23000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="94">
@@ -4114,11 +4116,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4127,12 +4129,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F94" t="n">
+        <v/>
       </c>
       <c r="G94" t="n">
         <v/>
@@ -4141,10 +4141,10 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J94" t="n">
-        <v>24000000</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="95">
@@ -4154,11 +4154,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4167,10 +4167,12 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v/>
-      </c>
-      <c r="F95" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G95" t="n">
         <v/>
@@ -4179,10 +4181,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>1200000</v>
+        <v>25000000</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="96">
@@ -4192,11 +4194,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4217,10 +4219,10 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>4700000</v>
+        <v>1200000</v>
       </c>
       <c r="J96" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4230,11 +4232,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4255,10 +4257,10 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>25000000</v>
+        <v>4700000</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="98">
@@ -4268,11 +4270,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4293,7 +4295,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4306,7 +4308,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -4344,11 +4346,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4369,7 +4371,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4382,11 +4384,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4407,7 +4409,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>35000000</v>
+        <v>20000000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4420,11 +4422,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4445,10 +4447,10 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="J102" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4458,11 +4460,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4486,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>21000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="104">
@@ -4496,11 +4498,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4521,10 +4523,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="105">
@@ -4534,11 +4536,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4549,10 +4551,8 @@
       <c r="E105" t="n">
         <v/>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F105" t="n">
+        <v/>
       </c>
       <c r="G105" t="n">
         <v/>
@@ -4561,10 +4561,10 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="J105" t="n">
-        <v>28000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4574,11 +4574,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4589,8 +4589,10 @@
       <c r="E106" t="n">
         <v/>
       </c>
-      <c r="F106" t="n">
-        <v/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -4599,10 +4601,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="107">
@@ -4612,11 +4614,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4637,7 +4639,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>18000000</v>
+        <v>12000000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4650,11 +4652,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4675,10 +4677,10 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>1200000</v>
+        <v>18000000</v>
       </c>
       <c r="J108" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4688,11 +4690,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4713,10 +4715,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>10000000</v>
+        <v>1200000</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="110">
@@ -4726,11 +4728,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4751,10 +4753,10 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>4300000</v>
+        <v>10000000</v>
       </c>
       <c r="J110" t="n">
-        <v>29500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4764,11 +4766,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4789,10 +4791,10 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>4000000</v>
+        <v>4300000</v>
       </c>
       <c r="J111" t="n">
-        <v>6000000</v>
+        <v>29500000</v>
       </c>
     </row>
     <row r="112">
@@ -4802,11 +4804,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4817,10 +4819,8 @@
       <c r="E112" t="n">
         <v/>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F112" t="n">
+        <v/>
       </c>
       <c r="G112" t="n">
         <v/>
@@ -4829,10 +4829,10 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
       <c r="J112" t="n">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="113">
@@ -4842,11 +4842,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4857,8 +4857,10 @@
       <c r="E113" t="n">
         <v/>
       </c>
-      <c r="F113" t="n">
-        <v/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G113" t="n">
         <v/>
@@ -4867,10 +4869,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>43000000</v>
+        <v>13000000</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="114">
@@ -4880,11 +4882,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4905,7 +4907,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>1000000</v>
+        <v>43000000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4918,11 +4920,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4943,7 +4945,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4956,11 +4958,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4981,7 +4983,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>4500000</v>
+        <v>2000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4994,11 +4996,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5019,10 +5021,10 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="J117" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5032,11 +5034,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5057,10 +5059,10 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="119">
@@ -5070,11 +5072,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5095,7 +5097,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5108,11 +5110,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5133,7 +5135,7 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5146,11 +5148,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5171,10 +5173,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="J121" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5184,11 +5186,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5209,10 +5211,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="123">
@@ -5222,11 +5224,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5260,11 +5262,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5285,7 +5287,7 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>1200000</v>
+        <v>8000000</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -5298,11 +5300,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5323,7 +5325,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>15000000</v>
+        <v>1200000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5336,11 +5338,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5351,10 +5353,8 @@
       <c r="E126" t="n">
         <v/>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F126" t="n">
+        <v/>
       </c>
       <c r="G126" t="n">
         <v/>
@@ -5363,10 +5363,10 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="J126" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5376,11 +5376,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5391,8 +5391,10 @@
       <c r="E127" t="n">
         <v/>
       </c>
-      <c r="F127" t="n">
-        <v/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G127" t="n">
         <v/>
@@ -5401,10 +5403,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="128">
@@ -5414,11 +5416,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5439,7 +5441,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>6000000</v>
+        <v>20000000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5452,11 +5454,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5477,10 +5479,10 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="J129" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5490,11 +5492,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5515,10 +5517,10 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="131">
@@ -5528,11 +5530,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5553,7 +5555,7 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5566,11 +5568,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5604,11 +5606,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5629,10 +5631,10 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="J133" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5642,11 +5644,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5667,10 +5669,10 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>17500000</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>9500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="135">
@@ -5680,11 +5682,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5705,10 +5707,10 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>14000000</v>
+        <v>17500000</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="136">
@@ -5718,11 +5720,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5743,10 +5745,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>2000000</v>
+        <v>14000000</v>
       </c>
       <c r="J136" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5756,11 +5758,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5781,10 +5783,10 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J137" t="n">
-        <v>6000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="138">
@@ -5794,11 +5796,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5819,10 +5821,10 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="139">
@@ -5832,11 +5834,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5857,7 +5859,7 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>18000000</v>
+        <v>30000000</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -5870,11 +5872,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5895,7 +5897,7 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>12000000</v>
+        <v>18000000</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -5908,11 +5910,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5933,10 +5935,10 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="J141" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5946,11 +5948,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5974,7 +5976,7 @@
         <v>5000000</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="143">
@@ -5984,11 +5986,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6009,7 +6011,7 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -6022,11 +6024,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6047,7 +6049,7 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>2700000</v>
+        <v>2000000</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -6060,11 +6062,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6085,7 +6087,7 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>27500000</v>
+        <v>2700000</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -6098,11 +6100,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6123,7 +6125,7 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>18000000</v>
+        <v>27500000</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -6136,11 +6138,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6161,7 +6163,7 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>3000000</v>
+        <v>18000000</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -6174,11 +6176,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6199,7 +6201,7 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>34200000</v>
+        <v>3000000</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -6212,11 +6214,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Anh Toàn</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6237,10 +6239,10 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>34200000</v>
       </c>
       <c r="J149" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6250,36 +6252,74 @@
         </is>
       </c>
       <c r="B150" t="n">
+        <v>42</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v/>
+      </c>
+      <c r="F150" t="n">
+        <v/>
+      </c>
+      <c r="G150" t="n">
+        <v/>
+      </c>
+      <c r="H150" t="n">
+        <v/>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
         <v>41</v>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v/>
-      </c>
-      <c r="F150" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v/>
+      </c>
+      <c r="F151" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G150" t="n">
-        <v/>
-      </c>
-      <c r="H150" t="n">
-        <v/>
-      </c>
-      <c r="I150" t="n">
+      <c r="G151" t="n">
+        <v/>
+      </c>
+      <c r="H151" t="n">
+        <v/>
+      </c>
+      <c r="I151" t="n">
         <v>16000000</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J151" t="n">
         <v>2000000</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0919972597</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>19000000</v>
+        <v>200000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,10 +535,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0766931276</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -547,10 +545,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J3" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,7 +585,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>21000000</v>
+        <v>19000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -600,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,10 +625,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="6">
@@ -640,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,7 +665,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>1050000</v>
+        <v>21000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -680,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +695,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,7 +705,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -720,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,7 +735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -747,7 +745,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>25000000</v>
+        <v>1050000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -760,11 +758,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -777,7 +775,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -787,7 +785,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -800,11 +798,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -817,7 +815,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -827,7 +825,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>18000000</v>
+        <v>25000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -840,11 +838,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -857,7 +855,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -867,7 +865,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>1050000</v>
+        <v>2000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -880,11 +878,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -897,7 +895,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -907,7 +905,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>1800000</v>
+        <v>18000000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -920,11 +918,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -937,7 +935,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -947,10 +945,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>7500000</v>
+        <v>1050000</v>
       </c>
       <c r="J13" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -960,11 +958,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -977,7 +975,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -987,10 +985,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>32000000</v>
+        <v>1800000</v>
       </c>
       <c r="J14" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1000,11 +998,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1017,7 +1015,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1027,10 +1025,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>1300000</v>
+        <v>7500000</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="16">
@@ -1040,11 +1038,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1057,7 +1055,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1067,10 +1065,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>1500000</v>
+        <v>32000000</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="17">
@@ -1080,11 +1078,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1097,7 +1095,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1107,7 +1105,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>24800000</v>
+        <v>1300000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1120,11 +1118,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1137,7 +1135,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1150,7 +1148,7 @@
         <v>1500000</v>
       </c>
       <c r="J18" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1160,11 +1158,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1177,7 +1175,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1187,7 +1185,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>1500000</v>
+        <v>24800000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1200,11 +1198,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1217,7 +1215,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1227,10 +1225,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="21">
@@ -1240,11 +1238,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1257,7 +1255,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1267,7 +1265,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1280,11 +1278,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1297,7 +1295,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1307,10 +1305,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>9500000</v>
+        <v>2800000</v>
       </c>
       <c r="J22" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1320,11 +1318,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1337,7 +1335,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1347,7 +1345,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>900000</v>
+        <v>3000000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1360,11 +1358,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1377,7 +1375,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1387,10 +1385,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>2600000</v>
+        <v>9500000</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="25">
@@ -1400,11 +1398,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1417,7 +1415,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1427,10 +1425,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="J25" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1440,11 +1438,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1457,7 +1455,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1467,7 +1465,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>3700000</v>
+        <v>2600000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1480,11 +1478,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1497,7 +1495,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1507,10 +1505,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="28">
@@ -1520,11 +1518,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1537,7 +1535,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1547,10 +1545,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>14730000</v>
+        <v>3700000</v>
       </c>
       <c r="J28" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1560,11 +1558,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1577,7 +1575,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1587,7 +1585,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>14000000</v>
+        <v>6000000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1600,11 +1598,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1617,7 +1615,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1627,10 +1625,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>2000000</v>
+        <v>14730000</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="31">
@@ -1640,11 +1638,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1655,8 +1653,10 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0872928717</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1665,7 +1665,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>1500000</v>
+        <v>14000000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1678,11 +1678,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1718,11 +1718,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1756,11 +1756,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1783,10 +1783,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J34" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1796,11 +1796,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1811,10 +1811,8 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0347433400</t>
-        </is>
+      <c r="F35" t="n">
+        <v/>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1823,7 +1821,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>21000000</v>
+        <v>1500000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1836,11 +1834,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1853,7 +1851,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1863,10 +1861,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>20500000</v>
+        <v>10000000</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="37">
@@ -1876,11 +1874,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1891,8 +1889,10 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="n">
-        <v/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0347433400</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1901,7 +1901,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>900000</v>
+        <v>21000000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1914,11 +1914,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1941,7 +1941,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>2500000</v>
+        <v>20500000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1954,11 +1954,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1969,10 +1969,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0799535184</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1981,7 +1979,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1994,11 +1992,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2011,7 +2009,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2021,7 +2019,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2034,11 +2032,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2051,7 +2049,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2061,7 +2059,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2074,11 +2072,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2091,7 +2089,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2101,10 +2099,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J42" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2114,11 +2112,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2131,7 +2129,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2141,7 +2139,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2154,11 +2152,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2171,7 +2169,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2181,10 +2179,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="45">
@@ -2194,11 +2192,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2211,7 +2209,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2221,10 +2219,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J45" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2234,11 +2232,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2251,7 +2249,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2261,7 +2259,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>30000000</v>
+        <v>3000000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2274,11 +2272,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2291,7 +2289,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2301,10 +2299,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>53000000</v>
+        <v>2000000</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="48">
@@ -2314,11 +2312,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2331,7 +2329,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2341,7 +2339,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>27500000</v>
+        <v>30000000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2354,11 +2352,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2369,8 +2367,10 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="n">
-        <v/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2379,7 +2379,7 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>2000000</v>
+        <v>53000000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2392,11 +2392,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2419,7 +2419,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>2000000</v>
+        <v>27500000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2432,11 +2432,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2447,10 +2447,8 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0939268869</t>
-        </is>
+      <c r="F51" t="n">
+        <v/>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2459,7 +2457,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2472,11 +2470,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2489,7 +2487,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2499,7 +2497,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2512,11 +2510,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2529,7 +2527,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2539,7 +2537,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>35000000</v>
+        <v>2500000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2552,11 +2550,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2567,8 +2565,10 @@
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="n">
-        <v/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0833644489</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2577,7 +2577,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>30000000</v>
+        <v>9000000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2590,11 +2590,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2617,7 +2617,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2630,11 +2630,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2645,10 +2645,8 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F56" t="n">
+        <v/>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2657,7 +2655,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>31500000</v>
+        <v>30000000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2670,11 +2668,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2687,7 +2685,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2697,7 +2695,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>45000000</v>
+        <v>4000000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2710,11 +2708,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2727,7 +2725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2737,7 +2735,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>5000000</v>
+        <v>31500000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2750,11 +2748,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2767,7 +2765,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2777,10 +2775,10 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>26000000</v>
+        <v>45000000</v>
       </c>
       <c r="J59" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2790,11 +2788,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2807,7 +2805,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2817,7 +2815,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>1900000</v>
+        <v>5000000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2830,11 +2828,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2847,7 +2845,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2857,10 +2855,10 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>24300000</v>
+        <v>26000000</v>
       </c>
       <c r="J61" t="n">
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="62">
@@ -2870,11 +2868,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2887,7 +2885,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2897,10 +2895,10 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>4000000</v>
+        <v>1900000</v>
       </c>
       <c r="J62" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2910,11 +2908,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2927,7 +2925,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2937,10 +2935,10 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>10000000</v>
+        <v>24300000</v>
       </c>
       <c r="J63" t="n">
-        <v>18000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="64">
@@ -2950,11 +2948,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2967,7 +2965,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2977,7 +2975,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="J64" t="n">
         <v>5000000</v>
@@ -2990,11 +2988,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3007,7 +3005,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3017,10 +3015,10 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>33000000</v>
+        <v>10000000</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="66">
@@ -3030,11 +3028,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3047,7 +3045,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3057,10 +3055,10 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>16000000</v>
+        <v>8000000</v>
       </c>
       <c r="J66" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="67">
@@ -3070,11 +3068,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3087,7 +3085,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3097,7 +3095,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>19000000</v>
+        <v>33000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3110,11 +3108,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3127,7 +3125,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3137,10 +3135,10 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>15000000</v>
+        <v>16000000</v>
       </c>
       <c r="J68" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="69">
@@ -3150,11 +3148,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3167,7 +3165,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3177,7 +3175,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>33000000</v>
+        <v>19000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3190,11 +3188,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3207,7 +3205,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3217,10 +3215,10 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>38000000</v>
+        <v>15000000</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="71">
@@ -3230,11 +3228,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3247,7 +3245,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3257,7 +3255,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>6000000</v>
+        <v>33000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3270,11 +3268,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3287,7 +3285,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3297,7 +3295,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>17000000</v>
+        <v>38000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3310,11 +3308,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3327,7 +3325,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3337,10 +3335,10 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J73" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3350,11 +3348,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3367,7 +3365,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3377,10 +3375,10 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>10000000</v>
+        <v>17000000</v>
       </c>
       <c r="J74" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3390,11 +3388,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3405,8 +3403,10 @@
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="n">
-        <v/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -3415,10 +3415,10 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>23500000</v>
+        <v>10000000</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="76">
@@ -3428,11 +3428,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3443,8 +3443,10 @@
       <c r="E76" t="n">
         <v/>
       </c>
-      <c r="F76" t="n">
-        <v/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -3453,10 +3455,10 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J76" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="77">
@@ -3466,11 +3468,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3491,7 +3493,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>33500000</v>
+        <v>23500000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3504,11 +3506,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3529,10 +3531,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>27500000</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="79">
@@ -3542,11 +3544,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3567,10 +3569,10 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>22500000</v>
+        <v>33500000</v>
       </c>
       <c r="J79" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3580,11 +3582,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3605,7 +3607,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>5000000</v>
+        <v>27500000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3618,11 +3620,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3643,10 +3645,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>17500000</v>
+        <v>22500000</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="82">
@@ -3656,11 +3658,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3681,10 +3683,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="J82" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3694,11 +3696,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3719,7 +3721,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>1800000</v>
+        <v>17500000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3732,11 +3734,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3757,10 +3759,10 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="85">
@@ -3770,11 +3772,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3795,7 +3797,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>10000000</v>
+        <v>1800000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3808,11 +3810,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3833,7 +3835,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>57000000</v>
+        <v>5000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3846,11 +3848,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3871,7 +3873,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3884,11 +3886,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3909,7 +3911,7 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>2000000</v>
+        <v>57000000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3922,11 +3924,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3947,10 +3949,10 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J89" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3960,11 +3962,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3975,10 +3977,8 @@
       <c r="E90" t="n">
         <v/>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F90" t="n">
+        <v/>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -3987,7 +3987,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>33500000</v>
+        <v>2000000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4000,11 +4000,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4015,10 +4015,8 @@
       <c r="E91" t="n">
         <v/>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F91" t="n">
+        <v/>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -4027,10 +4025,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="J91" t="n">
-        <v>27000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="92">
@@ -4040,11 +4038,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4055,8 +4053,10 @@
       <c r="E92" t="n">
         <v/>
       </c>
-      <c r="F92" t="n">
-        <v/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -4065,7 +4065,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>22000000</v>
+        <v>33500000</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4078,11 +4078,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4093,8 +4093,10 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="n">
-        <v/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -4103,10 +4105,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="J93" t="n">
-        <v>3000000</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="94">
@@ -4116,11 +4118,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4141,10 +4143,10 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>2000000</v>
+        <v>22000000</v>
       </c>
       <c r="J94" t="n">
-        <v>23000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4154,11 +4156,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4167,12 +4169,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F95" t="n">
+        <v/>
       </c>
       <c r="G95" t="n">
         <v/>
@@ -4181,10 +4181,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>25000000</v>
+        <v>10000000</v>
       </c>
       <c r="J95" t="n">
-        <v>24000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="96">
@@ -4194,11 +4194,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4219,10 +4219,10 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="97">
@@ -4232,11 +4232,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4245,10 +4245,12 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v/>
-      </c>
-      <c r="F97" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -4257,10 +4259,10 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>4700000</v>
+        <v>25000000</v>
       </c>
       <c r="J97" t="n">
-        <v>20000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="98">
@@ -4270,11 +4272,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4295,7 +4297,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>25000000</v>
+        <v>1200000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4308,11 +4310,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4333,10 +4335,10 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>4000000</v>
+        <v>4700000</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="100">
@@ -4346,11 +4348,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4371,7 +4373,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4384,11 +4386,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4409,7 +4411,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4422,11 +4424,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4447,7 +4449,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>35000000</v>
+        <v>4000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4460,11 +4462,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4485,10 +4487,10 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="J103" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4498,11 +4500,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4523,10 +4525,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="J104" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4536,11 +4538,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4561,10 +4563,10 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="106">
@@ -4574,11 +4576,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4589,10 +4591,8 @@
       <c r="E106" t="n">
         <v/>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F106" t="n">
+        <v/>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -4601,10 +4601,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>28000000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="107">
@@ -4614,11 +4614,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4639,7 +4639,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>12000000</v>
+        <v>20000000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4652,11 +4652,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4667,8 +4667,10 @@
       <c r="E108" t="n">
         <v/>
       </c>
-      <c r="F108" t="n">
-        <v/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G108" t="n">
         <v/>
@@ -4677,10 +4679,10 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>18000000</v>
+        <v>10000000</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="109">
@@ -4690,11 +4692,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4715,10 +4717,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>1200000</v>
+        <v>12000000</v>
       </c>
       <c r="J109" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4728,11 +4730,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4753,7 +4755,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>10000000</v>
+        <v>18000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4766,11 +4768,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4791,10 +4793,10 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>4300000</v>
+        <v>1200000</v>
       </c>
       <c r="J111" t="n">
-        <v>29500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="112">
@@ -4804,11 +4806,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4829,10 +4831,10 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
       <c r="J112" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4842,11 +4844,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4857,10 +4859,8 @@
       <c r="E113" t="n">
         <v/>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F113" t="n">
+        <v/>
       </c>
       <c r="G113" t="n">
         <v/>
@@ -4869,10 +4869,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>13000000</v>
+        <v>4300000</v>
       </c>
       <c r="J113" t="n">
-        <v>12000000</v>
+        <v>29500000</v>
       </c>
     </row>
     <row r="114">
@@ -4882,11 +4882,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4907,10 +4907,10 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>43000000</v>
+        <v>4000000</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="115">
@@ -4920,11 +4920,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4935,8 +4935,10 @@
       <c r="E115" t="n">
         <v/>
       </c>
-      <c r="F115" t="n">
-        <v/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G115" t="n">
         <v/>
@@ -4945,10 +4947,10 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="116">
@@ -4958,11 +4960,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4983,7 +4985,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>2000000</v>
+        <v>43000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4996,11 +4998,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5021,7 +5023,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>4500000</v>
+        <v>1000000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -5034,11 +5036,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5059,10 +5061,10 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J118" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5072,11 +5074,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5097,7 +5099,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5110,11 +5112,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5135,10 +5137,10 @@
         <v/>
       </c>
       <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
         <v>2000000</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5148,11 +5150,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5173,7 +5175,7 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -5186,11 +5188,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5211,10 +5213,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J122" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5224,11 +5226,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5249,7 +5251,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>8000000</v>
+        <v>2500000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5262,11 +5264,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5287,10 +5289,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="125">
@@ -5300,11 +5302,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5325,7 +5327,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>1200000</v>
+        <v>8000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5338,11 +5340,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5363,7 +5365,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>15000000</v>
+        <v>8000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5376,11 +5378,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5391,10 +5393,8 @@
       <c r="E127" t="n">
         <v/>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F127" t="n">
+        <v/>
       </c>
       <c r="G127" t="n">
         <v/>
@@ -5403,10 +5403,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="J127" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5416,11 +5416,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5441,7 +5441,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>20000000</v>
+        <v>15000000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5454,11 +5454,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5469,8 +5469,10 @@
       <c r="E129" t="n">
         <v/>
       </c>
-      <c r="F129" t="n">
-        <v/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G129" t="n">
         <v/>
@@ -5479,10 +5481,10 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="130">
@@ -5492,11 +5494,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5517,10 +5519,10 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="J130" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5530,11 +5532,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5555,7 +5557,7 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5568,11 +5570,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5593,10 +5595,10 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="133">
@@ -5606,11 +5608,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5631,7 +5633,7 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5644,11 +5646,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5669,10 +5671,10 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="J134" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5682,11 +5684,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5707,10 +5709,10 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>17500000</v>
+        <v>11000000</v>
       </c>
       <c r="J135" t="n">
-        <v>9500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -5720,11 +5722,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5745,10 +5747,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>14000000</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="137">
@@ -5758,11 +5760,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5783,10 +5785,10 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>2000000</v>
+        <v>17500000</v>
       </c>
       <c r="J137" t="n">
-        <v>2000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="138">
@@ -5796,11 +5798,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5821,10 +5823,10 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="J138" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5834,11 +5836,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5859,10 +5861,10 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="140">
@@ -5872,11 +5874,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5897,10 +5899,10 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="141">
@@ -5910,11 +5912,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5935,7 +5937,7 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>12000000</v>
+        <v>30000000</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -5948,11 +5950,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5973,10 +5975,10 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>5000000</v>
+        <v>18000000</v>
       </c>
       <c r="J142" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -5986,11 +5988,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6011,7 +6013,7 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -6024,11 +6026,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6049,10 +6051,10 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="145">
@@ -6062,11 +6064,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6087,7 +6089,7 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>2700000</v>
+        <v>5000000</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -6100,11 +6102,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6125,7 +6127,7 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>27500000</v>
+        <v>2000000</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -6138,11 +6140,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6163,7 +6165,7 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>18000000</v>
+        <v>2700000</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -6176,11 +6178,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6201,7 +6203,7 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>3000000</v>
+        <v>27500000</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -6214,11 +6216,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6239,7 +6241,7 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>34200000</v>
+        <v>18000000</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -6252,11 +6254,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6277,10 +6279,10 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J150" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6290,36 +6292,112 @@
         </is>
       </c>
       <c r="B151" t="n">
+        <v>43</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v/>
+      </c>
+      <c r="F151" t="n">
+        <v/>
+      </c>
+      <c r="G151" t="n">
+        <v/>
+      </c>
+      <c r="H151" t="n">
+        <v/>
+      </c>
+      <c r="I151" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>42</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v/>
+      </c>
+      <c r="F152" t="n">
+        <v/>
+      </c>
+      <c r="G152" t="n">
+        <v/>
+      </c>
+      <c r="H152" t="n">
+        <v/>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
         <v>41</v>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v/>
-      </c>
-      <c r="F151" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v/>
+      </c>
+      <c r="F153" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G151" t="n">
-        <v/>
-      </c>
-      <c r="H151" t="n">
-        <v/>
-      </c>
-      <c r="I151" t="n">
+      <c r="G153" t="n">
+        <v/>
+      </c>
+      <c r="H153" t="n">
+        <v/>
+      </c>
+      <c r="I153" t="n">
         <v>16000000</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J153" t="n">
         <v>2000000</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0908896604</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>200000</v>
+        <v>1500000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,8 +535,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0777891306</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -545,7 +547,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -558,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,10 +575,8 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0919972597</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,7 +585,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>19000000</v>
+        <v>3000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0766931276</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -625,10 +625,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>10000000</v>
+        <v>1300000</v>
       </c>
       <c r="J5" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -665,7 +665,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>21000000</v>
+        <v>1000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -678,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -705,7 +705,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -718,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0779841025</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,7 +745,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>1050000</v>
+        <v>1500000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -758,11 +758,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -785,7 +785,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>5000000</v>
+        <v>200000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -798,11 +798,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -813,10 +813,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0564820827</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -825,7 +823,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>25000000</v>
+        <v>6000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -838,11 +836,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -855,7 +853,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -865,7 +863,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>2000000</v>
+        <v>19000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -878,11 +876,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -895,7 +893,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -905,10 +903,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>18000000</v>
+        <v>10000000</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="13">
@@ -918,11 +916,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -935,7 +933,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -945,7 +943,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1050000</v>
+        <v>21000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -958,11 +956,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -975,7 +973,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -985,7 +983,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -998,11 +996,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1015,7 +1013,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1025,10 +1023,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>7500000</v>
+        <v>1050000</v>
       </c>
       <c r="J15" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1038,11 +1036,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1055,7 +1053,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1065,10 +1063,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>32000000</v>
+        <v>5000000</v>
       </c>
       <c r="J16" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1078,11 +1076,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1095,7 +1093,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1105,7 +1103,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>1300000</v>
+        <v>25000000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1118,11 +1116,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1135,7 +1133,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1145,7 +1143,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1158,11 +1156,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1175,7 +1173,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1185,7 +1183,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>24800000</v>
+        <v>18000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1198,11 +1196,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1215,7 +1213,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1225,10 +1223,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>1500000</v>
+        <v>1050000</v>
       </c>
       <c r="J20" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1238,11 +1236,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1255,7 +1253,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1265,7 +1263,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1278,11 +1276,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1295,7 +1293,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1305,10 +1303,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>2800000</v>
+        <v>7500000</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="23">
@@ -1318,11 +1316,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1335,7 +1333,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1345,10 +1343,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="J23" t="n">
         <v>3000000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1358,11 +1356,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1375,7 +1373,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1385,10 +1383,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>9500000</v>
+        <v>1300000</v>
       </c>
       <c r="J24" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1398,11 +1396,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1415,7 +1413,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1425,7 +1423,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1438,11 +1436,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1455,7 +1453,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1465,7 +1463,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>2600000</v>
+        <v>24800000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1478,11 +1476,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1495,7 +1493,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1505,10 +1503,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="J27" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="28">
@@ -1518,11 +1516,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1535,7 +1533,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1545,7 +1543,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>3700000</v>
+        <v>1500000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1558,11 +1556,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1575,7 +1573,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1585,7 +1583,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>6000000</v>
+        <v>2800000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1598,11 +1596,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1615,7 +1613,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1625,10 +1623,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>14730000</v>
+        <v>3000000</v>
       </c>
       <c r="J30" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1638,11 +1636,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1655,7 +1653,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1665,10 +1663,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>14000000</v>
+        <v>9500000</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="32">
@@ -1678,11 +1676,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1695,7 +1693,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1705,7 +1703,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1718,11 +1716,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1733,8 +1731,10 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0907388219</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1743,7 +1743,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>1500000</v>
+        <v>2600000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1756,11 +1756,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1783,10 +1783,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="35">
@@ -1796,11 +1796,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1811,8 +1811,10 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1821,7 +1823,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>1500000</v>
+        <v>3700000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1834,11 +1836,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1851,7 +1853,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1861,10 +1863,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J36" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1874,11 +1876,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1891,7 +1893,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0347433400</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1901,10 +1903,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>21000000</v>
+        <v>14730000</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="38">
@@ -1914,11 +1916,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1931,7 +1933,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1941,7 +1943,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>20500000</v>
+        <v>14000000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1954,11 +1956,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1969,8 +1971,10 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1979,7 +1983,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1992,11 +1996,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2007,10 +2011,8 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -2019,7 +2021,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2032,11 +2034,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2049,7 +2051,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2072,11 +2074,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2087,10 +2089,8 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0786942575</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2099,7 +2099,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2112,11 +2112,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2139,10 +2139,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="44">
@@ -2152,11 +2152,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0347433400</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2179,10 +2179,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>10000000</v>
+        <v>21000000</v>
       </c>
       <c r="J44" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2192,11 +2192,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2219,7 +2219,7 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>1500000</v>
+        <v>20500000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2232,11 +2232,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2247,10 +2247,8 @@
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0974646251</t>
-        </is>
+      <c r="F46" t="n">
+        <v/>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -2259,7 +2257,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>3000000</v>
+        <v>900000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2272,11 +2270,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2289,7 +2287,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2299,10 +2297,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="J47" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2312,11 +2310,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2329,7 +2327,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2339,7 +2337,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2352,11 +2350,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2369,7 +2367,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2379,7 +2377,7 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>53000000</v>
+        <v>2000000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2392,11 +2390,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2409,7 +2407,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2419,7 +2417,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>27500000</v>
+        <v>1000000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2432,11 +2430,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2447,8 +2445,10 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="n">
-        <v/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0918667208</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2457,10 +2457,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="52">
@@ -2470,11 +2470,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2497,7 +2497,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2510,11 +2510,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2537,7 +2537,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2550,11 +2550,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2577,10 +2577,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="55">
@@ -2590,11 +2590,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2617,7 +2617,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2630,11 +2630,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2645,8 +2645,10 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="n">
-        <v/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2655,7 +2657,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>30000000</v>
+        <v>53000000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2668,11 +2670,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2685,7 +2687,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2695,7 +2697,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>4000000</v>
+        <v>27500000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2708,11 +2710,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2723,10 +2725,8 @@
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F58" t="n">
+        <v/>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2735,7 +2735,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>31500000</v>
+        <v>2000000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2748,11 +2748,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2775,7 +2775,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>45000000</v>
+        <v>2000000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2788,11 +2788,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2815,7 +2815,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>5000000</v>
+        <v>2500000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2828,11 +2828,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2855,10 +2855,10 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>26000000</v>
+        <v>9000000</v>
       </c>
       <c r="J61" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2868,11 +2868,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2895,7 +2895,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>1900000</v>
+        <v>35000000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2908,11 +2908,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2923,10 +2923,8 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0797571132</t>
-        </is>
+      <c r="F63" t="n">
+        <v/>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2935,10 +2933,10 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>24300000</v>
+        <v>30000000</v>
       </c>
       <c r="J63" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2948,11 +2946,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2965,7 +2963,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2978,7 +2976,7 @@
         <v>4000000</v>
       </c>
       <c r="J64" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2988,11 +2986,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3005,7 +3003,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3015,10 +3013,10 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>10000000</v>
+        <v>31500000</v>
       </c>
       <c r="J65" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3028,11 +3026,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3045,7 +3043,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3055,10 +3053,10 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>8000000</v>
+        <v>45000000</v>
       </c>
       <c r="J66" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3068,11 +3066,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3085,7 +3083,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3095,7 +3093,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>33000000</v>
+        <v>5000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3108,11 +3106,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3125,7 +3123,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3135,10 +3133,10 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>16000000</v>
+        <v>26000000</v>
       </c>
       <c r="J68" t="n">
-        <v>4000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="69">
@@ -3148,11 +3146,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3165,7 +3163,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3175,7 +3173,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>19000000</v>
+        <v>1900000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3188,11 +3186,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3205,7 +3203,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3215,10 +3213,10 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>15000000</v>
+        <v>24300000</v>
       </c>
       <c r="J70" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="71">
@@ -3228,11 +3226,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3245,7 +3243,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3255,10 +3253,10 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>33000000</v>
+        <v>4000000</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="72">
@@ -3268,11 +3266,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3285,7 +3283,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3295,10 +3293,10 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>38000000</v>
+        <v>10000000</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="73">
@@ -3308,11 +3306,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3325,7 +3323,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3335,10 +3333,10 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="74">
@@ -3348,11 +3346,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3365,7 +3363,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3375,7 +3373,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>17000000</v>
+        <v>33000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3388,11 +3386,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3405,7 +3403,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3415,10 +3413,10 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>10000000</v>
+        <v>16000000</v>
       </c>
       <c r="J75" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="76">
@@ -3428,11 +3426,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3445,7 +3443,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3455,10 +3453,10 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>10000000</v>
+        <v>19000000</v>
       </c>
       <c r="J76" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3468,11 +3466,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3483,8 +3481,10 @@
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="n">
-        <v/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0939773382</t>
+        </is>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -3493,10 +3493,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>23500000</v>
+        <v>15000000</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="78">
@@ -3506,11 +3506,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3521,8 +3521,10 @@
       <c r="E78" t="n">
         <v/>
       </c>
-      <c r="F78" t="n">
-        <v/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0762777862</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -3531,10 +3533,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>33000000</v>
       </c>
       <c r="J78" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3544,11 +3546,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3559,8 +3561,10 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="n">
-        <v/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0703145712</t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3569,7 +3573,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>33500000</v>
+        <v>38000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3582,11 +3586,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3597,8 +3601,10 @@
       <c r="E80" t="n">
         <v/>
       </c>
-      <c r="F80" t="n">
-        <v/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -3607,7 +3613,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>27500000</v>
+        <v>6000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3620,11 +3626,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3635,8 +3641,10 @@
       <c r="E81" t="n">
         <v/>
       </c>
-      <c r="F81" t="n">
-        <v/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -3645,10 +3653,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>22500000</v>
+        <v>17000000</v>
       </c>
       <c r="J81" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3658,11 +3666,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3673,8 +3681,10 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3683,10 +3693,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="83">
@@ -3696,11 +3706,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3711,8 +3721,10 @@
       <c r="E83" t="n">
         <v/>
       </c>
-      <c r="F83" t="n">
-        <v/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -3721,10 +3733,10 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>17500000</v>
+        <v>10000000</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="84">
@@ -3734,11 +3746,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3759,10 +3771,10 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>500000</v>
+        <v>23500000</v>
       </c>
       <c r="J84" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3772,11 +3784,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3797,10 +3809,10 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>1800000</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="86">
@@ -3810,11 +3822,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3835,7 +3847,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>5000000</v>
+        <v>33500000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3848,11 +3860,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3873,7 +3885,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>10000000</v>
+        <v>27500000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3886,11 +3898,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3911,10 +3923,10 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>57000000</v>
+        <v>22500000</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="89">
@@ -3924,11 +3936,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3962,11 +3974,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3987,7 +3999,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>2000000</v>
+        <v>17500000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4000,11 +4012,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4025,10 +4037,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="J91" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="92">
@@ -4038,11 +4050,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4053,10 +4065,8 @@
       <c r="E92" t="n">
         <v/>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F92" t="n">
+        <v/>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -4065,7 +4075,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>33500000</v>
+        <v>1800000</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4078,11 +4088,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4093,10 +4103,8 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F93" t="n">
+        <v/>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -4105,10 +4113,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J93" t="n">
-        <v>27000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4118,11 +4126,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4143,7 +4151,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>22000000</v>
+        <v>10000000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4156,11 +4164,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4181,10 +4189,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>10000000</v>
+        <v>57000000</v>
       </c>
       <c r="J95" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4194,11 +4202,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4219,10 +4227,10 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J96" t="n">
-        <v>23000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4232,11 +4240,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4245,12 +4253,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F97" t="n">
+        <v/>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -4259,10 +4265,10 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J97" t="n">
-        <v>24000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4272,11 +4278,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4297,10 +4303,10 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>1200000</v>
+        <v>15000000</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="99">
@@ -4310,11 +4316,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4325,8 +4331,10 @@
       <c r="E99" t="n">
         <v/>
       </c>
-      <c r="F99" t="n">
-        <v/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -4335,10 +4343,10 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>4700000</v>
+        <v>33500000</v>
       </c>
       <c r="J99" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4348,11 +4356,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4363,8 +4371,10 @@
       <c r="E100" t="n">
         <v/>
       </c>
-      <c r="F100" t="n">
-        <v/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -4373,10 +4383,10 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>25000000</v>
+        <v>3000000</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="101">
@@ -4386,11 +4396,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4411,7 +4421,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>4000000</v>
+        <v>22000000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4424,11 +4434,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4449,10 +4459,10 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="103">
@@ -4462,11 +4472,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4487,10 +4497,10 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>20000000</v>
+        <v>2000000</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="104">
@@ -4500,11 +4510,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4513,10 +4523,12 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v/>
-      </c>
-      <c r="F104" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -4525,10 +4537,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>35000000</v>
+        <v>25000000</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="105">
@@ -4538,11 +4550,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4563,10 +4575,10 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="J105" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4576,11 +4588,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4601,10 +4613,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>4700000</v>
       </c>
       <c r="J106" t="n">
-        <v>21000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="107">
@@ -4614,11 +4626,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4639,7 +4651,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4652,11 +4664,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4667,10 +4679,8 @@
       <c r="E108" t="n">
         <v/>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F108" t="n">
+        <v/>
       </c>
       <c r="G108" t="n">
         <v/>
@@ -4679,10 +4689,10 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
       <c r="J108" t="n">
-        <v>28000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4692,11 +4702,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4717,7 +4727,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4730,11 +4740,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4755,7 +4765,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>18000000</v>
+        <v>20000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4768,11 +4778,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4793,10 +4803,10 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>1200000</v>
+        <v>35000000</v>
       </c>
       <c r="J111" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4806,11 +4816,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4831,10 +4841,10 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="113">
@@ -4844,11 +4854,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4869,10 +4879,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>4300000</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>29500000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="114">
@@ -4882,11 +4892,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4907,10 +4917,10 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>4000000</v>
+        <v>20000000</v>
       </c>
       <c r="J114" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4920,11 +4930,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4937,7 +4947,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0332812716</t>
+          <t>0767509572</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -4947,10 +4957,10 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="J115" t="n">
-        <v>12000000</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="116">
@@ -4960,11 +4970,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4985,7 +4995,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>43000000</v>
+        <v>12000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4998,11 +5008,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5023,7 +5033,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>1000000</v>
+        <v>18000000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -5036,11 +5046,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5061,10 +5071,10 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="119">
@@ -5074,11 +5084,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5099,7 +5109,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5112,11 +5122,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5137,10 +5147,10 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>4300000</v>
       </c>
       <c r="J120" t="n">
-        <v>2000000</v>
+        <v>29500000</v>
       </c>
     </row>
     <row r="121">
@@ -5150,11 +5160,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5175,10 +5185,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="122">
@@ -5188,11 +5198,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5203,8 +5213,10 @@
       <c r="E122" t="n">
         <v/>
       </c>
-      <c r="F122" t="n">
-        <v/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -5213,10 +5225,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>2000000</v>
+        <v>13000000</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="123">
@@ -5226,11 +5238,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5251,7 +5263,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>2500000</v>
+        <v>43000000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5264,11 +5276,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5289,10 +5301,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="J124" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5302,11 +5314,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5327,7 +5339,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5340,11 +5352,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5365,7 +5377,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>8000000</v>
+        <v>4500000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5378,11 +5390,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5403,10 +5415,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="128">
@@ -5416,11 +5428,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5441,7 +5453,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>15000000</v>
+        <v>3000000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5454,11 +5466,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5469,10 +5481,8 @@
       <c r="E129" t="n">
         <v/>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F129" t="n">
+        <v/>
       </c>
       <c r="G129" t="n">
         <v/>
@@ -5481,10 +5491,10 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J129" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5494,11 +5504,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5519,7 +5529,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>20000000</v>
+        <v>2500000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5532,11 +5542,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5557,10 +5567,10 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="132">
@@ -5570,11 +5580,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5595,10 +5605,10 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="J132" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5608,11 +5618,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5633,7 +5643,7 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>10000000</v>
+        <v>8000000</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5646,11 +5656,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5671,7 +5681,7 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>11000000</v>
+        <v>1200000</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -5684,11 +5694,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5709,7 +5719,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>11000000</v>
+        <v>15000000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5722,11 +5732,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5737,8 +5747,10 @@
       <c r="E136" t="n">
         <v/>
       </c>
-      <c r="F136" t="n">
-        <v/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G136" t="n">
         <v/>
@@ -5747,10 +5759,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J136" t="n">
-        <v>7000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="137">
@@ -5760,11 +5772,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5785,10 +5797,10 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>17500000</v>
+        <v>20000000</v>
       </c>
       <c r="J137" t="n">
-        <v>9500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5798,11 +5810,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5823,7 +5835,7 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>14000000</v>
+        <v>6000000</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -5836,11 +5848,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5861,10 +5873,10 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="140">
@@ -5874,11 +5886,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5899,10 +5911,10 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J140" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5912,11 +5924,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5937,7 +5949,7 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>30000000</v>
+        <v>11000000</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -5950,11 +5962,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5975,7 +5987,7 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>18000000</v>
+        <v>11000000</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -5988,11 +6000,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6013,10 +6025,10 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="144">
@@ -6026,11 +6038,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6051,10 +6063,10 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>5000000</v>
+        <v>17500000</v>
       </c>
       <c r="J144" t="n">
-        <v>7000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="145">
@@ -6064,11 +6076,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6089,7 +6101,7 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>5000000</v>
+        <v>14000000</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -6102,11 +6114,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6130,7 +6142,7 @@
         <v>2000000</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="147">
@@ -6140,11 +6152,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6165,10 +6177,10 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>2700000</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="148">
@@ -6178,11 +6190,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6203,7 +6215,7 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>27500000</v>
+        <v>30000000</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -6216,11 +6228,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6254,11 +6266,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6279,7 +6291,7 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -6292,11 +6304,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6317,10 +6329,10 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>34200000</v>
+        <v>5000000</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="152">
@@ -6330,11 +6342,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6355,10 +6367,10 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J152" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -6368,36 +6380,302 @@
         </is>
       </c>
       <c r="B153" t="n">
+        <v>48</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>chị Hà</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v/>
+      </c>
+      <c r="F153" t="n">
+        <v/>
+      </c>
+      <c r="G153" t="n">
+        <v/>
+      </c>
+      <c r="H153" t="n">
+        <v/>
+      </c>
+      <c r="I153" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>47</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>C Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v/>
+      </c>
+      <c r="F154" t="n">
+        <v/>
+      </c>
+      <c r="G154" t="n">
+        <v/>
+      </c>
+      <c r="H154" t="n">
+        <v/>
+      </c>
+      <c r="I154" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>46</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ngọc Tuyền </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v/>
+      </c>
+      <c r="F155" t="n">
+        <v/>
+      </c>
+      <c r="G155" t="n">
+        <v/>
+      </c>
+      <c r="H155" t="n">
+        <v/>
+      </c>
+      <c r="I155" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>45</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v/>
+      </c>
+      <c r="F156" t="n">
+        <v/>
+      </c>
+      <c r="G156" t="n">
+        <v/>
+      </c>
+      <c r="H156" t="n">
+        <v/>
+      </c>
+      <c r="I156" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>44</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v/>
+      </c>
+      <c r="F157" t="n">
+        <v/>
+      </c>
+      <c r="G157" t="n">
+        <v/>
+      </c>
+      <c r="H157" t="n">
+        <v/>
+      </c>
+      <c r="I157" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>43</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v/>
+      </c>
+      <c r="F158" t="n">
+        <v/>
+      </c>
+      <c r="G158" t="n">
+        <v/>
+      </c>
+      <c r="H158" t="n">
+        <v/>
+      </c>
+      <c r="I158" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>42</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v/>
+      </c>
+      <c r="F159" t="n">
+        <v/>
+      </c>
+      <c r="G159" t="n">
+        <v/>
+      </c>
+      <c r="H159" t="n">
+        <v/>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
         <v>41</v>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v/>
-      </c>
-      <c r="F153" t="inlineStr">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v/>
+      </c>
+      <c r="F160" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G153" t="n">
-        <v/>
-      </c>
-      <c r="H153" t="n">
-        <v/>
-      </c>
-      <c r="I153" t="n">
+      <c r="G160" t="n">
+        <v/>
+      </c>
+      <c r="H160" t="n">
+        <v/>
+      </c>
+      <c r="I160" t="n">
         <v>16000000</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J160" t="n">
         <v>2000000</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -1023,7 +1023,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>1050000</v>
+        <v>3150000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>10000000</v>
+        <v>16000000</v>
       </c>
       <c r="J82" t="n">
         <v>3000000</v>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Phạm Thị Thu Hà</t>
+          <t>Trần Thị Ngọc Dung</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,10 +495,8 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0908896604</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -507,7 +505,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +518,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Quyên</t>
+          <t>Trần Thị Thanh Nhàn</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0777891306</t>
+          <t>0981499994</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,7 +545,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>8000000</v>
+        <v>28000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,8 +573,10 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0908896604</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,7 +585,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0777891306</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -625,7 +625,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1300000</v>
+        <v>8000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Bé</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -653,10 +653,8 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0907234326</t>
-        </is>
+      <c r="F6" t="n">
+        <v/>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -665,7 +663,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -678,11 +676,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Yến Phương</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -695,7 +693,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -705,7 +703,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>500000</v>
+        <v>1300000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -718,11 +716,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Phan Thị Út</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -735,7 +733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0779841025</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,7 +743,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -758,11 +756,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,7 +773,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -785,7 +783,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -798,11 +796,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -813,8 +811,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0779841025</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -823,7 +823,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -836,11 +836,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0919972597</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -863,7 +863,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>19000000</v>
+        <v>200000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -876,11 +876,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -891,10 +891,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0766931276</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -903,10 +901,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J12" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -916,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -933,7 +931,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -943,7 +941,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>21000000</v>
+        <v>19000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -956,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -973,7 +971,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -983,10 +981,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="15">
@@ -996,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1013,7 +1011,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1023,7 +1021,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>3150000</v>
+        <v>21000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1036,11 +1034,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1053,7 +1051,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1063,7 +1061,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1076,11 +1074,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1093,7 +1091,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1103,7 +1101,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>25000000</v>
+        <v>3150000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1116,11 +1114,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1133,7 +1131,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1143,7 +1141,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1156,11 +1154,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1173,7 +1171,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1183,7 +1181,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>18000000</v>
+        <v>25000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1196,11 +1194,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1213,7 +1211,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1223,7 +1221,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>1050000</v>
+        <v>2000000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1236,11 +1234,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1253,7 +1251,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1263,7 +1261,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>1800000</v>
+        <v>18000000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1276,11 +1274,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1293,7 +1291,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1303,10 +1301,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>7500000</v>
+        <v>1050000</v>
       </c>
       <c r="J22" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1316,11 +1314,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1333,7 +1331,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1343,10 +1341,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>32000000</v>
+        <v>1800000</v>
       </c>
       <c r="J23" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1356,11 +1354,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1373,7 +1371,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1383,10 +1381,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>1300000</v>
+        <v>7500000</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="25">
@@ -1396,11 +1394,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1413,7 +1411,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1423,10 +1421,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>1500000</v>
+        <v>32000000</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="26">
@@ -1436,11 +1434,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1453,7 +1451,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1463,7 +1461,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>24800000</v>
+        <v>1300000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1476,11 +1474,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1493,7 +1491,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1506,7 +1504,7 @@
         <v>1500000</v>
       </c>
       <c r="J27" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1516,11 +1514,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1533,7 +1531,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1543,7 +1541,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>1500000</v>
+        <v>24800000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1556,11 +1554,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1573,7 +1571,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1583,10 +1581,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="30">
@@ -1596,11 +1594,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1613,7 +1611,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1623,7 +1621,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1636,11 +1634,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1653,7 +1651,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1663,10 +1661,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>9500000</v>
+        <v>2800000</v>
       </c>
       <c r="J31" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1676,11 +1674,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1693,7 +1691,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1703,7 +1701,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>900000</v>
+        <v>3000000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1716,11 +1714,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1733,7 +1731,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1743,10 +1741,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>2600000</v>
+        <v>9500000</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="34">
@@ -1756,11 +1754,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1773,7 +1771,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1783,10 +1781,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="J34" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1796,11 +1794,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1813,7 +1811,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1823,7 +1821,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>3700000</v>
+        <v>2600000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1836,11 +1834,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1853,7 +1851,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1863,10 +1861,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="37">
@@ -1876,11 +1874,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1893,7 +1891,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1903,10 +1901,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>14730000</v>
+        <v>3700000</v>
       </c>
       <c r="J37" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1916,11 +1914,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1933,7 +1931,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1943,7 +1941,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>14000000</v>
+        <v>6000000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1956,11 +1954,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1973,7 +1971,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1983,10 +1981,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>2000000</v>
+        <v>14730000</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="40">
@@ -1996,11 +1994,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2011,8 +2009,10 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0872928717</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -2021,7 +2021,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>1500000</v>
+        <v>14000000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2034,11 +2034,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2074,11 +2074,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2112,11 +2112,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2139,10 +2139,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J43" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2152,11 +2152,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2167,10 +2167,8 @@
       <c r="E44" t="n">
         <v/>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0347433400</t>
-        </is>
+      <c r="F44" t="n">
+        <v/>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -2179,7 +2177,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>21000000</v>
+        <v>1500000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2192,11 +2190,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2209,7 +2207,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2219,10 +2217,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>20500000</v>
+        <v>10000000</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="46">
@@ -2232,11 +2230,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2247,8 +2245,10 @@
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="n">
-        <v/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0347433400</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -2257,7 +2257,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>900000</v>
+        <v>21000000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2270,11 +2270,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2297,7 +2297,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>2500000</v>
+        <v>20500000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2310,11 +2310,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2325,10 +2325,8 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0799535184</t>
-        </is>
+      <c r="F48" t="n">
+        <v/>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2337,7 +2335,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2350,11 +2348,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2367,7 +2365,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2377,7 +2375,7 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2390,11 +2388,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2407,7 +2405,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2417,7 +2415,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2430,11 +2428,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2447,7 +2445,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2457,10 +2455,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J51" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2470,11 +2468,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2487,7 +2485,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2497,7 +2495,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2510,11 +2508,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2527,7 +2525,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2537,10 +2535,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="54">
@@ -2550,11 +2548,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2567,7 +2565,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2577,10 +2575,10 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J54" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2590,11 +2588,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2607,7 +2605,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2617,7 +2615,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>30000000</v>
+        <v>3000000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2630,11 +2628,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2647,7 +2645,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2657,10 +2655,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>53000000</v>
+        <v>2000000</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="57">
@@ -2670,11 +2668,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2687,7 +2685,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2697,7 +2695,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>27500000</v>
+        <v>30000000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2710,11 +2708,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2725,8 +2723,10 @@
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="n">
-        <v/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2735,7 +2735,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>2000000</v>
+        <v>53000000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2748,11 +2748,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2775,7 +2775,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>2000000</v>
+        <v>27500000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2788,11 +2788,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2803,10 +2803,8 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0939268869</t>
-        </is>
+      <c r="F60" t="n">
+        <v/>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2815,7 +2813,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2828,11 +2826,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2845,7 +2843,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2855,7 +2853,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2868,11 +2866,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2885,7 +2883,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2895,7 +2893,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>35000000</v>
+        <v>2500000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2908,11 +2906,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2923,8 +2921,10 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="n">
-        <v/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0833644489</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2933,7 +2933,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>30000000</v>
+        <v>9000000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2946,11 +2946,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2973,7 +2973,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2986,11 +2986,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3001,10 +3001,8 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F65" t="n">
+        <v/>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -3013,7 +3011,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>31500000</v>
+        <v>30000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3026,11 +3024,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3043,7 +3041,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3053,7 +3051,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>45000000</v>
+        <v>4000000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3066,11 +3064,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3083,7 +3081,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3093,7 +3091,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>5000000</v>
+        <v>31500000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3106,11 +3104,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3123,7 +3121,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3133,10 +3131,10 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>26000000</v>
+        <v>45000000</v>
       </c>
       <c r="J68" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3146,11 +3144,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3163,7 +3161,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3173,7 +3171,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>1900000</v>
+        <v>5000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3186,11 +3184,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3203,7 +3201,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3213,10 +3211,10 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>24300000</v>
+        <v>26000000</v>
       </c>
       <c r="J70" t="n">
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="71">
@@ -3226,11 +3224,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3243,7 +3241,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3253,10 +3251,10 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>4000000</v>
+        <v>1900000</v>
       </c>
       <c r="J71" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3266,11 +3264,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3283,7 +3281,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3293,10 +3291,10 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>10000000</v>
+        <v>24300000</v>
       </c>
       <c r="J72" t="n">
-        <v>18000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="73">
@@ -3306,11 +3304,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3323,7 +3321,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3333,7 +3331,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="J73" t="n">
         <v>5000000</v>
@@ -3346,11 +3344,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3363,7 +3361,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3373,10 +3371,10 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>33000000</v>
+        <v>10000000</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="75">
@@ -3386,11 +3384,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3403,7 +3401,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3413,10 +3411,10 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>16000000</v>
+        <v>8000000</v>
       </c>
       <c r="J75" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="76">
@@ -3426,11 +3424,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3443,7 +3441,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3453,7 +3451,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>19000000</v>
+        <v>33000000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3466,11 +3464,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3483,7 +3481,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3493,10 +3491,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>15000000</v>
+        <v>16000000</v>
       </c>
       <c r="J77" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="78">
@@ -3506,11 +3504,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3523,7 +3521,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3533,7 +3531,7 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>33000000</v>
+        <v>19000000</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3546,11 +3544,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3563,7 +3561,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3573,10 +3571,10 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>38000000</v>
+        <v>15000000</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="80">
@@ -3586,11 +3584,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3603,7 +3601,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3613,7 +3611,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>6000000</v>
+        <v>33000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3626,11 +3624,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3643,7 +3641,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3653,7 +3651,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>17000000</v>
+        <v>38000000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3666,11 +3664,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3683,7 +3681,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3693,10 +3691,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>16000000</v>
+        <v>6000000</v>
       </c>
       <c r="J82" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3706,11 +3704,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3723,7 +3721,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3733,10 +3731,10 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>10000000</v>
+        <v>17000000</v>
       </c>
       <c r="J83" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3746,11 +3744,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3761,8 +3759,10 @@
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="n">
-        <v/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3771,10 +3771,10 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>23500000</v>
+        <v>16000000</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="85">
@@ -3784,11 +3784,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3799,8 +3799,10 @@
       <c r="E85" t="n">
         <v/>
       </c>
-      <c r="F85" t="n">
-        <v/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v/>
@@ -3809,10 +3811,10 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J85" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="86">
@@ -3822,11 +3824,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3847,7 +3849,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>33500000</v>
+        <v>23500000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3860,11 +3862,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3885,10 +3887,10 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>27500000</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="88">
@@ -3898,11 +3900,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3923,10 +3925,10 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>22500000</v>
+        <v>33500000</v>
       </c>
       <c r="J88" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3936,11 +3938,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3961,7 +3963,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>5000000</v>
+        <v>27500000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3974,11 +3976,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3999,10 +4001,10 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>17500000</v>
+        <v>22500000</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="91">
@@ -4012,11 +4014,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4037,10 +4039,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="J91" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4050,11 +4052,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4075,7 +4077,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>1800000</v>
+        <v>17500000</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4088,11 +4090,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4113,10 +4115,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="94">
@@ -4126,11 +4128,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4151,7 +4153,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>10000000</v>
+        <v>1800000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4164,11 +4166,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4189,7 +4191,7 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>57000000</v>
+        <v>5000000</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4202,11 +4204,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4227,7 +4229,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4240,11 +4242,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4265,7 +4267,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>2000000</v>
+        <v>57000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4278,11 +4280,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4303,10 +4305,10 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J98" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4316,11 +4318,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4331,10 +4333,8 @@
       <c r="E99" t="n">
         <v/>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F99" t="n">
+        <v/>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -4343,7 +4343,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>33500000</v>
+        <v>2000000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4356,11 +4356,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4371,10 +4371,8 @@
       <c r="E100" t="n">
         <v/>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F100" t="n">
+        <v/>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -4383,10 +4381,10 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="J100" t="n">
-        <v>27000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="101">
@@ -4396,11 +4394,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4411,8 +4409,10 @@
       <c r="E101" t="n">
         <v/>
       </c>
-      <c r="F101" t="n">
-        <v/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -4421,7 +4421,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>22000000</v>
+        <v>33500000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4434,11 +4434,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4449,8 +4449,10 @@
       <c r="E102" t="n">
         <v/>
       </c>
-      <c r="F102" t="n">
-        <v/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -4459,10 +4461,10 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="J102" t="n">
-        <v>3000000</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="103">
@@ -4472,11 +4474,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4497,10 +4499,10 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>2000000</v>
+        <v>22000000</v>
       </c>
       <c r="J103" t="n">
-        <v>23000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4510,11 +4512,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4523,12 +4525,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F104" t="n">
+        <v/>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -4537,10 +4537,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>25000000</v>
+        <v>10000000</v>
       </c>
       <c r="J104" t="n">
-        <v>24000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="105">
@@ -4550,11 +4550,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4575,10 +4575,10 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="106">
@@ -4588,11 +4588,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4601,10 +4601,12 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v/>
-      </c>
-      <c r="F106" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -4613,10 +4615,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>4700000</v>
+        <v>25000000</v>
       </c>
       <c r="J106" t="n">
-        <v>20000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="107">
@@ -4626,11 +4628,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4651,7 +4653,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>25000000</v>
+        <v>1200000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4664,11 +4666,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4689,10 +4691,10 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>4000000</v>
+        <v>4700000</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="109">
@@ -4702,11 +4704,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4727,7 +4729,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4740,11 +4742,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4765,7 +4767,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4778,11 +4780,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4803,7 +4805,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>35000000</v>
+        <v>4000000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4816,11 +4818,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4841,10 +4843,10 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="J112" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4854,11 +4856,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4879,10 +4881,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="J113" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4892,11 +4894,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4917,10 +4919,10 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="115">
@@ -4930,11 +4932,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4945,10 +4947,8 @@
       <c r="E115" t="n">
         <v/>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F115" t="n">
+        <v/>
       </c>
       <c r="G115" t="n">
         <v/>
@@ -4957,10 +4957,10 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>28000000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="116">
@@ -4970,11 +4970,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>12000000</v>
+        <v>20000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5008,11 +5008,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5023,8 +5023,10 @@
       <c r="E117" t="n">
         <v/>
       </c>
-      <c r="F117" t="n">
-        <v/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -5033,10 +5035,10 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>18000000</v>
+        <v>10000000</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="118">
@@ -5046,11 +5048,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5071,10 +5073,10 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>1200000</v>
+        <v>12000000</v>
       </c>
       <c r="J118" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5084,11 +5086,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5109,7 +5111,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>10000000</v>
+        <v>18000000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5122,11 +5124,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5147,10 +5149,10 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>4300000</v>
+        <v>1200000</v>
       </c>
       <c r="J120" t="n">
-        <v>29500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="121">
@@ -5160,11 +5162,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5185,10 +5187,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
       <c r="J121" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5198,11 +5200,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5213,10 +5215,8 @@
       <c r="E122" t="n">
         <v/>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F122" t="n">
+        <v/>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -5225,10 +5225,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>13000000</v>
+        <v>4300000</v>
       </c>
       <c r="J122" t="n">
-        <v>12000000</v>
+        <v>29500000</v>
       </c>
     </row>
     <row r="123">
@@ -5238,11 +5238,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5263,10 +5263,10 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>43000000</v>
+        <v>4000000</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="124">
@@ -5276,11 +5276,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5291,8 +5291,10 @@
       <c r="E124" t="n">
         <v/>
       </c>
-      <c r="F124" t="n">
-        <v/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G124" t="n">
         <v/>
@@ -5301,10 +5303,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="125">
@@ -5314,11 +5316,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5339,7 +5341,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>2000000</v>
+        <v>43000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5352,11 +5354,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5377,7 +5379,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>4500000</v>
+        <v>1000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5390,11 +5392,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5415,10 +5417,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J127" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5428,11 +5430,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5453,7 +5455,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5466,11 +5468,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5491,10 +5493,10 @@
         <v/>
       </c>
       <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
         <v>2000000</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5504,11 +5506,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5529,7 +5531,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5542,11 +5544,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5567,10 +5569,10 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J131" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5580,11 +5582,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5605,7 +5607,7 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>8000000</v>
+        <v>2500000</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5618,11 +5620,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5643,10 +5645,10 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="134">
@@ -5656,11 +5658,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5681,7 +5683,7 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>1200000</v>
+        <v>8000000</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -5694,11 +5696,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5719,7 +5721,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>15000000</v>
+        <v>8000000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5732,11 +5734,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5747,10 +5749,8 @@
       <c r="E136" t="n">
         <v/>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F136" t="n">
+        <v/>
       </c>
       <c r="G136" t="n">
         <v/>
@@ -5759,10 +5759,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="J136" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5772,11 +5772,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5797,7 +5797,7 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>20000000</v>
+        <v>15000000</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -5810,11 +5810,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5825,8 +5825,10 @@
       <c r="E138" t="n">
         <v/>
       </c>
-      <c r="F138" t="n">
-        <v/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G138" t="n">
         <v/>
@@ -5835,10 +5837,10 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="139">
@@ -5848,11 +5850,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5873,10 +5875,10 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="J139" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -5886,11 +5888,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5911,7 +5913,7 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -5924,11 +5926,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5949,10 +5951,10 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="142">
@@ -5962,11 +5964,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5987,7 +5989,7 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -6000,11 +6002,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6025,10 +6027,10 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="J143" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6038,11 +6040,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6063,10 +6065,10 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>17500000</v>
+        <v>11000000</v>
       </c>
       <c r="J144" t="n">
-        <v>9500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6076,11 +6078,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6101,10 +6103,10 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>14000000</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="146">
@@ -6114,11 +6116,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6139,10 +6141,10 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>2000000</v>
+        <v>17500000</v>
       </c>
       <c r="J146" t="n">
-        <v>2000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="147">
@@ -6152,11 +6154,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6177,10 +6179,10 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="J147" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6190,11 +6192,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6215,10 +6217,10 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="149">
@@ -6228,11 +6230,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6253,10 +6255,10 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="150">
@@ -6266,11 +6268,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6291,7 +6293,7 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>12000000</v>
+        <v>30000000</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -6304,11 +6306,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6329,10 +6331,10 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>5000000</v>
+        <v>18000000</v>
       </c>
       <c r="J151" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -6342,11 +6344,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6367,7 +6369,7 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -6380,11 +6382,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6405,10 +6407,10 @@
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="154">
@@ -6418,11 +6420,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6443,7 +6445,7 @@
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>2700000</v>
+        <v>5000000</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -6456,11 +6458,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6481,7 +6483,7 @@
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>27500000</v>
+        <v>2000000</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -6494,11 +6496,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6519,7 +6521,7 @@
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>18000000</v>
+        <v>2700000</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -6532,11 +6534,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6557,7 +6559,7 @@
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>3000000</v>
+        <v>27500000</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -6570,11 +6572,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6595,7 +6597,7 @@
         <v/>
       </c>
       <c r="I158" t="n">
-        <v>34200000</v>
+        <v>18000000</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -6608,11 +6610,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6633,10 +6635,10 @@
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J159" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6646,36 +6648,112 @@
         </is>
       </c>
       <c r="B160" t="n">
+        <v>43</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v/>
+      </c>
+      <c r="F160" t="n">
+        <v/>
+      </c>
+      <c r="G160" t="n">
+        <v/>
+      </c>
+      <c r="H160" t="n">
+        <v/>
+      </c>
+      <c r="I160" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>42</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v/>
+      </c>
+      <c r="F161" t="n">
+        <v/>
+      </c>
+      <c r="G161" t="n">
+        <v/>
+      </c>
+      <c r="H161" t="n">
+        <v/>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
         <v>41</v>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v/>
-      </c>
-      <c r="F160" t="inlineStr">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v/>
+      </c>
+      <c r="F162" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G160" t="n">
-        <v/>
-      </c>
-      <c r="H160" t="n">
-        <v/>
-      </c>
-      <c r="I160" t="n">
+      <c r="G162" t="n">
+        <v/>
+      </c>
+      <c r="H162" t="n">
+        <v/>
+      </c>
+      <c r="I162" t="n">
         <v>16000000</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J162" t="n">
         <v>2000000</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc Dung</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,11 +518,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Trần Thị Thanh Nhàn</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -533,10 +533,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0981499994</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -545,10 +543,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>28000000</v>
+        <v>5000000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="4">
@@ -558,11 +556,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Phạm Thị Thu Hà</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,7 +573,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0908896604</t>
+          <t>0978886601</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -585,7 +583,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -598,11 +596,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Quyên</t>
+          <t>Võ Thị Thuỳ Trang</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +613,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0777891306</t>
+          <t>0939293038</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -625,7 +623,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -638,11 +636,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc</t>
+          <t>Phạm Thị Trúc Lài</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -663,7 +661,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -676,11 +674,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Trần Thị Ngọc Dung</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -691,10 +689,8 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0988903782</t>
-        </is>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -703,7 +699,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>1300000</v>
+        <v>9000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -716,11 +712,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Bé</t>
+          <t>Trần Thị Thanh Nhàn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -733,7 +729,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0981499994</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -743,7 +739,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>1000000</v>
+        <v>28000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -756,11 +752,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Yến Phương</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -773,7 +769,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0908896604</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -783,7 +779,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -796,11 +792,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Phan Thị Út</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -813,7 +809,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0779841025</t>
+          <t>0777891306</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -823,7 +819,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1500000</v>
+        <v>8000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -836,11 +832,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,10 +847,8 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0988903782</t>
-        </is>
+      <c r="F11" t="n">
+        <v/>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -863,7 +857,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>200000</v>
+        <v>3000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -876,11 +870,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -891,8 +885,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0988903782</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -901,7 +897,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>6000000</v>
+        <v>1300000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -914,11 +910,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -931,7 +927,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0919972597</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -941,7 +937,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>19000000</v>
+        <v>1000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -954,11 +950,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -971,7 +967,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0766931276</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -981,10 +977,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>10000000</v>
+        <v>500000</v>
       </c>
       <c r="J14" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -994,11 +990,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1011,7 +1007,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0779841025</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1021,7 +1017,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>21000000</v>
+        <v>1500000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1034,11 +1030,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1051,7 +1047,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1061,7 +1057,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>1500000</v>
+        <v>200000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1074,11 +1070,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1089,10 +1085,8 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0901372461</t>
-        </is>
+      <c r="F17" t="n">
+        <v/>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1101,7 +1095,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>3150000</v>
+        <v>6000000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1114,11 +1108,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1131,7 +1125,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1141,7 +1135,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>5000000</v>
+        <v>19000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1154,11 +1148,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1171,7 +1165,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1181,10 +1175,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>25000000</v>
+        <v>10000000</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="20">
@@ -1194,11 +1188,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1211,7 +1205,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1221,7 +1215,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>2000000</v>
+        <v>21000000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1234,11 +1228,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1251,7 +1245,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1261,7 +1255,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>18000000</v>
+        <v>1500000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1274,11 +1268,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1291,7 +1285,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1301,7 +1295,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>1050000</v>
+        <v>3150000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1314,11 +1308,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1331,7 +1325,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1341,7 +1335,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>1800000</v>
+        <v>5000000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1354,11 +1348,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1371,7 +1365,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1381,10 +1375,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>7500000</v>
+        <v>25000000</v>
       </c>
       <c r="J24" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1394,11 +1388,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1411,7 +1405,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1421,10 +1415,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>32000000</v>
+        <v>2000000</v>
       </c>
       <c r="J25" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1434,11 +1428,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1451,7 +1445,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1461,7 +1455,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>1300000</v>
+        <v>18000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1474,11 +1468,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1491,7 +1485,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1501,7 +1495,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>1500000</v>
+        <v>1050000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1514,11 +1508,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1531,7 +1525,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1541,7 +1535,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>24800000</v>
+        <v>1800000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1554,11 +1548,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1571,7 +1565,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1581,10 +1575,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>1500000</v>
+        <v>7500000</v>
       </c>
       <c r="J29" t="n">
-        <v>300000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="30">
@@ -1594,11 +1588,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1611,7 +1605,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1621,10 +1615,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>1500000</v>
+        <v>32000000</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="31">
@@ -1634,11 +1628,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1651,7 +1645,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1661,7 +1655,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>2800000</v>
+        <v>1300000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1674,11 +1668,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1691,7 +1685,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1701,7 +1695,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1714,11 +1708,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1731,7 +1725,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1741,10 +1735,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>9500000</v>
+        <v>24800000</v>
       </c>
       <c r="J33" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1754,11 +1748,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1771,7 +1765,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1781,10 +1775,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="35">
@@ -1794,11 +1788,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1811,7 +1805,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1821,7 +1815,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>2600000</v>
+        <v>1500000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1834,11 +1828,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1851,7 +1845,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1861,10 +1855,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>1000000</v>
+        <v>2800000</v>
       </c>
       <c r="J36" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1874,11 +1868,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1891,7 +1885,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1901,7 +1895,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>3700000</v>
+        <v>3000000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1914,11 +1908,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1931,7 +1925,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1941,10 +1935,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>6000000</v>
+        <v>9500000</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="39">
@@ -1954,11 +1948,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1971,7 +1965,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1981,10 +1975,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>14730000</v>
+        <v>900000</v>
       </c>
       <c r="J39" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1994,11 +1988,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2011,7 +2005,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2021,7 +2015,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>14000000</v>
+        <v>2600000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2034,11 +2028,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2051,7 +2045,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2061,10 +2055,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="42">
@@ -2074,11 +2068,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2089,8 +2083,10 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="n">
-        <v/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -2099,7 +2095,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>1500000</v>
+        <v>3700000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2112,11 +2108,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2129,7 +2125,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2139,7 +2135,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2152,11 +2148,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2167,8 +2163,10 @@
       <c r="E44" t="n">
         <v/>
       </c>
-      <c r="F44" t="n">
-        <v/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0971073757</t>
+        </is>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -2177,10 +2175,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>1500000</v>
+        <v>14730000</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="45">
@@ -2190,11 +2188,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2207,7 +2205,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2217,10 +2215,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>10000000</v>
+        <v>14000000</v>
       </c>
       <c r="J45" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2230,11 +2228,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2247,7 +2245,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0347433400</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2257,7 +2255,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>21000000</v>
+        <v>2000000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2270,11 +2268,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2285,10 +2283,8 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0865677896</t>
-        </is>
+      <c r="F47" t="n">
+        <v/>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2297,7 +2293,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>20500000</v>
+        <v>1500000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2310,11 +2306,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2325,8 +2321,10 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="n">
-        <v/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2335,7 +2333,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2348,11 +2346,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2363,10 +2361,8 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F49" t="n">
+        <v/>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2375,7 +2371,7 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2388,11 +2384,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2405,7 +2401,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2415,10 +2411,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="51">
@@ -2428,11 +2424,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2445,7 +2441,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0347433400</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2455,7 +2451,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>2000000</v>
+        <v>21000000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2468,11 +2464,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2485,7 +2481,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2495,7 +2491,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>1000000</v>
+        <v>20500000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2508,11 +2504,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2523,10 +2519,8 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0918667208</t>
-        </is>
+      <c r="F53" t="n">
+        <v/>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2535,10 +2529,10 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>10000000</v>
+        <v>900000</v>
       </c>
       <c r="J53" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2548,11 +2542,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2565,7 +2559,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2575,7 +2569,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2588,11 +2582,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2605,7 +2599,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2615,7 +2609,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2628,11 +2622,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2645,7 +2639,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2658,7 +2652,7 @@
         <v>2000000</v>
       </c>
       <c r="J56" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2668,11 +2662,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2685,7 +2679,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2695,7 +2689,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>30000000</v>
+        <v>1000000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2708,11 +2702,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2725,7 +2719,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2735,10 +2729,10 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>53000000</v>
+        <v>10000000</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="59">
@@ -2748,11 +2742,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2765,7 +2759,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2775,7 +2769,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>27500000</v>
+        <v>1500000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2788,11 +2782,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2803,8 +2797,10 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="n">
-        <v/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0974646251</t>
+        </is>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2813,7 +2809,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2826,11 +2822,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2843,7 +2839,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2856,7 +2852,7 @@
         <v>2000000</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="62">
@@ -2866,11 +2862,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2883,7 +2879,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2893,7 +2889,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>2500000</v>
+        <v>30000000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2906,11 +2902,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2923,7 +2919,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2933,7 +2929,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>9000000</v>
+        <v>53000000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2946,11 +2942,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2963,7 +2959,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2973,7 +2969,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>35000000</v>
+        <v>27500000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2986,11 +2982,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3011,7 +3007,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3024,11 +3020,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3041,7 +3037,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3051,7 +3047,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3064,11 +3060,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3081,7 +3077,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3091,7 +3087,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>31500000</v>
+        <v>2500000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3104,11 +3100,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3121,7 +3117,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3131,7 +3127,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>45000000</v>
+        <v>9000000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3144,11 +3140,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3161,7 +3157,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3171,7 +3167,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>5000000</v>
+        <v>35000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3184,11 +3180,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3199,10 +3195,8 @@
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0968119924</t>
-        </is>
+      <c r="F70" t="n">
+        <v/>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -3211,10 +3205,10 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>26000000</v>
+        <v>30000000</v>
       </c>
       <c r="J70" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3224,11 +3218,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3241,7 +3235,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3251,7 +3245,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>1900000</v>
+        <v>4000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3264,11 +3258,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3281,7 +3275,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3291,10 +3285,10 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>24300000</v>
+        <v>31500000</v>
       </c>
       <c r="J72" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3304,11 +3298,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3321,7 +3315,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3331,10 +3325,10 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>4000000</v>
+        <v>45000000</v>
       </c>
       <c r="J73" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3344,11 +3338,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3361,7 +3355,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3371,10 +3365,10 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="J74" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3384,11 +3378,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3401,7 +3395,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3411,10 +3405,10 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>8000000</v>
+        <v>26000000</v>
       </c>
       <c r="J75" t="n">
-        <v>5000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="76">
@@ -3424,11 +3418,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3441,7 +3435,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3451,7 +3445,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>33000000</v>
+        <v>1900000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3464,11 +3458,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3481,7 +3475,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3491,10 +3485,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>16000000</v>
+        <v>24300000</v>
       </c>
       <c r="J77" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="78">
@@ -3504,11 +3498,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3521,7 +3515,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3531,10 +3525,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>19000000</v>
+        <v>4000000</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="79">
@@ -3544,11 +3538,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3561,7 +3555,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3571,10 +3565,10 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="J79" t="n">
-        <v>5000000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="80">
@@ -3584,11 +3578,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3601,7 +3595,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3611,10 +3605,10 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>33000000</v>
+        <v>8000000</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="81">
@@ -3624,11 +3618,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3641,7 +3635,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3651,7 +3645,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>38000000</v>
+        <v>33000000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3664,11 +3658,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3681,7 +3675,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3691,10 +3685,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>6000000</v>
+        <v>16000000</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="83">
@@ -3704,11 +3698,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3721,7 +3715,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3731,7 +3725,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>17000000</v>
+        <v>19000000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3744,11 +3738,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3761,7 +3755,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3771,10 +3765,10 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>16000000</v>
+        <v>15000000</v>
       </c>
       <c r="J84" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="85">
@@ -3784,11 +3778,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3801,7 +3795,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3811,10 +3805,10 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>10000000</v>
+        <v>33000000</v>
       </c>
       <c r="J85" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3824,11 +3818,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3839,8 +3833,10 @@
       <c r="E86" t="n">
         <v/>
       </c>
-      <c r="F86" t="n">
-        <v/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0703145712</t>
+        </is>
       </c>
       <c r="G86" t="n">
         <v/>
@@ -3849,7 +3845,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>23500000</v>
+        <v>38000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3862,11 +3858,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3877,8 +3873,10 @@
       <c r="E87" t="n">
         <v/>
       </c>
-      <c r="F87" t="n">
-        <v/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -3887,10 +3885,10 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="J87" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3900,11 +3898,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3915,8 +3913,10 @@
       <c r="E88" t="n">
         <v/>
       </c>
-      <c r="F88" t="n">
-        <v/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3925,7 +3925,7 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>33500000</v>
+        <v>17000000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3938,11 +3938,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3953,8 +3953,10 @@
       <c r="E89" t="n">
         <v/>
       </c>
-      <c r="F89" t="n">
-        <v/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G89" t="n">
         <v/>
@@ -3963,10 +3965,10 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>27500000</v>
+        <v>16000000</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="90">
@@ -3976,11 +3978,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3991,8 +3993,10 @@
       <c r="E90" t="n">
         <v/>
       </c>
-      <c r="F90" t="n">
-        <v/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -4001,10 +4005,10 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>22500000</v>
+        <v>10000000</v>
       </c>
       <c r="J90" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="91">
@@ -4014,11 +4018,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4039,7 +4043,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>5000000</v>
+        <v>23500000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4052,11 +4056,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4077,10 +4081,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>17500000</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="93">
@@ -4090,11 +4094,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4115,10 +4119,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>500000</v>
+        <v>33500000</v>
       </c>
       <c r="J93" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4128,11 +4132,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4153,7 +4157,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>1800000</v>
+        <v>27500000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4166,11 +4170,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4191,10 +4195,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
+        <v>22500000</v>
+      </c>
+      <c r="J95" t="n">
         <v>5000000</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4204,11 +4208,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4229,7 +4233,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4242,11 +4246,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4267,7 +4271,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>57000000</v>
+        <v>17500000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4280,11 +4284,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4305,10 +4309,10 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="99">
@@ -4318,11 +4322,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4343,7 +4347,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4356,11 +4360,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4381,10 +4385,10 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J100" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4394,11 +4398,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4409,10 +4413,8 @@
       <c r="E101" t="n">
         <v/>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F101" t="n">
+        <v/>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -4421,7 +4423,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>33500000</v>
+        <v>10000000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4434,11 +4436,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4449,10 +4451,8 @@
       <c r="E102" t="n">
         <v/>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F102" t="n">
+        <v/>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -4461,10 +4461,10 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>3000000</v>
+        <v>57000000</v>
       </c>
       <c r="J102" t="n">
-        <v>27000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4474,11 +4474,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4499,7 +4499,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>22000000</v>
+        <v>5000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4537,10 +4537,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J104" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4550,11 +4550,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4575,10 +4575,10 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>2000000</v>
+        <v>15000000</v>
       </c>
       <c r="J105" t="n">
-        <v>23000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="106">
@@ -4588,11 +4588,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4601,11 +4601,11 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>89197014107</v>
+        <v/>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0822323252</t>
+          <t>0329634779</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4615,10 +4615,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>25000000</v>
+        <v>33500000</v>
       </c>
       <c r="J106" t="n">
-        <v>24000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4628,11 +4628,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4643,8 +4643,10 @@
       <c r="E107" t="n">
         <v/>
       </c>
-      <c r="F107" t="n">
-        <v/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G107" t="n">
         <v/>
@@ -4653,10 +4655,10 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>1200000</v>
+        <v>3000000</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="108">
@@ -4666,11 +4668,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4691,10 +4693,10 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>4700000</v>
+        <v>22000000</v>
       </c>
       <c r="J108" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4704,11 +4706,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4729,10 +4731,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>25000000</v>
+        <v>10000000</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="110">
@@ -4742,11 +4744,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4767,10 +4769,10 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="111">
@@ -4780,11 +4782,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4793,10 +4795,12 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v/>
-      </c>
-      <c r="F111" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G111" t="n">
         <v/>
@@ -4805,10 +4809,10 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="112">
@@ -4818,11 +4822,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4843,7 +4847,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>20000000</v>
+        <v>1200000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4856,11 +4860,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4881,10 +4885,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>35000000</v>
+        <v>4700000</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="114">
@@ -4894,11 +4898,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4919,10 +4923,10 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="J114" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4932,11 +4936,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4957,10 +4961,10 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="J115" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4970,11 +4974,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4995,7 +4999,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5008,11 +5012,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5023,10 +5027,8 @@
       <c r="E117" t="n">
         <v/>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F117" t="n">
+        <v/>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -5035,10 +5037,10 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="J117" t="n">
-        <v>28000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5048,11 +5050,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5073,7 +5075,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>12000000</v>
+        <v>35000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5086,11 +5088,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5111,10 +5113,10 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="120">
@@ -5124,11 +5126,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5149,10 +5151,10 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>300000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="121">
@@ -5162,11 +5164,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5187,7 +5189,7 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -5200,11 +5202,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5215,8 +5217,10 @@
       <c r="E122" t="n">
         <v/>
       </c>
-      <c r="F122" t="n">
-        <v/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -5225,10 +5229,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>4300000</v>
+        <v>10000000</v>
       </c>
       <c r="J122" t="n">
-        <v>29500000</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="123">
@@ -5238,11 +5242,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5263,10 +5267,10 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>4000000</v>
+        <v>12000000</v>
       </c>
       <c r="J123" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5276,11 +5280,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5291,10 +5295,8 @@
       <c r="E124" t="n">
         <v/>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F124" t="n">
+        <v/>
       </c>
       <c r="G124" t="n">
         <v/>
@@ -5303,10 +5305,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="J124" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5316,11 +5318,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5341,10 +5343,10 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>43000000</v>
+        <v>1200000</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="126">
@@ -5354,11 +5356,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5379,7 +5381,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5392,11 +5394,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5417,10 +5419,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>2000000</v>
+        <v>4300000</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>29500000</v>
       </c>
     </row>
     <row r="128">
@@ -5430,11 +5432,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5455,10 +5457,10 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="129">
@@ -5468,11 +5470,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5483,8 +5485,10 @@
       <c r="E129" t="n">
         <v/>
       </c>
-      <c r="F129" t="n">
-        <v/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G129" t="n">
         <v/>
@@ -5493,10 +5497,10 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>13000000</v>
       </c>
       <c r="J129" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="130">
@@ -5506,11 +5510,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5531,7 +5535,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>3000000</v>
+        <v>43000000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5544,11 +5548,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5569,7 +5573,7 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5582,11 +5586,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5607,7 +5611,7 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5620,11 +5624,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5645,10 +5649,10 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="J133" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5658,11 +5662,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5683,10 +5687,10 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="135">
@@ -5696,11 +5700,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5721,7 +5725,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>8000000</v>
+        <v>3000000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5734,11 +5738,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5759,7 +5763,7 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -5772,11 +5776,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5797,7 +5801,7 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>15000000</v>
+        <v>2500000</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -5810,11 +5814,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5825,10 +5829,8 @@
       <c r="E138" t="n">
         <v/>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F138" t="n">
+        <v/>
       </c>
       <c r="G138" t="n">
         <v/>
@@ -5837,10 +5839,10 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>12000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="139">
@@ -5850,11 +5852,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5875,7 +5877,7 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>20000000</v>
+        <v>8000000</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -5888,11 +5890,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5913,7 +5915,7 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -5926,11 +5928,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5951,10 +5953,10 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="J141" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5964,11 +5966,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5989,7 +5991,7 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -6002,11 +6004,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6017,8 +6019,10 @@
       <c r="E143" t="n">
         <v/>
       </c>
-      <c r="F143" t="n">
-        <v/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G143" t="n">
         <v/>
@@ -6027,10 +6031,10 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>11000000</v>
+        <v>3000000</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="144">
@@ -6040,11 +6044,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6065,7 +6069,7 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>11000000</v>
+        <v>20000000</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -6078,11 +6082,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6103,10 +6107,10 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="J145" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6116,11 +6120,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6141,10 +6145,10 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>17500000</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>9500000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="147">
@@ -6154,11 +6158,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6179,7 +6183,7 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>14000000</v>
+        <v>10000000</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -6192,11 +6196,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6217,10 +6221,10 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>2000000</v>
+        <v>11000000</v>
       </c>
       <c r="J148" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6230,11 +6234,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6255,10 +6259,10 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="J149" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6268,11 +6272,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6293,10 +6297,10 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="151">
@@ -6306,11 +6310,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6331,10 +6335,10 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>18000000</v>
+        <v>17500000</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="152">
@@ -6344,11 +6348,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6369,7 +6373,7 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>12000000</v>
+        <v>14000000</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -6382,11 +6386,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6407,10 +6411,10 @@
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J153" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="154">
@@ -6420,11 +6424,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6445,10 +6449,10 @@
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="155">
@@ -6458,11 +6462,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6483,7 +6487,7 @@
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>2000000</v>
+        <v>30000000</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -6496,11 +6500,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6521,7 +6525,7 @@
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>2700000</v>
+        <v>18000000</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -6534,11 +6538,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6559,7 +6563,7 @@
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>27500000</v>
+        <v>12000000</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -6572,11 +6576,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6597,10 +6601,10 @@
         <v/>
       </c>
       <c r="I158" t="n">
-        <v>18000000</v>
+        <v>5000000</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="159">
@@ -6610,11 +6614,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6635,7 +6639,7 @@
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6648,11 +6652,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6673,7 +6677,7 @@
         <v/>
       </c>
       <c r="I160" t="n">
-        <v>34200000</v>
+        <v>2000000</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -6686,11 +6690,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6711,10 +6715,10 @@
         <v/>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>2700000</v>
       </c>
       <c r="J161" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -6724,36 +6728,226 @@
         </is>
       </c>
       <c r="B162" t="n">
+        <v>46</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ngọc Tuyền </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v/>
+      </c>
+      <c r="F162" t="n">
+        <v/>
+      </c>
+      <c r="G162" t="n">
+        <v/>
+      </c>
+      <c r="H162" t="n">
+        <v/>
+      </c>
+      <c r="I162" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>45</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v/>
+      </c>
+      <c r="F163" t="n">
+        <v/>
+      </c>
+      <c r="G163" t="n">
+        <v/>
+      </c>
+      <c r="H163" t="n">
+        <v/>
+      </c>
+      <c r="I163" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>44</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v/>
+      </c>
+      <c r="F164" t="n">
+        <v/>
+      </c>
+      <c r="G164" t="n">
+        <v/>
+      </c>
+      <c r="H164" t="n">
+        <v/>
+      </c>
+      <c r="I164" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>43</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v/>
+      </c>
+      <c r="F165" t="n">
+        <v/>
+      </c>
+      <c r="G165" t="n">
+        <v/>
+      </c>
+      <c r="H165" t="n">
+        <v/>
+      </c>
+      <c r="I165" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>42</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v/>
+      </c>
+      <c r="F166" t="n">
+        <v/>
+      </c>
+      <c r="G166" t="n">
+        <v/>
+      </c>
+      <c r="H166" t="n">
+        <v/>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
         <v>41</v>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v/>
-      </c>
-      <c r="F162" t="inlineStr">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v/>
+      </c>
+      <c r="F167" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G162" t="n">
-        <v/>
-      </c>
-      <c r="H162" t="n">
-        <v/>
-      </c>
-      <c r="I162" t="n">
+      <c r="G167" t="n">
+        <v/>
+      </c>
+      <c r="H167" t="n">
+        <v/>
+      </c>
+      <c r="I167" t="n">
         <v>16000000</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J167" t="n">
         <v>2000000</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,8 +495,10 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0931088891</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -505,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>9000000</v>
+        <v>4000000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -518,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -533,8 +535,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0941047740</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -543,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J3" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -556,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thắm</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -571,10 +575,8 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0978886601</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -583,7 +585,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>2000000</v>
+        <v>9000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -596,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Võ Thị Thuỳ Trang</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,10 +613,8 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0939293038</t>
-        </is>
+      <c r="F5" t="n">
+        <v/>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -623,10 +623,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="6">
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Phạm Thị Trúc Lài</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,8 +651,10 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="n">
-        <v/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0978886601</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -661,7 +663,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -674,11 +676,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc Dung</t>
+          <t>Võ Thị Thuỳ Trang</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -689,8 +691,10 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
-        <v/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0939293038</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -699,7 +703,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>9000000</v>
+        <v>1500000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -712,11 +716,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Trần Thị Thanh Nhàn</t>
+          <t>Phạm Thị Trúc Lài</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,10 +731,8 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0981499994</t>
-        </is>
+      <c r="F8" t="n">
+        <v/>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -739,7 +741,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>28000000</v>
+        <v>1000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -752,11 +754,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Phạm Thị Thu Hà</t>
+          <t>Trần Thị Ngọc Dung</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -767,10 +769,8 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0908896604</t>
-        </is>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -779,7 +779,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -792,11 +792,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Quyên</t>
+          <t>Trần Thị Thanh Nhàn</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0777891306</t>
+          <t>0981499994</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -819,7 +819,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>8000000</v>
+        <v>28000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -832,11 +832,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -847,8 +847,10 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0908896604</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -857,7 +859,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -870,11 +872,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -887,7 +889,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0777891306</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -897,7 +899,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>1300000</v>
+        <v>8000000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -910,11 +912,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Bé</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -925,10 +927,8 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0907234326</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -937,7 +937,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -950,11 +950,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Yến Phương</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -977,7 +977,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>500000</v>
+        <v>1300000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -990,11 +990,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phan Thị Út</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0779841025</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1017,7 +1017,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1057,7 +1057,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1070,11 +1070,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1085,8 +1085,10 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="n">
-        <v/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0779841025</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1095,7 +1097,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1108,11 +1110,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1125,7 +1127,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0919972597</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1135,7 +1137,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>19000000</v>
+        <v>200000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1148,11 +1150,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1163,10 +1165,8 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0766931276</t>
-        </is>
+      <c r="F19" t="n">
+        <v/>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1175,10 +1175,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J19" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1188,11 +1188,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1215,7 +1215,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>21000000</v>
+        <v>19000000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1228,11 +1228,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1255,10 +1255,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="22">
@@ -1268,11 +1268,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1295,7 +1295,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>3150000</v>
+        <v>21000000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1335,7 +1335,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1348,11 +1348,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1375,7 +1375,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>25000000</v>
+        <v>3150000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1388,11 +1388,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1415,7 +1415,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1428,11 +1428,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1455,7 +1455,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>18000000</v>
+        <v>25000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1468,11 +1468,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1495,7 +1495,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>1050000</v>
+        <v>2000000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1508,11 +1508,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1535,7 +1535,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>1800000</v>
+        <v>18000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1548,11 +1548,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1575,10 +1575,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>7500000</v>
+        <v>1050000</v>
       </c>
       <c r="J29" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1588,11 +1588,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1615,10 +1615,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>32000000</v>
+        <v>1800000</v>
       </c>
       <c r="J30" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1628,11 +1628,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1655,10 +1655,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>1300000</v>
+        <v>7500000</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="32">
@@ -1668,11 +1668,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1695,10 +1695,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>1500000</v>
+        <v>32000000</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="33">
@@ -1708,11 +1708,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1735,7 +1735,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>24800000</v>
+        <v>1300000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1748,11 +1748,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1778,7 +1778,7 @@
         <v>1500000</v>
       </c>
       <c r="J34" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1788,11 +1788,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1815,7 +1815,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>1500000</v>
+        <v>24800000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1828,11 +1828,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1855,10 +1855,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="37">
@@ -1868,11 +1868,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1895,7 +1895,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1908,11 +1908,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1935,10 +1935,10 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>9500000</v>
+        <v>2800000</v>
       </c>
       <c r="J38" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1948,11 +1948,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1975,7 +1975,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>900000</v>
+        <v>3000000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1988,11 +1988,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2015,10 +2015,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>2600000</v>
+        <v>9500000</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="41">
@@ -2028,11 +2028,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2055,10 +2055,10 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="J41" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2068,11 +2068,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2095,7 +2095,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>3700000</v>
+        <v>2600000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2108,11 +2108,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2135,10 +2135,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="44">
@@ -2148,11 +2148,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2175,10 +2175,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>14730000</v>
+        <v>3700000</v>
       </c>
       <c r="J44" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2188,11 +2188,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2215,7 +2215,7 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>14000000</v>
+        <v>6000000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2228,11 +2228,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2255,10 +2255,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>2000000</v>
+        <v>14730000</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="47">
@@ -2268,11 +2268,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2283,8 +2283,10 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="n">
-        <v/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0872928717</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2293,7 +2295,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>1500000</v>
+        <v>14000000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2306,11 +2308,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2323,7 +2325,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2346,11 +2348,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2384,11 +2386,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2401,7 +2403,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2411,10 +2413,10 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J50" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2424,11 +2426,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2439,10 +2441,8 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0347433400</t>
-        </is>
+      <c r="F51" t="n">
+        <v/>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2451,7 +2451,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>21000000</v>
+        <v>1500000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2464,11 +2464,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2491,10 +2491,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>20500000</v>
+        <v>10000000</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="53">
@@ -2504,11 +2504,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2519,8 +2519,10 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="n">
-        <v/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0347433400</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2529,7 +2531,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>900000</v>
+        <v>21000000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2542,11 +2544,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2559,7 +2561,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2569,7 +2571,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>2500000</v>
+        <v>20500000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2582,11 +2584,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2597,10 +2599,8 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0799535184</t>
-        </is>
+      <c r="F55" t="n">
+        <v/>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2609,7 +2609,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2622,11 +2622,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2649,7 +2649,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2662,11 +2662,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2689,7 +2689,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2702,11 +2702,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2729,10 +2729,10 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J58" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2742,11 +2742,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2769,7 +2769,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2782,11 +2782,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2809,10 +2809,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="61">
@@ -2822,11 +2822,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2849,10 +2849,10 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J61" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2862,11 +2862,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2889,7 +2889,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>30000000</v>
+        <v>3000000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2902,11 +2902,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2929,10 +2929,10 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>53000000</v>
+        <v>2000000</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="64">
@@ -2942,11 +2942,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2969,7 +2969,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>27500000</v>
+        <v>30000000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2982,11 +2982,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2997,8 +2997,10 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="n">
-        <v/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -3007,7 +3009,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>2000000</v>
+        <v>53000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3020,11 +3022,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3037,7 +3039,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3047,7 +3049,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>2000000</v>
+        <v>27500000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3060,11 +3062,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3075,10 +3077,8 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0939268869</t>
-        </is>
+      <c r="F67" t="n">
+        <v/>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -3087,7 +3087,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3100,11 +3100,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3127,7 +3127,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3140,11 +3140,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3167,7 +3167,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>35000000</v>
+        <v>2500000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3180,11 +3180,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3195,8 +3195,10 @@
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="n">
-        <v/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0833644489</t>
+        </is>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -3205,7 +3207,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>30000000</v>
+        <v>9000000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3218,11 +3220,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3235,7 +3237,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3245,7 +3247,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3258,11 +3260,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3273,10 +3275,8 @@
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F72" t="n">
+        <v/>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -3285,7 +3285,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>31500000</v>
+        <v>30000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3298,11 +3298,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3325,7 +3325,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>45000000</v>
+        <v>4000000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3338,11 +3338,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3365,7 +3365,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>5000000</v>
+        <v>31500000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3378,11 +3378,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3405,10 +3405,10 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>26000000</v>
+        <v>45000000</v>
       </c>
       <c r="J75" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3418,11 +3418,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3445,7 +3445,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>1900000</v>
+        <v>5000000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3458,11 +3458,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3485,10 +3485,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>24300000</v>
+        <v>26000000</v>
       </c>
       <c r="J77" t="n">
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="78">
@@ -3498,11 +3498,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3525,10 +3525,10 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>4000000</v>
+        <v>1900000</v>
       </c>
       <c r="J78" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3538,11 +3538,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3565,10 +3565,10 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>10000000</v>
+        <v>24300000</v>
       </c>
       <c r="J79" t="n">
-        <v>18000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="80">
@@ -3578,11 +3578,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3605,7 +3605,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="J80" t="n">
         <v>5000000</v>
@@ -3618,11 +3618,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3645,10 +3645,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>33000000</v>
+        <v>10000000</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="82">
@@ -3658,11 +3658,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3685,10 +3685,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>16000000</v>
+        <v>8000000</v>
       </c>
       <c r="J82" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="83">
@@ -3698,11 +3698,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3725,7 +3725,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>19000000</v>
+        <v>33000000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3738,11 +3738,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3765,10 +3765,10 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>15000000</v>
+        <v>16000000</v>
       </c>
       <c r="J84" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="85">
@@ -3778,11 +3778,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3805,7 +3805,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>33000000</v>
+        <v>19000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3818,11 +3818,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3845,10 +3845,10 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>38000000</v>
+        <v>15000000</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="87">
@@ -3858,11 +3858,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3885,7 +3885,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>6000000</v>
+        <v>33000000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3898,11 +3898,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3925,7 +3925,7 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>17000000</v>
+        <v>38000000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3938,11 +3938,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3965,10 +3965,10 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>16000000</v>
+        <v>6000000</v>
       </c>
       <c r="J89" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3978,11 +3978,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4005,10 +4005,10 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>10000000</v>
+        <v>17000000</v>
       </c>
       <c r="J90" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4018,11 +4018,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4033,8 +4033,10 @@
       <c r="E91" t="n">
         <v/>
       </c>
-      <c r="F91" t="n">
-        <v/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -4043,10 +4045,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>23500000</v>
+        <v>16000000</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="92">
@@ -4056,11 +4058,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4071,8 +4073,10 @@
       <c r="E92" t="n">
         <v/>
       </c>
-      <c r="F92" t="n">
-        <v/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -4081,10 +4085,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J92" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="93">
@@ -4094,11 +4098,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4119,7 +4123,7 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>33500000</v>
+        <v>23500000</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -4132,11 +4136,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4157,10 +4161,10 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>27500000</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="95">
@@ -4170,11 +4174,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4195,10 +4199,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>22500000</v>
+        <v>33500000</v>
       </c>
       <c r="J95" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4208,11 +4212,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4233,7 +4237,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>5000000</v>
+        <v>27500000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4246,11 +4250,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4271,10 +4275,10 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>17500000</v>
+        <v>22500000</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="98">
@@ -4284,11 +4288,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4309,10 +4313,10 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="J98" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4322,11 +4326,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4347,7 +4351,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>1800000</v>
+        <v>17500000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4360,11 +4364,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4385,10 +4389,10 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="101">
@@ -4398,11 +4402,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4423,7 +4427,7 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>10000000</v>
+        <v>1800000</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4436,11 +4440,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4461,7 +4465,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>57000000</v>
+        <v>5000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4474,11 +4478,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4499,7 +4503,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4512,11 +4516,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4537,7 +4541,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>2000000</v>
+        <v>57000000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4550,11 +4554,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4575,10 +4579,10 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="J105" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4588,11 +4592,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4603,10 +4607,8 @@
       <c r="E106" t="n">
         <v/>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F106" t="n">
+        <v/>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -4615,7 +4617,7 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>33500000</v>
+        <v>2000000</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4628,11 +4630,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4643,10 +4645,8 @@
       <c r="E107" t="n">
         <v/>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F107" t="n">
+        <v/>
       </c>
       <c r="G107" t="n">
         <v/>
@@ -4655,10 +4655,10 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="J107" t="n">
-        <v>27000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="108">
@@ -4668,11 +4668,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4683,8 +4683,10 @@
       <c r="E108" t="n">
         <v/>
       </c>
-      <c r="F108" t="n">
-        <v/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G108" t="n">
         <v/>
@@ -4693,7 +4695,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>22000000</v>
+        <v>33500000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4706,11 +4708,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4721,8 +4723,10 @@
       <c r="E109" t="n">
         <v/>
       </c>
-      <c r="F109" t="n">
-        <v/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G109" t="n">
         <v/>
@@ -4731,10 +4735,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="J109" t="n">
-        <v>3000000</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="110">
@@ -4744,11 +4748,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4769,10 +4773,10 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>2000000</v>
+        <v>22000000</v>
       </c>
       <c r="J110" t="n">
-        <v>23000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4782,11 +4786,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4795,12 +4799,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F111" t="n">
+        <v/>
       </c>
       <c r="G111" t="n">
         <v/>
@@ -4809,10 +4811,10 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>25000000</v>
+        <v>10000000</v>
       </c>
       <c r="J111" t="n">
-        <v>24000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="112">
@@ -4822,11 +4824,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4847,10 +4849,10 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="113">
@@ -4860,11 +4862,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4873,10 +4875,12 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v/>
-      </c>
-      <c r="F113" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G113" t="n">
         <v/>
@@ -4885,10 +4889,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>4700000</v>
+        <v>25000000</v>
       </c>
       <c r="J113" t="n">
-        <v>20000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="114">
@@ -4898,11 +4902,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4923,7 +4927,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>25000000</v>
+        <v>1200000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4936,11 +4940,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4961,10 +4965,10 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>4000000</v>
+        <v>4700000</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="116">
@@ -4974,11 +4978,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4999,7 +5003,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5012,11 +5016,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5037,7 +5041,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -5050,11 +5054,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5075,7 +5079,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>35000000</v>
+        <v>4000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5088,11 +5092,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5113,10 +5117,10 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="J119" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5126,11 +5130,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5151,10 +5155,10 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="J120" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5164,11 +5168,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5189,10 +5193,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="122">
@@ -5202,11 +5206,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5217,10 +5221,8 @@
       <c r="E122" t="n">
         <v/>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F122" t="n">
+        <v/>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -5229,10 +5231,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>28000000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="123">
@@ -5242,11 +5244,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5267,7 +5269,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>12000000</v>
+        <v>20000000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5280,11 +5282,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5295,8 +5297,10 @@
       <c r="E124" t="n">
         <v/>
       </c>
-      <c r="F124" t="n">
-        <v/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G124" t="n">
         <v/>
@@ -5305,10 +5309,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>18000000</v>
+        <v>10000000</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="125">
@@ -5318,11 +5322,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5343,10 +5347,10 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>1200000</v>
+        <v>12000000</v>
       </c>
       <c r="J125" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5356,11 +5360,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5381,7 +5385,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>10000000</v>
+        <v>18000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5394,11 +5398,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5419,10 +5423,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>4300000</v>
+        <v>1200000</v>
       </c>
       <c r="J127" t="n">
-        <v>29500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="128">
@@ -5432,11 +5436,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5457,10 +5461,10 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
       <c r="J128" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5470,11 +5474,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5485,10 +5489,8 @@
       <c r="E129" t="n">
         <v/>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F129" t="n">
+        <v/>
       </c>
       <c r="G129" t="n">
         <v/>
@@ -5497,10 +5499,10 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>13000000</v>
+        <v>4300000</v>
       </c>
       <c r="J129" t="n">
-        <v>12000000</v>
+        <v>29500000</v>
       </c>
     </row>
     <row r="130">
@@ -5510,11 +5512,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5535,10 +5537,10 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>43000000</v>
+        <v>4000000</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="131">
@@ -5548,11 +5550,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5563,8 +5565,10 @@
       <c r="E131" t="n">
         <v/>
       </c>
-      <c r="F131" t="n">
-        <v/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G131" t="n">
         <v/>
@@ -5573,10 +5577,10 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>1000000</v>
+        <v>13000000</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="132">
@@ -5586,11 +5590,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5611,7 +5615,7 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>2000000</v>
+        <v>43000000</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5624,11 +5628,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5649,7 +5653,7 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>4500000</v>
+        <v>1000000</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5662,11 +5666,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5687,10 +5691,10 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J134" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5700,11 +5704,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5725,7 +5729,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5738,11 +5742,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5763,10 +5767,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
         <v>2000000</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5776,11 +5780,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5801,7 +5805,7 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -5814,11 +5818,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5839,10 +5843,10 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J138" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5852,11 +5856,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5877,7 +5881,7 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>8000000</v>
+        <v>2500000</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -5890,11 +5894,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5915,10 +5919,10 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="141">
@@ -5928,11 +5932,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5953,7 +5957,7 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>1200000</v>
+        <v>8000000</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -5966,11 +5970,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5991,7 +5995,7 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>15000000</v>
+        <v>8000000</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -6004,11 +6008,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6019,10 +6023,8 @@
       <c r="E143" t="n">
         <v/>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F143" t="n">
+        <v/>
       </c>
       <c r="G143" t="n">
         <v/>
@@ -6031,10 +6033,10 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="J143" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6044,11 +6046,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6069,7 +6071,7 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>20000000</v>
+        <v>15000000</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -6082,11 +6084,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6097,8 +6099,10 @@
       <c r="E145" t="n">
         <v/>
       </c>
-      <c r="F145" t="n">
-        <v/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G145" t="n">
         <v/>
@@ -6107,10 +6111,10 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="146">
@@ -6120,11 +6124,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6145,10 +6149,10 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="J146" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6158,11 +6162,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6183,7 +6187,7 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -6196,11 +6200,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6221,10 +6225,10 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="149">
@@ -6234,11 +6238,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6259,7 +6263,7 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -6272,11 +6276,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6297,10 +6301,10 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="J150" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6310,11 +6314,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6335,10 +6339,10 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>17500000</v>
+        <v>11000000</v>
       </c>
       <c r="J151" t="n">
-        <v>9500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -6348,11 +6352,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6373,10 +6377,10 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>14000000</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="153">
@@ -6386,11 +6390,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6411,10 +6415,10 @@
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>2000000</v>
+        <v>17500000</v>
       </c>
       <c r="J153" t="n">
-        <v>2000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="154">
@@ -6424,11 +6428,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6449,10 +6453,10 @@
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="J154" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -6462,11 +6466,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6487,10 +6491,10 @@
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="156">
@@ -6500,11 +6504,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6525,10 +6529,10 @@
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="157">
@@ -6538,11 +6542,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6563,7 +6567,7 @@
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>12000000</v>
+        <v>30000000</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -6576,11 +6580,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6601,10 +6605,10 @@
         <v/>
       </c>
       <c r="I158" t="n">
-        <v>5000000</v>
+        <v>18000000</v>
       </c>
       <c r="J158" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -6614,11 +6618,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6639,7 +6643,7 @@
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6652,11 +6656,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6677,10 +6681,10 @@
         <v/>
       </c>
       <c r="I160" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="161">
@@ -6690,11 +6694,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6715,7 +6719,7 @@
         <v/>
       </c>
       <c r="I161" t="n">
-        <v>2700000</v>
+        <v>5000000</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -6728,11 +6732,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6753,7 +6757,7 @@
         <v/>
       </c>
       <c r="I162" t="n">
-        <v>27500000</v>
+        <v>2000000</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -6766,11 +6770,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6791,7 +6795,7 @@
         <v/>
       </c>
       <c r="I163" t="n">
-        <v>18000000</v>
+        <v>2700000</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -6804,11 +6808,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6829,7 +6833,7 @@
         <v/>
       </c>
       <c r="I164" t="n">
-        <v>3000000</v>
+        <v>27500000</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -6842,11 +6846,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6867,7 +6871,7 @@
         <v/>
       </c>
       <c r="I165" t="n">
-        <v>34200000</v>
+        <v>18000000</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -6880,11 +6884,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6905,10 +6909,10 @@
         <v/>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J166" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -6918,36 +6922,112 @@
         </is>
       </c>
       <c r="B167" t="n">
+        <v>43</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v/>
+      </c>
+      <c r="F167" t="n">
+        <v/>
+      </c>
+      <c r="G167" t="n">
+        <v/>
+      </c>
+      <c r="H167" t="n">
+        <v/>
+      </c>
+      <c r="I167" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>42</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v/>
+      </c>
+      <c r="F168" t="n">
+        <v/>
+      </c>
+      <c r="G168" t="n">
+        <v/>
+      </c>
+      <c r="H168" t="n">
+        <v/>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
         <v>41</v>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v/>
-      </c>
-      <c r="F167" t="inlineStr">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v/>
+      </c>
+      <c r="F169" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G167" t="n">
-        <v/>
-      </c>
-      <c r="H167" t="n">
-        <v/>
-      </c>
-      <c r="I167" t="n">
+      <c r="G169" t="n">
+        <v/>
+      </c>
+      <c r="H169" t="n">
+        <v/>
+      </c>
+      <c r="I169" t="n">
         <v>16000000</v>
       </c>
-      <c r="J167" t="n">
+      <c r="J169" t="n">
         <v>2000000</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Huyền Trang</t>
+          <t>Hồ Minh Trường</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,10 +495,8 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0931088891</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -507,7 +505,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>4000000</v>
+        <v>23300000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +518,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Trần Thị Nhi</t>
+          <t>Chị Sa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,10 +533,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0941047740</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -547,7 +543,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>3000000</v>
+        <v>19000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +556,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>Lê Thị Bích Liên</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,8 +571,10 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0939365840</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,7 +583,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>9000000</v>
+        <v>8000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -598,11 +596,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -613,8 +611,10 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="n">
-        <v/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0363459594</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -623,10 +623,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="J5" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thắm</t>
+          <t>Nguyễn Như Ngọc</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0978886601</t>
+          <t>0939597583</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -663,7 +663,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Võ Thị Thuỳ Trang</t>
+          <t>Huyền Trân</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -691,10 +691,8 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0939293038</t>
-        </is>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -703,7 +701,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -716,11 +714,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Phạm Thị Trúc Lài</t>
+          <t>Bé Su</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -731,8 +729,10 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="n">
-        <v/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0369845277</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -741,7 +741,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>1000000</v>
+        <v>5400000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -754,11 +754,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc Dung</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -769,8 +769,10 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0931088891</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -779,7 +781,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>9000000</v>
+        <v>4000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -792,11 +794,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trần Thị Thanh Nhàn</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -809,7 +811,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0981499994</t>
+          <t>0941047740</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -819,7 +821,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>28000000</v>
+        <v>3000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -832,11 +834,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Phạm Thị Thu Hà</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -847,10 +849,8 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0908896604</t>
-        </is>
+      <c r="F11" t="n">
+        <v/>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -859,7 +859,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -872,11 +872,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Quyên</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -887,10 +887,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0777891306</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -899,10 +897,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J12" t="n">
         <v>8000000</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -912,11 +910,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -927,8 +925,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0978886601</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -937,7 +937,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -950,11 +950,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Võ Thị Thuỳ Trang</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0939293038</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -977,7 +977,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -990,11 +990,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Bé</t>
+          <t>Phạm Thị Trúc Lài</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1005,10 +1005,8 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0907234326</t>
-        </is>
+      <c r="F15" t="n">
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1030,11 +1028,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Yến Phương</t>
+          <t>Trần Thị Ngọc Dung</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1045,10 +1043,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0907234326</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1057,7 +1053,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>500000</v>
+        <v>9000000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1070,11 +1066,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Phan Thị Út</t>
+          <t>Trần Thị Thanh Nhàn</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1087,7 +1083,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0779841025</t>
+          <t>0981499994</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1097,7 +1093,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>1500000</v>
+        <v>28000000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1110,11 +1106,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1127,7 +1123,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0908896604</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1137,7 +1133,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>200000</v>
+        <v>1500000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1150,11 +1146,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1165,8 +1161,10 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="n">
-        <v/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0777891306</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1175,7 +1173,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1188,11 +1186,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1203,10 +1201,8 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0919972597</t>
-        </is>
+      <c r="F20" t="n">
+        <v/>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1215,7 +1211,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>19000000</v>
+        <v>3000000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1228,11 +1224,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1245,7 +1241,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0766931276</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1255,10 +1251,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>10000000</v>
+        <v>1300000</v>
       </c>
       <c r="J21" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1268,11 +1264,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1285,7 +1281,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1295,7 +1291,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>21000000</v>
+        <v>1000000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1308,11 +1304,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1325,7 +1321,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1335,7 +1331,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1348,11 +1344,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1365,7 +1361,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0779841025</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1375,7 +1371,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>3150000</v>
+        <v>1500000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1388,11 +1384,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1405,7 +1401,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1415,7 +1411,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>5000000</v>
+        <v>200000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1428,11 +1424,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1443,10 +1439,8 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0564820827</t>
-        </is>
+      <c r="F26" t="n">
+        <v/>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1455,7 +1449,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>25000000</v>
+        <v>6000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1468,11 +1462,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1485,7 +1479,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1495,7 +1489,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>2000000</v>
+        <v>19000000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1508,11 +1502,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1525,7 +1519,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1535,7 +1529,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>18000000</v>
+        <v>20000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1548,11 +1542,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1565,7 +1559,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1575,7 +1569,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>1050000</v>
+        <v>21000000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1588,11 +1582,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1605,7 +1599,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1615,7 +1609,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1628,11 +1622,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1645,7 +1639,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1655,10 +1649,10 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>7500000</v>
+        <v>3150000</v>
       </c>
       <c r="J31" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1668,11 +1662,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1685,7 +1679,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1695,10 +1689,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>32000000</v>
+        <v>5000000</v>
       </c>
       <c r="J32" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1708,11 +1702,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1725,7 +1719,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1735,7 +1729,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>1300000</v>
+        <v>25000000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1748,11 +1742,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1765,7 +1759,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1775,7 +1769,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1788,11 +1782,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1805,7 +1799,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1815,7 +1809,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>24800000</v>
+        <v>22900000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1828,11 +1822,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1845,7 +1839,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1855,10 +1849,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>1500000</v>
+        <v>1050000</v>
       </c>
       <c r="J36" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1868,11 +1862,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1885,7 +1879,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1895,7 +1889,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1908,11 +1902,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1925,7 +1919,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1935,7 +1929,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>2800000</v>
+        <v>18000000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1948,11 +1942,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1965,7 +1959,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1975,7 +1969,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>3000000</v>
+        <v>35000000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1988,11 +1982,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2005,7 +1999,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2015,10 +2009,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>9500000</v>
+        <v>1300000</v>
       </c>
       <c r="J40" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2028,11 +2022,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2045,7 +2039,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2055,7 +2049,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2068,11 +2062,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2085,7 +2079,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2095,7 +2089,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>2600000</v>
+        <v>24800000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2108,11 +2102,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2125,7 +2119,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2135,10 +2129,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="J43" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="44">
@@ -2148,11 +2142,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2165,7 +2159,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2175,7 +2169,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>3700000</v>
+        <v>1500000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2188,11 +2182,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2205,7 +2199,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2215,7 +2209,7 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>6000000</v>
+        <v>2800000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2228,11 +2222,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2245,7 +2239,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2255,10 +2249,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>14730000</v>
+        <v>3000000</v>
       </c>
       <c r="J46" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2268,11 +2262,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2285,7 +2279,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2295,10 +2289,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>14000000</v>
+        <v>11000000</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="48">
@@ -2308,11 +2302,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2325,7 +2319,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2335,7 +2329,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2348,11 +2342,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2363,8 +2357,10 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="n">
-        <v/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0907388219</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2373,7 +2369,7 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>1500000</v>
+        <v>2600000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2386,11 +2382,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2403,7 +2399,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2413,7 +2409,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2426,11 +2422,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2441,8 +2437,10 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="n">
-        <v/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2451,7 +2449,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>1500000</v>
+        <v>3700000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2464,11 +2462,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2481,7 +2479,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2491,10 +2489,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J52" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2504,11 +2502,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2521,7 +2519,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0347433400</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2531,7 +2529,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>21000000</v>
+        <v>17730000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2544,11 +2542,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2561,7 +2559,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2571,7 +2569,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>20500000</v>
+        <v>14000000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2584,11 +2582,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2599,8 +2597,10 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="n">
-        <v/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2609,7 +2609,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2622,11 +2622,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2637,10 +2637,8 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F56" t="n">
+        <v/>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2649,7 +2647,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2662,11 +2660,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2679,7 +2677,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2702,11 +2700,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2717,10 +2715,8 @@
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0786942575</t>
-        </is>
+      <c r="F58" t="n">
+        <v/>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2729,7 +2725,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2742,11 +2738,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2759,7 +2755,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2769,7 +2765,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>1000000</v>
+        <v>15000000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2782,11 +2778,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2799,7 +2795,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0347433400</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2809,10 +2805,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>10000000</v>
+        <v>21000000</v>
       </c>
       <c r="J60" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2822,11 +2818,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2839,7 +2835,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2849,7 +2845,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>1500000</v>
+        <v>20500000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2862,11 +2858,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2877,10 +2873,8 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0974646251</t>
-        </is>
+      <c r="F62" t="n">
+        <v/>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2889,7 +2883,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>3000000</v>
+        <v>900000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2902,11 +2896,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2919,7 +2913,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2929,10 +2923,10 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="J63" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2942,11 +2936,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2959,7 +2953,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2969,7 +2963,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2982,11 +2976,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2999,7 +2993,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3009,7 +3003,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>53000000</v>
+        <v>2000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3022,11 +3016,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3039,7 +3033,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3049,7 +3043,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>27500000</v>
+        <v>1000000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3062,11 +3056,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3077,8 +3071,10 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="n">
-        <v/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0918667208</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -3087,7 +3083,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>2000000</v>
+        <v>15000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3100,11 +3096,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3117,7 +3113,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3127,7 +3123,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3140,11 +3136,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3157,7 +3153,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3167,7 +3163,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3180,11 +3176,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3197,7 +3193,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3207,7 +3203,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>9000000</v>
+        <v>2500000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3220,11 +3216,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3237,7 +3233,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3247,7 +3243,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3260,11 +3256,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3275,8 +3271,10 @@
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="n">
-        <v/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -3285,7 +3283,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>30000000</v>
+        <v>53000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3298,11 +3296,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3315,7 +3313,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3325,7 +3323,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>4000000</v>
+        <v>27500000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3338,11 +3336,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3353,10 +3351,8 @@
       <c r="E74" t="n">
         <v/>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F74" t="n">
+        <v/>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -3365,7 +3361,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>31500000</v>
+        <v>2000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3378,11 +3374,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3395,7 +3391,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3405,7 +3401,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>45000000</v>
+        <v>2000000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3418,11 +3414,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3435,7 +3431,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3445,7 +3441,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>5000000</v>
+        <v>2500000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3458,11 +3454,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3475,7 +3471,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3485,10 +3481,10 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>26000000</v>
+        <v>9000000</v>
       </c>
       <c r="J77" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3498,11 +3494,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3515,7 +3511,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3525,7 +3521,7 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>1900000</v>
+        <v>35000000</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3538,11 +3534,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3553,10 +3549,8 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0797571132</t>
-        </is>
+      <c r="F79" t="n">
+        <v/>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3565,10 +3559,10 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>24300000</v>
+        <v>30000000</v>
       </c>
       <c r="J79" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3578,11 +3572,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3595,7 +3589,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3608,7 +3602,7 @@
         <v>4000000</v>
       </c>
       <c r="J80" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3618,11 +3612,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3635,7 +3629,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3645,10 +3639,10 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>10000000</v>
+        <v>31500000</v>
       </c>
       <c r="J81" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3658,11 +3652,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3675,7 +3669,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3685,10 +3679,10 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>8000000</v>
+        <v>45000000</v>
       </c>
       <c r="J82" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3698,11 +3692,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3715,7 +3709,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3725,7 +3719,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>33000000</v>
+        <v>5000000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3738,11 +3732,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3755,7 +3749,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3765,10 +3759,10 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>16000000</v>
+        <v>35000000</v>
       </c>
       <c r="J84" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3778,11 +3772,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3795,7 +3789,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3805,7 +3799,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>19000000</v>
+        <v>1900000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3818,11 +3812,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3835,7 +3829,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3845,10 +3839,10 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>15000000</v>
+        <v>27300000</v>
       </c>
       <c r="J86" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3858,11 +3852,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3875,7 +3869,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3885,10 +3879,10 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>33000000</v>
+        <v>7000000</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="88">
@@ -3898,11 +3892,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3915,7 +3909,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3925,7 +3919,7 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>38000000</v>
+        <v>28000000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3938,11 +3932,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3955,7 +3949,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3965,7 +3959,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3978,11 +3972,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3995,7 +3989,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4005,7 +3999,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>17000000</v>
+        <v>33000000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4018,11 +4012,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4035,7 +4029,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4045,10 +4039,10 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>16000000</v>
+        <v>20000000</v>
       </c>
       <c r="J91" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4058,11 +4052,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4075,7 +4069,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -4085,10 +4079,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>10000000</v>
+        <v>19000000</v>
       </c>
       <c r="J92" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4098,11 +4092,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4113,8 +4107,10 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="n">
-        <v/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0939773382</t>
+        </is>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -4123,10 +4119,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>23500000</v>
+        <v>15000000</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="94">
@@ -4136,11 +4132,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4151,8 +4147,10 @@
       <c r="E94" t="n">
         <v/>
       </c>
-      <c r="F94" t="n">
-        <v/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0762777862</t>
+        </is>
       </c>
       <c r="G94" t="n">
         <v/>
@@ -4161,10 +4159,10 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>33000000</v>
       </c>
       <c r="J94" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4174,11 +4172,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4189,8 +4187,10 @@
       <c r="E95" t="n">
         <v/>
       </c>
-      <c r="F95" t="n">
-        <v/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0703145712</t>
+        </is>
       </c>
       <c r="G95" t="n">
         <v/>
@@ -4199,7 +4199,7 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>33500000</v>
+        <v>38000000</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4212,11 +4212,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4227,8 +4227,10 @@
       <c r="E96" t="n">
         <v/>
       </c>
-      <c r="F96" t="n">
-        <v/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G96" t="n">
         <v/>
@@ -4237,7 +4239,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>27500000</v>
+        <v>6000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4250,11 +4252,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4265,8 +4267,10 @@
       <c r="E97" t="n">
         <v/>
       </c>
-      <c r="F97" t="n">
-        <v/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -4275,10 +4279,10 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>22500000</v>
+        <v>17000000</v>
       </c>
       <c r="J97" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4288,11 +4292,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4303,8 +4307,10 @@
       <c r="E98" t="n">
         <v/>
       </c>
-      <c r="F98" t="n">
-        <v/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -4313,7 +4319,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>5000000</v>
+        <v>19000000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4326,11 +4332,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4341,8 +4347,10 @@
       <c r="E99" t="n">
         <v/>
       </c>
-      <c r="F99" t="n">
-        <v/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -4351,10 +4359,10 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>17500000</v>
+        <v>16000000</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="100">
@@ -4364,11 +4372,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4389,10 +4397,10 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>500000</v>
+        <v>23500000</v>
       </c>
       <c r="J100" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4402,11 +4410,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4427,10 +4435,10 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>1800000</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="102">
@@ -4440,11 +4448,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4465,7 +4473,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>5000000</v>
+        <v>33500000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4478,11 +4486,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4503,7 +4511,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>10000000</v>
+        <v>27500000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4516,11 +4524,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4541,7 +4549,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>57000000</v>
+        <v>27500000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4554,11 +4562,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4592,11 +4600,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4617,7 +4625,7 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>2000000</v>
+        <v>17500000</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4630,11 +4638,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4655,10 +4663,10 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J107" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4668,11 +4676,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4683,10 +4691,8 @@
       <c r="E108" t="n">
         <v/>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F108" t="n">
+        <v/>
       </c>
       <c r="G108" t="n">
         <v/>
@@ -4695,7 +4701,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>33500000</v>
+        <v>1800000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4708,11 +4714,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4723,10 +4729,8 @@
       <c r="E109" t="n">
         <v/>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F109" t="n">
+        <v/>
       </c>
       <c r="G109" t="n">
         <v/>
@@ -4735,10 +4739,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J109" t="n">
-        <v>27000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4748,11 +4752,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4773,7 +4777,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>22000000</v>
+        <v>10000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4786,11 +4790,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4811,10 +4815,10 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>10000000</v>
+        <v>57000000</v>
       </c>
       <c r="J111" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4824,11 +4828,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4849,10 +4853,10 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J112" t="n">
-        <v>23000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4862,11 +4866,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4875,12 +4879,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F113" t="n">
+        <v/>
       </c>
       <c r="G113" t="n">
         <v/>
@@ -4889,10 +4891,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J113" t="n">
-        <v>24000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4902,11 +4904,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4927,7 +4929,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>1200000</v>
+        <v>19000000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4940,11 +4942,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4955,8 +4957,10 @@
       <c r="E115" t="n">
         <v/>
       </c>
-      <c r="F115" t="n">
-        <v/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G115" t="n">
         <v/>
@@ -4965,10 +4969,10 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>4700000</v>
+        <v>33500000</v>
       </c>
       <c r="J115" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4978,11 +4982,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4993,8 +4997,10 @@
       <c r="E116" t="n">
         <v/>
       </c>
-      <c r="F116" t="n">
-        <v/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -5003,7 +5009,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>25000000</v>
+        <v>30000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5016,11 +5022,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5041,7 +5047,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>4000000</v>
+        <v>22000000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -5054,11 +5060,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5079,7 +5085,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>4000000</v>
+        <v>13000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5092,11 +5098,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5117,10 +5123,10 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>20000000</v>
+        <v>14600000</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>10400000</v>
       </c>
     </row>
     <row r="120">
@@ -5130,11 +5136,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5143,10 +5149,12 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v/>
-      </c>
-      <c r="F120" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G120" t="n">
         <v/>
@@ -5155,10 +5163,10 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>35000000</v>
+        <v>44000000</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="121">
@@ -5168,11 +5176,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5193,10 +5201,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="J121" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5206,11 +5214,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5231,10 +5239,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>24700000</v>
       </c>
       <c r="J122" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5244,11 +5252,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5269,7 +5277,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5282,11 +5290,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5297,10 +5305,8 @@
       <c r="E124" t="n">
         <v/>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F124" t="n">
+        <v/>
       </c>
       <c r="G124" t="n">
         <v/>
@@ -5309,10 +5315,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
       <c r="J124" t="n">
-        <v>28000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5322,11 +5328,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5347,7 +5353,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5360,11 +5366,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5385,7 +5391,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>18000000</v>
+        <v>20000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5398,11 +5404,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5423,10 +5429,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>1200000</v>
+        <v>35000000</v>
       </c>
       <c r="J127" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5436,11 +5442,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5461,7 +5467,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5474,11 +5480,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5499,10 +5505,10 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>4300000</v>
+        <v>6000000</v>
       </c>
       <c r="J129" t="n">
-        <v>29500000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="130">
@@ -5512,11 +5518,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5537,10 +5543,10 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>4000000</v>
+        <v>20000000</v>
       </c>
       <c r="J130" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5550,11 +5556,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5567,7 +5573,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0332812716</t>
+          <t>0767509572</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -5577,10 +5583,10 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>13000000</v>
+        <v>19000000</v>
       </c>
       <c r="J131" t="n">
-        <v>12000000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="132">
@@ -5590,11 +5596,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5615,7 +5621,7 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>43000000</v>
+        <v>12000000</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5628,11 +5634,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5653,7 +5659,7 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>1000000</v>
+        <v>18000000</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5666,11 +5672,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5691,10 +5697,10 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="135">
@@ -5704,11 +5710,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5729,7 +5735,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5742,11 +5748,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5767,10 +5773,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>10300000</v>
       </c>
       <c r="J136" t="n">
-        <v>2000000</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="137">
@@ -5780,11 +5786,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5805,7 +5811,7 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -5818,11 +5824,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5833,8 +5839,10 @@
       <c r="E138" t="n">
         <v/>
       </c>
-      <c r="F138" t="n">
-        <v/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G138" t="n">
         <v/>
@@ -5843,10 +5851,10 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>2000000</v>
+        <v>16500000</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="139">
@@ -5856,11 +5864,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5881,7 +5889,7 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>2500000</v>
+        <v>43000000</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -5894,11 +5902,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5919,10 +5927,10 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="J140" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5932,11 +5940,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5957,7 +5965,7 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -5970,11 +5978,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5995,7 +6003,7 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>8000000</v>
+        <v>4500000</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -6008,11 +6016,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6033,7 +6041,7 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -6046,11 +6054,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6071,7 +6079,7 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>15000000</v>
+        <v>3000000</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -6084,11 +6092,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6099,10 +6107,8 @@
       <c r="E145" t="n">
         <v/>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F145" t="n">
+        <v/>
       </c>
       <c r="G145" t="n">
         <v/>
@@ -6111,10 +6117,10 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J145" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6124,11 +6130,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6149,7 +6155,7 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>20000000</v>
+        <v>2500000</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -6162,11 +6168,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6187,7 +6193,7 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -6200,11 +6206,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6225,10 +6231,10 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="J148" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6238,11 +6244,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6263,7 +6269,7 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>10000000</v>
+        <v>8000000</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -6276,11 +6282,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6301,7 +6307,7 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>11000000</v>
+        <v>1200000</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -6314,11 +6320,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6339,7 +6345,7 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>11000000</v>
+        <v>15000000</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -6352,11 +6358,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6367,8 +6373,10 @@
       <c r="E152" t="n">
         <v/>
       </c>
-      <c r="F152" t="n">
-        <v/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G152" t="n">
         <v/>
@@ -6377,10 +6385,10 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="J152" t="n">
-        <v>7000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="153">
@@ -6390,11 +6398,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6415,10 +6423,10 @@
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>17500000</v>
+        <v>20000000</v>
       </c>
       <c r="J153" t="n">
-        <v>9500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -6428,11 +6436,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6453,7 +6461,7 @@
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>14000000</v>
+        <v>6000000</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -6466,11 +6474,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6491,10 +6499,10 @@
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J155" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6504,11 +6512,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6529,10 +6537,10 @@
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J156" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6542,11 +6550,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6567,7 +6575,7 @@
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>30000000</v>
+        <v>11000000</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -6580,11 +6588,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6605,7 +6613,7 @@
         <v/>
       </c>
       <c r="I158" t="n">
-        <v>18000000</v>
+        <v>11000000</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -6618,11 +6626,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6643,7 +6651,7 @@
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>12000000</v>
+        <v>7000000</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6656,11 +6664,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6681,10 +6689,10 @@
         <v/>
       </c>
       <c r="I160" t="n">
-        <v>5000000</v>
+        <v>27000000</v>
       </c>
       <c r="J160" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6694,11 +6702,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6719,7 +6727,7 @@
         <v/>
       </c>
       <c r="I161" t="n">
-        <v>5000000</v>
+        <v>14000000</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -6732,11 +6740,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6757,7 +6765,7 @@
         <v/>
       </c>
       <c r="I162" t="n">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -6770,11 +6778,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6795,7 +6803,7 @@
         <v/>
       </c>
       <c r="I163" t="n">
-        <v>2700000</v>
+        <v>6000000</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -6808,11 +6816,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6833,7 +6841,7 @@
         <v/>
       </c>
       <c r="I164" t="n">
-        <v>27500000</v>
+        <v>30000000</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -6846,11 +6854,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6884,11 +6892,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6909,7 +6917,7 @@
         <v/>
       </c>
       <c r="I166" t="n">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -6922,11 +6930,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6947,7 +6955,7 @@
         <v/>
       </c>
       <c r="I167" t="n">
-        <v>34200000</v>
+        <v>12000000</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -6960,11 +6968,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6985,10 +6993,10 @@
         <v/>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J168" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -6998,37 +7006,303 @@
         </is>
       </c>
       <c r="B169" t="n">
+        <v>48</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>chị Hà</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v/>
+      </c>
+      <c r="F169" t="n">
+        <v/>
+      </c>
+      <c r="G169" t="n">
+        <v/>
+      </c>
+      <c r="H169" t="n">
+        <v/>
+      </c>
+      <c r="I169" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>47</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>C Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v/>
+      </c>
+      <c r="F170" t="n">
+        <v/>
+      </c>
+      <c r="G170" t="n">
+        <v/>
+      </c>
+      <c r="H170" t="n">
+        <v/>
+      </c>
+      <c r="I170" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>46</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ngọc Tuyền </t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v/>
+      </c>
+      <c r="F171" t="n">
+        <v/>
+      </c>
+      <c r="G171" t="n">
+        <v/>
+      </c>
+      <c r="H171" t="n">
+        <v/>
+      </c>
+      <c r="I171" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>45</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v/>
+      </c>
+      <c r="F172" t="n">
+        <v/>
+      </c>
+      <c r="G172" t="n">
+        <v/>
+      </c>
+      <c r="H172" t="n">
+        <v/>
+      </c>
+      <c r="I172" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>44</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v/>
+      </c>
+      <c r="F173" t="n">
+        <v/>
+      </c>
+      <c r="G173" t="n">
+        <v/>
+      </c>
+      <c r="H173" t="n">
+        <v/>
+      </c>
+      <c r="I173" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>43</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v/>
+      </c>
+      <c r="F174" t="n">
+        <v/>
+      </c>
+      <c r="G174" t="n">
+        <v/>
+      </c>
+      <c r="H174" t="n">
+        <v/>
+      </c>
+      <c r="I174" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>42</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v/>
+      </c>
+      <c r="F175" t="n">
+        <v/>
+      </c>
+      <c r="G175" t="n">
+        <v/>
+      </c>
+      <c r="H175" t="n">
+        <v/>
+      </c>
+      <c r="I175" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
         <v>41</v>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v/>
-      </c>
-      <c r="F169" t="inlineStr">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v/>
+      </c>
+      <c r="F176" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G169" t="n">
-        <v/>
-      </c>
-      <c r="H169" t="n">
-        <v/>
-      </c>
-      <c r="I169" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="J169" t="n">
-        <v>2000000</v>
+      <c r="G176" t="n">
+        <v/>
+      </c>
+      <c r="H176" t="n">
+        <v/>
+      </c>
+      <c r="I176" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hồ Minh Trường</t>
+          <t>Nguyễn Thị Ngọc Tâm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,8 +495,10 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0927644696</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -505,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>23300000</v>
+        <v>3700000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -518,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chị Sa</t>
+          <t>Đoàn Minh Thư</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -533,8 +535,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0368615610</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -543,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>19000000</v>
+        <v>1500000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-1500000</v>
       </c>
     </row>
     <row r="4">
@@ -556,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lê Thị Bích Liên</t>
+          <t>Hồ Minh Trường</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -571,10 +575,8 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0939365840</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -583,7 +585,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>8000000</v>
+        <v>23300000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -596,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Phan Thuỵ</t>
+          <t>Chị Sa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,10 +613,8 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0363459594</t>
-        </is>
+      <c r="F5" t="n">
+        <v/>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -623,7 +623,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1200000</v>
+        <v>19000000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ngọc</t>
+          <t>Lê Thị Bích Liên</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0939597583</t>
+          <t>0939365840</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -663,7 +663,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Huyền Trân</t>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -691,8 +691,10 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
-        <v/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0363459594</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -701,7 +703,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -714,11 +716,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bé Su</t>
+          <t>Nguyễn Như Ngọc</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -731,7 +733,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0369845277</t>
+          <t>0939597583</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -741,7 +743,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>5400000</v>
+        <v>4000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -754,11 +756,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Huyền Trang</t>
+          <t>Huyền Trân</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -769,10 +771,8 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0931088891</t>
-        </is>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -781,7 +781,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -794,11 +794,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trần Thị Nhi</t>
+          <t>Bé Su</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0941047740</t>
+          <t>0369845277</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,7 +821,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>3000000</v>
+        <v>5400000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -834,11 +834,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -849,8 +849,10 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0931088891</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -859,7 +861,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>9000000</v>
+        <v>4000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -872,11 +874,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -887,8 +889,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0941047740</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -897,10 +901,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>7000000</v>
+        <v>3000000</v>
       </c>
       <c r="J12" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -910,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thắm</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -925,10 +929,8 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0978886601</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -937,7 +939,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>2000000</v>
+        <v>9000000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -950,11 +952,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Võ Thị Thuỳ Trang</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -965,10 +967,8 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0939293038</t>
-        </is>
+      <c r="F14" t="n">
+        <v/>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -977,10 +977,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1500000</v>
+        <v>7000000</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="15">
@@ -990,11 +990,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phạm Thị Trúc Lài</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1005,8 +1005,10 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0978886601</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1015,7 +1017,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1028,11 +1030,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc Dung</t>
+          <t>Võ Thị Thuỳ Trang</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1043,8 +1045,10 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0939293038</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1053,7 +1057,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>9000000</v>
+        <v>1500000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1066,11 +1070,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Trần Thị Thanh Nhàn</t>
+          <t>Phạm Thị Trúc Lài</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1081,10 +1085,8 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0981499994</t>
-        </is>
+      <c r="F17" t="n">
+        <v/>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1093,7 +1095,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>28000000</v>
+        <v>1000000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1106,11 +1108,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Phạm Thị Thu Hà</t>
+          <t>Trần Thị Ngọc Dung</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1121,10 +1123,8 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0908896604</t>
-        </is>
+      <c r="F18" t="n">
+        <v/>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1133,7 +1133,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1146,11 +1146,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Quyên</t>
+          <t>Trần Thị Thanh Nhàn</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0777891306</t>
+          <t>0981499994</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1173,7 +1173,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>8000000</v>
+        <v>28000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1186,11 +1186,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1201,8 +1201,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0908896604</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1211,7 +1213,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1224,11 +1226,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1241,7 +1243,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0777891306</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1251,7 +1253,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>1300000</v>
+        <v>8000000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1264,11 +1266,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Bé</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1279,10 +1281,8 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0907234326</t>
-        </is>
+      <c r="F22" t="n">
+        <v/>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1291,7 +1291,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1304,11 +1304,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Yến Phương</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1331,7 +1331,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>500000</v>
+        <v>1300000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Phan Thị Út</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0779841025</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1371,7 +1371,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1384,11 +1384,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1411,7 +1411,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1424,11 +1424,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1439,8 +1439,10 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="n">
-        <v/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0779841025</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1449,7 +1451,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1462,11 +1464,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1479,7 +1481,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0919972597</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1489,7 +1491,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>19000000</v>
+        <v>200000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1502,11 +1504,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1517,10 +1519,8 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0766931276</t>
-        </is>
+      <c r="F28" t="n">
+        <v/>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1529,7 +1529,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>20000000</v>
+        <v>6000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1542,11 +1542,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1569,7 +1569,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>21000000</v>
+        <v>19000000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1582,11 +1582,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1609,7 +1609,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>1500000</v>
+        <v>20000000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1622,11 +1622,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1649,7 +1649,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>3150000</v>
+        <v>21000000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1662,11 +1662,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1689,7 +1689,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1702,11 +1702,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1729,7 +1729,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>25000000</v>
+        <v>3150000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1742,11 +1742,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1769,7 +1769,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1782,11 +1782,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1809,7 +1809,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>22900000</v>
+        <v>25000000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1849,7 +1849,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>1050000</v>
+        <v>2000000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1862,11 +1862,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1889,7 +1889,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>1800000</v>
+        <v>22900000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1902,11 +1902,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1929,7 +1929,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>18000000</v>
+        <v>1050000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1942,11 +1942,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1969,7 +1969,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>35000000</v>
+        <v>1800000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1982,11 +1982,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2009,7 +2009,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>1300000</v>
+        <v>18000000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2022,11 +2022,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2049,7 +2049,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>1500000</v>
+        <v>35000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2062,11 +2062,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2089,7 +2089,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>24800000</v>
+        <v>1300000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2102,11 +2102,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2132,7 +2132,7 @@
         <v>1500000</v>
       </c>
       <c r="J43" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2142,11 +2142,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2169,7 +2169,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>1500000</v>
+        <v>24800000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2209,10 +2209,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="46">
@@ -2222,11 +2222,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2249,7 +2249,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2262,11 +2262,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2289,10 +2289,10 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>11000000</v>
+        <v>2800000</v>
       </c>
       <c r="J47" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2329,7 +2329,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>900000</v>
+        <v>3000000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2342,11 +2342,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2369,10 +2369,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>2600000</v>
+        <v>12000000</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="50">
@@ -2382,11 +2382,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2409,7 +2409,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2422,11 +2422,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2449,7 +2449,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>3700000</v>
+        <v>2600000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2462,11 +2462,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2489,7 +2489,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2529,7 +2529,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>17730000</v>
+        <v>3700000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2542,11 +2542,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2569,7 +2569,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>14000000</v>
+        <v>6000000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2582,11 +2582,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2609,7 +2609,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>2000000</v>
+        <v>17730000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2622,11 +2622,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2637,8 +2637,10 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="n">
-        <v/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0872928717</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2647,7 +2649,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>1500000</v>
+        <v>14000000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2660,11 +2662,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2677,7 +2679,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2700,11 +2702,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2738,11 +2740,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2755,7 +2757,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2765,7 +2767,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2778,11 +2780,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2793,10 +2795,8 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0347433400</t>
-        </is>
+      <c r="F60" t="n">
+        <v/>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2805,7 +2805,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>21000000</v>
+        <v>1500000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2818,11 +2818,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2845,7 +2845,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>20500000</v>
+        <v>15000000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2858,11 +2858,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2873,8 +2873,10 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="n">
-        <v/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0347433400</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2883,7 +2885,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>900000</v>
+        <v>21000000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2896,11 +2898,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2913,7 +2915,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2923,7 +2925,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>2500000</v>
+        <v>20500000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2936,11 +2938,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2951,10 +2953,8 @@
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0799535184</t>
-        </is>
+      <c r="F64" t="n">
+        <v/>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -2963,7 +2963,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2976,11 +2976,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3003,7 +3003,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3016,11 +3016,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3043,7 +3043,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3056,11 +3056,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3083,7 +3083,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3096,11 +3096,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3123,7 +3123,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3136,11 +3136,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3163,7 +3163,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3176,11 +3176,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3203,7 +3203,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3216,11 +3216,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3243,7 +3243,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>30000000</v>
+        <v>3000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3256,11 +3256,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3283,7 +3283,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>53000000</v>
+        <v>2500000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3296,11 +3296,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3323,7 +3323,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>27500000</v>
+        <v>30000000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3336,11 +3336,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3351,8 +3351,10 @@
       <c r="E74" t="n">
         <v/>
       </c>
-      <c r="F74" t="n">
-        <v/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -3361,7 +3363,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>2000000</v>
+        <v>53000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3374,11 +3376,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3391,7 +3393,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3401,7 +3403,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>2000000</v>
+        <v>27500000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3414,11 +3416,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3429,10 +3431,8 @@
       <c r="E76" t="n">
         <v/>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0939268869</t>
-        </is>
+      <c r="F76" t="n">
+        <v/>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -3441,7 +3441,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3454,11 +3454,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3481,7 +3481,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3494,11 +3494,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3521,7 +3521,7 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>35000000</v>
+        <v>2500000</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3534,11 +3534,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3549,8 +3549,10 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="n">
-        <v/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0833644489</t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3559,7 +3561,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>30000000</v>
+        <v>9000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3572,11 +3574,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3589,7 +3591,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3599,7 +3601,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3612,11 +3614,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3627,10 +3629,8 @@
       <c r="E81" t="n">
         <v/>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F81" t="n">
+        <v/>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -3639,7 +3639,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>31500000</v>
+        <v>30000000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3652,11 +3652,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3679,7 +3679,7 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>45000000</v>
+        <v>4000000</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3692,11 +3692,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3719,7 +3719,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>5000000</v>
+        <v>31500000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3732,11 +3732,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3759,7 +3759,7 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>35000000</v>
+        <v>45000000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3772,11 +3772,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3799,7 +3799,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>1900000</v>
+        <v>5000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3812,11 +3812,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3839,7 +3839,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>27300000</v>
+        <v>35000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3852,11 +3852,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3879,10 +3879,10 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>7000000</v>
+        <v>1900000</v>
       </c>
       <c r="J87" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3892,11 +3892,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3919,7 +3919,7 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>28000000</v>
+        <v>27300000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3932,11 +3932,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3959,10 +3959,10 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>13000000</v>
+        <v>7000000</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="90">
@@ -3972,11 +3972,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3999,7 +3999,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>33000000</v>
+        <v>28000000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4012,11 +4012,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4039,7 +4039,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>20000000</v>
+        <v>13000000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4052,11 +4052,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -4079,7 +4079,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>19000000</v>
+        <v>33000000</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4092,11 +4092,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4119,10 +4119,10 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
       <c r="J93" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4132,11 +4132,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4159,7 +4159,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>33000000</v>
+        <v>19000000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4172,11 +4172,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4199,10 +4199,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>38000000</v>
+        <v>15000000</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="96">
@@ -4212,11 +4212,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4239,7 +4239,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>6000000</v>
+        <v>33000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4252,11 +4252,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4279,7 +4279,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>17000000</v>
+        <v>38000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4292,11 +4292,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4319,7 +4319,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>19000000</v>
+        <v>6000000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4332,11 +4332,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4359,10 +4359,10 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>16000000</v>
+        <v>17000000</v>
       </c>
       <c r="J99" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4372,11 +4372,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4387,8 +4387,10 @@
       <c r="E100" t="n">
         <v/>
       </c>
-      <c r="F100" t="n">
-        <v/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -4397,7 +4399,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>23500000</v>
+        <v>19000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4410,11 +4412,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4425,8 +4427,10 @@
       <c r="E101" t="n">
         <v/>
       </c>
-      <c r="F101" t="n">
-        <v/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -4435,10 +4439,10 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="J101" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="102">
@@ -4448,11 +4452,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4473,7 +4477,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>33500000</v>
+        <v>23500000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4486,11 +4490,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4511,10 +4515,10 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>27500000</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="104">
@@ -4524,11 +4528,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4549,7 +4553,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>27500000</v>
+        <v>33500000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4562,11 +4566,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4587,7 +4591,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>5000000</v>
+        <v>27500000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4600,11 +4604,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4625,7 +4629,7 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>17500000</v>
+        <v>27500000</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4638,11 +4642,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4663,7 +4667,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4676,11 +4680,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4701,7 +4705,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>1800000</v>
+        <v>17500000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4714,11 +4718,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4739,7 +4743,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4752,11 +4756,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4777,7 +4781,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>10000000</v>
+        <v>1800000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4790,11 +4794,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4815,7 +4819,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>57000000</v>
+        <v>5000000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4828,11 +4832,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4853,7 +4857,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4866,11 +4870,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4891,7 +4895,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>2000000</v>
+        <v>57000000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4904,11 +4908,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4929,7 +4933,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>19000000</v>
+        <v>5000000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4942,11 +4946,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4957,10 +4961,8 @@
       <c r="E115" t="n">
         <v/>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F115" t="n">
+        <v/>
       </c>
       <c r="G115" t="n">
         <v/>
@@ -4969,7 +4971,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>33500000</v>
+        <v>2000000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4982,11 +4984,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4997,10 +4999,8 @@
       <c r="E116" t="n">
         <v/>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F116" t="n">
+        <v/>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -5009,7 +5009,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>30000000</v>
+        <v>19000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5022,11 +5022,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5037,8 +5037,10 @@
       <c r="E117" t="n">
         <v/>
       </c>
-      <c r="F117" t="n">
-        <v/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -5047,7 +5049,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>22000000</v>
+        <v>33500000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -5060,11 +5062,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5075,8 +5077,10 @@
       <c r="E118" t="n">
         <v/>
       </c>
-      <c r="F118" t="n">
-        <v/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G118" t="n">
         <v/>
@@ -5085,7 +5089,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>13000000</v>
+        <v>30000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5098,11 +5102,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5123,10 +5127,10 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>14600000</v>
+        <v>22000000</v>
       </c>
       <c r="J119" t="n">
-        <v>10400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5136,11 +5140,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5149,12 +5153,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F120" t="n">
+        <v/>
       </c>
       <c r="G120" t="n">
         <v/>
@@ -5163,10 +5165,10 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>44000000</v>
+        <v>13000000</v>
       </c>
       <c r="J120" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5176,11 +5178,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5201,10 +5203,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>1200000</v>
+        <v>14600000</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>10400000</v>
       </c>
     </row>
     <row r="122">
@@ -5214,11 +5216,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5227,10 +5229,12 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v/>
-      </c>
-      <c r="F122" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -5239,10 +5243,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>24700000</v>
+        <v>44000000</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="123">
@@ -5252,11 +5256,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5277,7 +5281,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>25000000</v>
+        <v>1200000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5290,11 +5294,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5315,7 +5319,7 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>4000000</v>
+        <v>24700000</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -5328,11 +5332,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5353,7 +5357,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5366,11 +5370,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5391,7 +5395,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5404,11 +5408,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5429,7 +5433,7 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>35000000</v>
+        <v>4000000</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -5442,11 +5446,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5467,7 +5471,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5480,11 +5484,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5505,10 +5509,10 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>6000000</v>
+        <v>35000000</v>
       </c>
       <c r="J129" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5518,11 +5522,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5543,7 +5547,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5556,11 +5560,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5571,10 +5575,8 @@
       <c r="E131" t="n">
         <v/>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F131" t="n">
+        <v/>
       </c>
       <c r="G131" t="n">
         <v/>
@@ -5583,10 +5585,10 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>19000000</v>
+        <v>6000000</v>
       </c>
       <c r="J131" t="n">
-        <v>19000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="132">
@@ -5596,11 +5598,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5621,7 +5623,7 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>12000000</v>
+        <v>20000000</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5634,11 +5636,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5649,8 +5651,10 @@
       <c r="E133" t="n">
         <v/>
       </c>
-      <c r="F133" t="n">
-        <v/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G133" t="n">
         <v/>
@@ -5659,10 +5663,10 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>18000000</v>
+        <v>19000000</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="134">
@@ -5672,11 +5676,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5697,10 +5701,10 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>1200000</v>
+        <v>12000000</v>
       </c>
       <c r="J134" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5710,11 +5714,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5735,7 +5739,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>10000000</v>
+        <v>18000000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5748,11 +5752,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5773,10 +5777,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>10300000</v>
+        <v>1200000</v>
       </c>
       <c r="J136" t="n">
-        <v>23500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="137">
@@ -5786,11 +5790,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5824,11 +5828,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5839,10 +5843,8 @@
       <c r="E138" t="n">
         <v/>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F138" t="n">
+        <v/>
       </c>
       <c r="G138" t="n">
         <v/>
@@ -5851,10 +5853,10 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>16500000</v>
+        <v>10300000</v>
       </c>
       <c r="J138" t="n">
-        <v>8500000</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="139">
@@ -5864,11 +5866,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5889,7 +5891,7 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>43000000</v>
+        <v>10000000</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -5902,11 +5904,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5917,8 +5919,10 @@
       <c r="E140" t="n">
         <v/>
       </c>
-      <c r="F140" t="n">
-        <v/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G140" t="n">
         <v/>
@@ -5927,10 +5931,10 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>1000000</v>
+        <v>16500000</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="141">
@@ -5940,11 +5944,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5965,7 +5969,7 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>2000000</v>
+        <v>43000000</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -5978,11 +5982,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6003,7 +6007,7 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>4500000</v>
+        <v>1000000</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -6016,11 +6020,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6054,11 +6058,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6079,7 +6083,7 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -6092,11 +6096,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6130,11 +6134,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6155,7 +6159,7 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -6168,11 +6172,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6193,7 +6197,7 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -6206,11 +6210,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6231,7 +6235,7 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>8000000</v>
+        <v>2500000</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -6244,11 +6248,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6269,7 +6273,7 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>8000000</v>
+        <v>1000000</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -6282,11 +6286,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6307,7 +6311,7 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>1200000</v>
+        <v>8000000</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -6320,11 +6324,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6345,7 +6349,7 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>15000000</v>
+        <v>8000000</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -6358,11 +6362,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6373,10 +6377,8 @@
       <c r="E152" t="n">
         <v/>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F152" t="n">
+        <v/>
       </c>
       <c r="G152" t="n">
         <v/>
@@ -6385,10 +6387,10 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>4500000</v>
+        <v>1200000</v>
       </c>
       <c r="J152" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -6398,11 +6400,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6423,7 +6425,7 @@
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>20000000</v>
+        <v>15000000</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -6436,11 +6438,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6451,8 +6453,10 @@
       <c r="E154" t="n">
         <v/>
       </c>
-      <c r="F154" t="n">
-        <v/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G154" t="n">
         <v/>
@@ -6461,10 +6465,10 @@
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>6000000</v>
+        <v>4500000</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="155">
@@ -6474,11 +6478,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6499,7 +6503,7 @@
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>1500000</v>
+        <v>20000000</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -6512,11 +6516,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6537,7 +6541,7 @@
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -6550,11 +6554,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6575,7 +6579,7 @@
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>11000000</v>
+        <v>1500000</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -6588,11 +6592,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6613,7 +6617,7 @@
         <v/>
       </c>
       <c r="I158" t="n">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -6626,11 +6630,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6651,7 +6655,7 @@
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>7000000</v>
+        <v>11000000</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6664,11 +6668,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6689,7 +6693,7 @@
         <v/>
       </c>
       <c r="I160" t="n">
-        <v>27000000</v>
+        <v>11000000</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -6702,11 +6706,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6727,7 +6731,7 @@
         <v/>
       </c>
       <c r="I161" t="n">
-        <v>14000000</v>
+        <v>7000000</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -6740,11 +6744,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6765,7 +6769,7 @@
         <v/>
       </c>
       <c r="I162" t="n">
-        <v>4000000</v>
+        <v>27000000</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -6778,11 +6782,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6803,7 +6807,7 @@
         <v/>
       </c>
       <c r="I163" t="n">
-        <v>6000000</v>
+        <v>14000000</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -6816,11 +6820,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6841,7 +6845,7 @@
         <v/>
       </c>
       <c r="I164" t="n">
-        <v>30000000</v>
+        <v>4000000</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -6854,11 +6858,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6879,7 +6883,7 @@
         <v/>
       </c>
       <c r="I165" t="n">
-        <v>18000000</v>
+        <v>6000000</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -6892,11 +6896,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6917,7 +6921,7 @@
         <v/>
       </c>
       <c r="I166" t="n">
-        <v>12000000</v>
+        <v>30000000</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -6930,11 +6934,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6955,7 +6959,7 @@
         <v/>
       </c>
       <c r="I167" t="n">
-        <v>12000000</v>
+        <v>18000000</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -6968,11 +6972,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6993,7 +6997,7 @@
         <v/>
       </c>
       <c r="I168" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -7006,11 +7010,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7031,7 +7035,7 @@
         <v/>
       </c>
       <c r="I169" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -7044,11 +7048,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7069,7 +7073,7 @@
         <v/>
       </c>
       <c r="I170" t="n">
-        <v>2700000</v>
+        <v>5000000</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -7082,11 +7086,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7107,7 +7111,7 @@
         <v/>
       </c>
       <c r="I171" t="n">
-        <v>27500000</v>
+        <v>2000000</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -7120,11 +7124,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7145,7 +7149,7 @@
         <v/>
       </c>
       <c r="I172" t="n">
-        <v>18000000</v>
+        <v>2700000</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -7158,11 +7162,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7183,7 +7187,7 @@
         <v/>
       </c>
       <c r="I173" t="n">
-        <v>3000000</v>
+        <v>27500000</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -7196,11 +7200,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7221,7 +7225,7 @@
         <v/>
       </c>
       <c r="I174" t="n">
-        <v>34200000</v>
+        <v>18000000</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -7234,11 +7238,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7259,7 +7263,7 @@
         <v/>
       </c>
       <c r="I175" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -7272,36 +7276,112 @@
         </is>
       </c>
       <c r="B176" t="n">
+        <v>43</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v/>
+      </c>
+      <c r="F176" t="n">
+        <v/>
+      </c>
+      <c r="G176" t="n">
+        <v/>
+      </c>
+      <c r="H176" t="n">
+        <v/>
+      </c>
+      <c r="I176" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>42</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v/>
+      </c>
+      <c r="F177" t="n">
+        <v/>
+      </c>
+      <c r="G177" t="n">
+        <v/>
+      </c>
+      <c r="H177" t="n">
+        <v/>
+      </c>
+      <c r="I177" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
         <v>41</v>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v/>
-      </c>
-      <c r="F176" t="inlineStr">
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v/>
+      </c>
+      <c r="F178" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G176" t="n">
-        <v/>
-      </c>
-      <c r="H176" t="n">
-        <v/>
-      </c>
-      <c r="I176" t="n">
+      <c r="G178" t="n">
+        <v/>
+      </c>
+      <c r="H178" t="n">
+        <v/>
+      </c>
+      <c r="I178" t="n">
         <v>18000000</v>
       </c>
-      <c r="J176" t="n">
+      <c r="J178" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Ngọc Tâm</t>
+          <t>Nguyễn Thị Thoa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0927644696</t>
+          <t>09651666555</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>3700000</v>
+        <v>1800000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Đoàn Minh Thư</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0368615610</t>
+          <t>0966680674</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>1500000</v>
+        <v>27000000</v>
       </c>
       <c r="J3" t="n">
-        <v>-1500000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="4">
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hồ Minh Trường</t>
+          <t>Nguyễn Đặng Thảo Nhi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,8 +575,10 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0358588022</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,7 +587,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>23300000</v>
+        <v>2800000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -598,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chị Sa</t>
+          <t>Nguyễn Thị Ngọc Tâm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -613,8 +615,10 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="n">
-        <v/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0927644696</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -623,7 +627,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>19000000</v>
+        <v>3700000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -636,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lê Thị Bích Liên</t>
+          <t>Đoàn Minh Thư</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -653,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0939365840</t>
+          <t>0368615610</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -663,10 +667,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1500000</v>
       </c>
     </row>
     <row r="7">
@@ -676,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Phan Thuỵ</t>
+          <t>Hồ Minh Trường</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -691,10 +695,8 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0363459594</t>
-        </is>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -703,7 +705,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>1200000</v>
+        <v>23300000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -716,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ngọc</t>
+          <t>Chị Sa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -731,10 +733,8 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0939597583</t>
-        </is>
+      <c r="F8" t="n">
+        <v/>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -743,7 +743,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>4000000</v>
+        <v>23000000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -756,11 +756,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Huyền Trân</t>
+          <t>Lê Thị Bích Liên</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -771,8 +771,10 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0939365840</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -781,7 +783,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -794,11 +796,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bé Su</t>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -811,7 +813,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0369845277</t>
+          <t>0363459594</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,7 +823,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>5400000</v>
+        <v>1200000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -834,11 +836,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Huyền Trang</t>
+          <t>Nguyễn Như Ngọc</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,7 +853,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0931088891</t>
+          <t>0939597583</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -874,11 +876,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trần Thị Nhi</t>
+          <t>Huyền Trân</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -889,10 +891,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0941047740</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -901,7 +901,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -914,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>Bé Su</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -929,8 +929,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0369845277</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -939,7 +941,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>9000000</v>
+        <v>5400000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -952,11 +954,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -967,8 +969,10 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="n">
-        <v/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0931088891</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -977,10 +981,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J14" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -990,11 +994,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thắm</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1007,7 +1011,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0978886601</t>
+          <t>0941047740</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1017,7 +1021,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1030,11 +1034,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Võ Thị Thuỳ Trang</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1045,10 +1049,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0939293038</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1057,7 +1059,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1070,11 +1072,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Phạm Thị Trúc Lài</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1095,10 +1097,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>1000000</v>
+        <v>7000000</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="18">
@@ -1108,11 +1110,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc Dung</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1123,8 +1125,10 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="n">
-        <v/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0978886601</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1133,7 +1137,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1146,11 +1150,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Trần Thị Thanh Nhàn</t>
+          <t>Võ Thị Thuỳ Trang</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1163,7 +1167,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0981499994</t>
+          <t>0939293038</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1173,7 +1177,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>28000000</v>
+        <v>1500000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1186,11 +1190,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Phạm Thị Thu Hà</t>
+          <t>Phạm Thị Trúc Lài</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1201,10 +1205,8 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0908896604</t>
-        </is>
+      <c r="F20" t="n">
+        <v/>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1213,7 +1215,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1226,11 +1228,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Quyên</t>
+          <t>Trần Thị Ngọc Dung</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1241,10 +1243,8 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0777891306</t>
-        </is>
+      <c r="F21" t="n">
+        <v/>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1253,7 +1253,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>8000000</v>
+        <v>9000000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1266,11 +1266,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc</t>
+          <t>Trần Thị Thanh Nhàn</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1281,8 +1281,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0981499994</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1291,7 +1293,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>3000000</v>
+        <v>28000000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1304,11 +1306,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1321,7 +1323,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0908896604</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1331,7 +1333,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1344,11 +1346,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Bé</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1361,7 +1363,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0777891306</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1371,7 +1373,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1384,11 +1386,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Yến Phương</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1399,10 +1401,8 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0907234326</t>
-        </is>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1411,7 +1411,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>500000</v>
+        <v>3000000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1424,11 +1424,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Phan Thị Út</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0779841025</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1451,7 +1451,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1464,11 +1464,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1491,7 +1491,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1519,8 +1519,10 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="n">
-        <v/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0907234326</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1529,7 +1531,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>6000000</v>
+        <v>500000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1542,11 +1544,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1559,7 +1561,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0919972597</t>
+          <t>0779841025</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1569,7 +1571,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>19000000</v>
+        <v>1500000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1582,11 +1584,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1599,7 +1601,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0766931276</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1609,7 +1611,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>20000000</v>
+        <v>200000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1622,11 +1624,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1637,10 +1639,8 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0372525624</t>
-        </is>
+      <c r="F31" t="n">
+        <v/>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1649,7 +1649,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>21000000</v>
+        <v>6000000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1662,11 +1662,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1689,7 +1689,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>1500000</v>
+        <v>19000000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1702,11 +1702,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1729,7 +1729,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>3150000</v>
+        <v>20000000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1742,11 +1742,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1769,7 +1769,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>5000000</v>
+        <v>21000000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1782,11 +1782,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1809,7 +1809,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>25000000</v>
+        <v>1500000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1849,7 +1849,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>2000000</v>
+        <v>3150000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1862,11 +1862,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1889,7 +1889,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>22900000</v>
+        <v>5000000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1902,11 +1902,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1929,7 +1929,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>1050000</v>
+        <v>25000000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1942,11 +1942,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1969,7 +1969,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1982,11 +1982,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2009,7 +2009,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>18000000</v>
+        <v>22900000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2022,11 +2022,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2049,7 +2049,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>35000000</v>
+        <v>1050000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2062,11 +2062,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2089,7 +2089,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2102,11 +2102,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2129,7 +2129,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2142,11 +2142,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2169,7 +2169,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>24800000</v>
+        <v>35000000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2209,10 +2209,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="J45" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2222,11 +2222,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2262,11 +2262,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2289,7 +2289,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>2800000</v>
+        <v>24800000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2329,10 +2329,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="49">
@@ -2342,11 +2342,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2369,10 +2369,10 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="J49" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2382,11 +2382,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2409,7 +2409,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>900000</v>
+        <v>2800000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2422,11 +2422,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2449,7 +2449,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>2600000</v>
+        <v>3000000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2462,11 +2462,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2489,10 +2489,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="53">
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2529,7 +2529,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>3700000</v>
+        <v>900000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2542,11 +2542,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2569,7 +2569,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>6000000</v>
+        <v>2600000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2582,11 +2582,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2609,7 +2609,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>17730000</v>
+        <v>1500000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2622,11 +2622,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2649,7 +2649,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>14000000</v>
+        <v>3700000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2662,11 +2662,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2689,7 +2689,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2702,11 +2702,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2717,8 +2717,10 @@
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="n">
-        <v/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0971073757</t>
+        </is>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2727,7 +2729,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>1500000</v>
+        <v>17730000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2740,11 +2742,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2757,7 +2759,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2767,7 +2769,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>2000000</v>
+        <v>14000000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2780,11 +2782,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2795,8 +2797,10 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="n">
-        <v/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2805,7 +2809,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2818,11 +2822,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2833,10 +2837,8 @@
       <c r="E61" t="n">
         <v/>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F61" t="n">
+        <v/>
       </c>
       <c r="G61" t="n">
         <v/>
@@ -2845,7 +2847,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2858,11 +2860,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2875,7 +2877,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0347433400</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2885,7 +2887,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>21000000</v>
+        <v>2000000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2898,11 +2900,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2913,10 +2915,8 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0865677896</t>
-        </is>
+      <c r="F63" t="n">
+        <v/>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2925,7 +2925,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>20500000</v>
+        <v>1500000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2938,11 +2938,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2953,8 +2953,10 @@
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="n">
-        <v/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0974370797</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -2963,7 +2965,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>900000</v>
+        <v>15000000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2976,11 +2978,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2993,7 +2995,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0347433400</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3003,7 +3005,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>2500000</v>
+        <v>21000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3016,11 +3018,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3033,7 +3035,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3043,7 +3045,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>2000000</v>
+        <v>20500000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3056,11 +3058,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3071,10 +3073,8 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0786942575</t>
-        </is>
+      <c r="F67" t="n">
+        <v/>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -3083,7 +3083,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3096,11 +3096,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3123,7 +3123,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3136,11 +3136,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3163,7 +3163,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3176,11 +3176,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3203,7 +3203,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3216,11 +3216,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3243,7 +3243,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3256,11 +3256,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3283,7 +3283,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>2500000</v>
+        <v>15000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3296,11 +3296,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3323,7 +3323,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>30000000</v>
+        <v>1500000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3336,11 +3336,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3363,7 +3363,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>53000000</v>
+        <v>3000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3376,11 +3376,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3403,7 +3403,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>27500000</v>
+        <v>2500000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3416,11 +3416,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3431,8 +3431,10 @@
       <c r="E76" t="n">
         <v/>
       </c>
-      <c r="F76" t="n">
-        <v/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0936335226</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -3441,7 +3443,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>2000000</v>
+        <v>30000000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3454,11 +3456,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3471,7 +3473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3481,7 +3483,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>2000000</v>
+        <v>53000000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3494,11 +3496,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3511,7 +3513,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3521,7 +3523,7 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>2500000</v>
+        <v>27500000</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3534,11 +3536,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3549,10 +3551,8 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0833644489</t>
-        </is>
+      <c r="F79" t="n">
+        <v/>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3561,7 +3561,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3574,11 +3574,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3601,7 +3601,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>35000000</v>
+        <v>2000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3614,11 +3614,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3629,8 +3629,10 @@
       <c r="E81" t="n">
         <v/>
       </c>
-      <c r="F81" t="n">
-        <v/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0939268869</t>
+        </is>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -3639,7 +3641,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>30000000</v>
+        <v>2500000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3652,11 +3654,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3669,7 +3671,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3679,7 +3681,7 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>4000000</v>
+        <v>9000000</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3692,11 +3694,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3709,7 +3711,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3719,7 +3721,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>31500000</v>
+        <v>35000000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3732,11 +3734,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3747,10 +3749,8 @@
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0383095255</t>
-        </is>
+      <c r="F84" t="n">
+        <v/>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3759,7 +3759,7 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>45000000</v>
+        <v>30000000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3772,11 +3772,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3799,7 +3799,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3812,11 +3812,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3839,7 +3839,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>35000000</v>
+        <v>31500000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3852,11 +3852,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3879,7 +3879,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>1900000</v>
+        <v>45000000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3892,11 +3892,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3919,7 +3919,7 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>27300000</v>
+        <v>5000000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3932,11 +3932,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3959,10 +3959,10 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>7000000</v>
+        <v>35000000</v>
       </c>
       <c r="J89" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3972,11 +3972,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3999,7 +3999,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>28000000</v>
+        <v>1900000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4012,11 +4012,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4039,7 +4039,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>13000000</v>
+        <v>27300000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4052,11 +4052,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -4079,10 +4079,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>33000000</v>
+        <v>7000000</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="93">
@@ -4092,11 +4092,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4119,7 +4119,7 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>20000000</v>
+        <v>28000000</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -4132,11 +4132,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4159,7 +4159,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>19000000</v>
+        <v>13000000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4172,11 +4172,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4199,10 +4199,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>15000000</v>
+        <v>33000000</v>
       </c>
       <c r="J95" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4212,11 +4212,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4239,7 +4239,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>33000000</v>
+        <v>20000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4252,11 +4252,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4279,7 +4279,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>38000000</v>
+        <v>19000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4292,11 +4292,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4319,10 +4319,10 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>6000000</v>
+        <v>15000000</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="99">
@@ -4332,11 +4332,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4359,7 +4359,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>17000000</v>
+        <v>33000000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4372,11 +4372,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4399,7 +4399,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>19000000</v>
+        <v>38000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4412,11 +4412,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4439,10 +4439,10 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>18000000</v>
+        <v>6000000</v>
       </c>
       <c r="J101" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4452,11 +4452,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4467,8 +4467,10 @@
       <c r="E102" t="n">
         <v/>
       </c>
-      <c r="F102" t="n">
-        <v/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -4477,7 +4479,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>23500000</v>
+        <v>17000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4490,11 +4492,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4505,8 +4507,10 @@
       <c r="E103" t="n">
         <v/>
       </c>
-      <c r="F103" t="n">
-        <v/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G103" t="n">
         <v/>
@@ -4515,10 +4519,10 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>19000000</v>
       </c>
       <c r="J103" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4528,11 +4532,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4543,8 +4547,10 @@
       <c r="E104" t="n">
         <v/>
       </c>
-      <c r="F104" t="n">
-        <v/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -4553,10 +4559,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>33500000</v>
+        <v>18000000</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="105">
@@ -4566,11 +4572,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4591,7 +4597,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>27500000</v>
+        <v>23500000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4604,11 +4610,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4629,10 +4635,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>27500000</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="107">
@@ -4642,11 +4648,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4667,7 +4673,7 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>5000000</v>
+        <v>33500000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4680,11 +4686,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4705,7 +4711,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>17500000</v>
+        <v>27500000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4718,11 +4724,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4743,7 +4749,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>2000000</v>
+        <v>27500000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4756,11 +4762,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4781,7 +4787,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>1800000</v>
+        <v>5000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4794,11 +4800,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4819,7 +4825,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>5000000</v>
+        <v>17500000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4832,11 +4838,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4857,7 +4863,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4870,11 +4876,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4895,7 +4901,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>57000000</v>
+        <v>1800000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4908,11 +4914,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4946,11 +4952,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4971,7 +4977,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4984,11 +4990,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5009,7 +5015,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>19000000</v>
+        <v>57000000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5022,11 +5028,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5037,10 +5043,8 @@
       <c r="E117" t="n">
         <v/>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F117" t="n">
+        <v/>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -5049,7 +5053,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>33500000</v>
+        <v>5000000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -5062,11 +5066,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5077,10 +5081,8 @@
       <c r="E118" t="n">
         <v/>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F118" t="n">
+        <v/>
       </c>
       <c r="G118" t="n">
         <v/>
@@ -5089,7 +5091,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5102,11 +5104,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5127,7 +5129,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>22000000</v>
+        <v>19000000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5140,11 +5142,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5155,8 +5157,10 @@
       <c r="E120" t="n">
         <v/>
       </c>
-      <c r="F120" t="n">
-        <v/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G120" t="n">
         <v/>
@@ -5165,7 +5169,7 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>13000000</v>
+        <v>33500000</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5178,11 +5182,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5193,8 +5197,10 @@
       <c r="E121" t="n">
         <v/>
       </c>
-      <c r="F121" t="n">
-        <v/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G121" t="n">
         <v/>
@@ -5203,10 +5209,10 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>14600000</v>
+        <v>30000000</v>
       </c>
       <c r="J121" t="n">
-        <v>10400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5216,11 +5222,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5229,12 +5235,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F122" t="n">
+        <v/>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -5243,10 +5247,10 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>44000000</v>
+        <v>22000000</v>
       </c>
       <c r="J122" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5256,11 +5260,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5281,7 +5285,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>1200000</v>
+        <v>13000000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5294,11 +5298,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5319,10 +5323,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>24700000</v>
+        <v>14600000</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>10400000</v>
       </c>
     </row>
     <row r="125">
@@ -5332,11 +5336,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5345,10 +5349,12 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v/>
-      </c>
-      <c r="F125" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G125" t="n">
         <v/>
@@ -5357,10 +5363,10 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>25000000</v>
+        <v>44000000</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="126">
@@ -5370,11 +5376,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5395,7 +5401,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5408,11 +5414,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5433,7 +5439,7 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>4000000</v>
+        <v>24700000</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -5446,11 +5452,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5471,7 +5477,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5484,11 +5490,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5509,7 +5515,7 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>35000000</v>
+        <v>4000000</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5522,11 +5528,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5547,7 +5553,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5560,11 +5566,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5585,10 +5591,10 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>6000000</v>
+        <v>20000000</v>
       </c>
       <c r="J131" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5598,11 +5604,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5623,7 +5629,7 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5636,11 +5642,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5651,10 +5657,8 @@
       <c r="E133" t="n">
         <v/>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F133" t="n">
+        <v/>
       </c>
       <c r="G133" t="n">
         <v/>
@@ -5663,10 +5667,10 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>19000000</v>
+        <v>5000000</v>
       </c>
       <c r="J133" t="n">
-        <v>19000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5676,11 +5680,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5701,10 +5705,10 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="135">
@@ -5714,11 +5718,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5739,7 +5743,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>18000000</v>
+        <v>20000000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5752,11 +5756,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5767,8 +5771,10 @@
       <c r="E136" t="n">
         <v/>
       </c>
-      <c r="F136" t="n">
-        <v/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G136" t="n">
         <v/>
@@ -5777,10 +5783,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>1200000</v>
+        <v>19000000</v>
       </c>
       <c r="J136" t="n">
-        <v>300000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="137">
@@ -5790,11 +5796,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5815,7 +5821,7 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -5828,11 +5834,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5853,10 +5859,10 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>10300000</v>
+        <v>18000000</v>
       </c>
       <c r="J138" t="n">
-        <v>23500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5866,11 +5872,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5891,10 +5897,10 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>10000000</v>
+        <v>1200000</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="140">
@@ -5904,11 +5910,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5919,10 +5925,8 @@
       <c r="E140" t="n">
         <v/>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F140" t="n">
+        <v/>
       </c>
       <c r="G140" t="n">
         <v/>
@@ -5931,10 +5935,10 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>16500000</v>
+        <v>10000000</v>
       </c>
       <c r="J140" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5944,11 +5948,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5969,10 +5973,10 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>43000000</v>
+        <v>10300000</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="142">
@@ -5982,11 +5986,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6007,7 +6011,7 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -6020,11 +6024,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6035,8 +6039,10 @@
       <c r="E143" t="n">
         <v/>
       </c>
-      <c r="F143" t="n">
-        <v/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G143" t="n">
         <v/>
@@ -6045,10 +6051,10 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>2000000</v>
+        <v>16500000</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="144">
@@ -6058,11 +6064,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6083,7 +6089,7 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>4500000</v>
+        <v>43000000</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -6096,11 +6102,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6121,7 +6127,7 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -6134,11 +6140,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6159,7 +6165,7 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -6172,11 +6178,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6197,7 +6203,7 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>2000000</v>
+        <v>4500000</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -6210,11 +6216,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6235,7 +6241,7 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -6248,11 +6254,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6273,7 +6279,7 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -6286,11 +6292,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6311,7 +6317,7 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -6324,11 +6330,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6349,7 +6355,7 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>8000000</v>
+        <v>2500000</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -6362,11 +6368,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6387,7 +6393,7 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -6400,11 +6406,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6425,7 +6431,7 @@
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>15000000</v>
+        <v>8000000</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -6438,11 +6444,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6453,10 +6459,8 @@
       <c r="E154" t="n">
         <v/>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F154" t="n">
+        <v/>
       </c>
       <c r="G154" t="n">
         <v/>
@@ -6465,10 +6469,10 @@
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>4500000</v>
+        <v>8000000</v>
       </c>
       <c r="J154" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -6478,11 +6482,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6503,7 +6507,7 @@
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>20000000</v>
+        <v>1200000</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -6516,11 +6520,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6541,7 +6545,7 @@
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>6000000</v>
+        <v>15000000</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -6554,11 +6558,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6569,8 +6573,10 @@
       <c r="E157" t="n">
         <v/>
       </c>
-      <c r="F157" t="n">
-        <v/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G157" t="n">
         <v/>
@@ -6579,10 +6585,10 @@
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>1500000</v>
+        <v>4500000</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="158">
@@ -6592,11 +6598,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6617,7 +6623,7 @@
         <v/>
       </c>
       <c r="I158" t="n">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -6630,11 +6636,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6655,7 +6661,7 @@
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>11000000</v>
+        <v>6000000</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6668,11 +6674,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6693,7 +6699,7 @@
         <v/>
       </c>
       <c r="I160" t="n">
-        <v>11000000</v>
+        <v>1500000</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -6706,11 +6712,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6731,7 +6737,7 @@
         <v/>
       </c>
       <c r="I161" t="n">
-        <v>7000000</v>
+        <v>10000000</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -6744,11 +6750,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6769,7 +6775,7 @@
         <v/>
       </c>
       <c r="I162" t="n">
-        <v>27000000</v>
+        <v>11000000</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -6782,11 +6788,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6807,7 +6813,7 @@
         <v/>
       </c>
       <c r="I163" t="n">
-        <v>14000000</v>
+        <v>11000000</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -6820,11 +6826,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6845,7 +6851,7 @@
         <v/>
       </c>
       <c r="I164" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -6858,11 +6864,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6883,7 +6889,7 @@
         <v/>
       </c>
       <c r="I165" t="n">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -6896,11 +6902,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6921,7 +6927,7 @@
         <v/>
       </c>
       <c r="I166" t="n">
-        <v>30000000</v>
+        <v>14000000</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -6934,11 +6940,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6959,7 +6965,7 @@
         <v/>
       </c>
       <c r="I167" t="n">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -6972,11 +6978,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6997,7 +7003,7 @@
         <v/>
       </c>
       <c r="I168" t="n">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -7010,11 +7016,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7035,7 +7041,7 @@
         <v/>
       </c>
       <c r="I169" t="n">
-        <v>12000000</v>
+        <v>30000000</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -7048,11 +7054,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7073,7 +7079,7 @@
         <v/>
       </c>
       <c r="I170" t="n">
-        <v>5000000</v>
+        <v>18000000</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -7086,11 +7092,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7111,7 +7117,7 @@
         <v/>
       </c>
       <c r="I171" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -7124,11 +7130,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7149,7 +7155,7 @@
         <v/>
       </c>
       <c r="I172" t="n">
-        <v>2700000</v>
+        <v>12000000</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -7162,11 +7168,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7187,7 +7193,7 @@
         <v/>
       </c>
       <c r="I173" t="n">
-        <v>27500000</v>
+        <v>5000000</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -7200,11 +7206,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7225,7 +7231,7 @@
         <v/>
       </c>
       <c r="I174" t="n">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -7238,11 +7244,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7263,7 +7269,7 @@
         <v/>
       </c>
       <c r="I175" t="n">
-        <v>3000000</v>
+        <v>2700000</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -7276,11 +7282,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7301,7 +7307,7 @@
         <v/>
       </c>
       <c r="I176" t="n">
-        <v>34200000</v>
+        <v>27500000</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -7314,11 +7320,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7339,7 +7345,7 @@
         <v/>
       </c>
       <c r="I177" t="n">
-        <v>4000000</v>
+        <v>18000000</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -7352,36 +7358,150 @@
         </is>
       </c>
       <c r="B178" t="n">
+        <v>44</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v/>
+      </c>
+      <c r="F178" t="n">
+        <v/>
+      </c>
+      <c r="G178" t="n">
+        <v/>
+      </c>
+      <c r="H178" t="n">
+        <v/>
+      </c>
+      <c r="I178" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>43</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v/>
+      </c>
+      <c r="F179" t="n">
+        <v/>
+      </c>
+      <c r="G179" t="n">
+        <v/>
+      </c>
+      <c r="H179" t="n">
+        <v/>
+      </c>
+      <c r="I179" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>42</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v/>
+      </c>
+      <c r="F180" t="n">
+        <v/>
+      </c>
+      <c r="G180" t="n">
+        <v/>
+      </c>
+      <c r="H180" t="n">
+        <v/>
+      </c>
+      <c r="I180" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
         <v>41</v>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v/>
-      </c>
-      <c r="F178" t="inlineStr">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v/>
+      </c>
+      <c r="F181" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G178" t="n">
-        <v/>
-      </c>
-      <c r="H178" t="n">
-        <v/>
-      </c>
-      <c r="I178" t="n">
+      <c r="G181" t="n">
+        <v/>
+      </c>
+      <c r="H181" t="n">
+        <v/>
+      </c>
+      <c r="I181" t="n">
         <v>18000000</v>
       </c>
-      <c r="J178" t="n">
+      <c r="J181" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thoa</t>
+          <t>Phan Thị Diễm My</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>09651666555</t>
+          <t>0898814050</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>1800000</v>
+        <v>25500000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Như Ý</t>
+          <t>Nguyễn Yến Nhi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0966680674</t>
+          <t>0978942740</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +547,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>27000000</v>
+        <v>19500000</v>
       </c>
       <c r="J3" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Đặng Thảo Nhi</t>
+          <t>Đặng Thị Hồng Hạnh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0358588022</t>
+          <t>0342841309</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,7 +587,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>2800000</v>
+        <v>3000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Ngọc Tâm</t>
+          <t>Nguyễn Thị Thoa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0927644696</t>
+          <t>09651666555</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,7 +627,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>3700000</v>
+        <v>1800000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Đoàn Minh Thư</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0368615610</t>
+          <t>0966680674</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,10 +667,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>1500000</v>
+        <v>27000000</v>
       </c>
       <c r="J6" t="n">
-        <v>-1500000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="7">
@@ -680,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hồ Minh Trường</t>
+          <t>Nguyễn Đặng Thảo Nhi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -695,8 +695,10 @@
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
-        <v/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0358588022</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -705,7 +707,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>23300000</v>
+        <v>2800000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -718,11 +720,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chị Sa</t>
+          <t>Nguyễn Thị Ngọc Tâm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -733,8 +735,10 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="n">
-        <v/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0927644696</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -743,7 +747,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>23000000</v>
+        <v>3700000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -756,11 +760,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lê Thị Bích Liên</t>
+          <t>Đoàn Minh Thư</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -773,7 +777,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0939365840</t>
+          <t>0368615610</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -783,7 +787,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -796,11 +800,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Phan Thuỵ</t>
+          <t>Hồ Minh Trường</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -811,10 +815,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0363459594</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -823,7 +825,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1200000</v>
+        <v>23300000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -836,11 +838,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ngọc</t>
+          <t>Chị Sa</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,10 +853,8 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0939597583</t>
-        </is>
+      <c r="F11" t="n">
+        <v/>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -863,7 +863,7 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>4000000</v>
+        <v>26000000</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -876,11 +876,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Huyền Trân</t>
+          <t>Lê Thị Bích Liên</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -891,8 +891,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0939365840</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -901,7 +903,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -914,11 +916,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bé Su</t>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -931,7 +933,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0369845277</t>
+          <t>0363459594</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -941,7 +943,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>5400000</v>
+        <v>1200000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -954,11 +956,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Huyền Trang</t>
+          <t>Nguyễn Như Ngọc</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -971,7 +973,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0931088891</t>
+          <t>0939597583</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -994,11 +996,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Trần Thị Nhi</t>
+          <t>Huyền Trân</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1009,10 +1011,8 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0941047740</t>
-        </is>
+      <c r="F15" t="n">
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1021,7 +1021,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1034,11 +1034,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>Bé Su</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1049,8 +1049,10 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0369845277</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1059,7 +1061,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>9000000</v>
+        <v>5400000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1072,11 +1074,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1087,8 +1089,10 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="n">
-        <v/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0931088891</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1097,10 +1101,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J17" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1110,11 +1114,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thắm</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1127,7 +1131,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0978886601</t>
+          <t>0941047740</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1137,7 +1141,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1150,11 +1154,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Võ Thị Thuỳ Trang</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1165,10 +1169,8 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0939293038</t>
-        </is>
+      <c r="F19" t="n">
+        <v/>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1177,7 +1179,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>1500000</v>
+        <v>9000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1190,11 +1192,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Phạm Thị Trúc Lài</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1215,10 +1217,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>1000000</v>
+        <v>7000000</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="21">
@@ -1228,11 +1230,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc Dung</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1243,8 +1245,10 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="n">
-        <v/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0978886601</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1253,7 +1257,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1266,11 +1270,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trần Thị Thanh Nhàn</t>
+          <t>Võ Thị Thuỳ Trang</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1283,7 +1287,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0981499994</t>
+          <t>0939293038</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1293,7 +1297,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>28000000</v>
+        <v>1500000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1306,11 +1310,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phạm Thị Thu Hà</t>
+          <t>Phạm Thị Trúc Lài</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1321,10 +1325,8 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0908896604</t>
-        </is>
+      <c r="F23" t="n">
+        <v/>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1333,7 +1335,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1346,11 +1348,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Quyên</t>
+          <t>Trần Thị Ngọc Dung</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1361,10 +1363,8 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0777891306</t>
-        </is>
+      <c r="F24" t="n">
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1373,7 +1373,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>8000000</v>
+        <v>9000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1386,11 +1386,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc</t>
+          <t>Trần Thị Thanh Nhàn</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1401,8 +1401,10 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="n">
-        <v/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0981499994</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1411,7 +1413,7 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>3000000</v>
+        <v>28000000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1424,11 +1426,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1441,7 +1443,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0908896604</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1451,7 +1453,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1464,11 +1466,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Bé</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1481,7 +1483,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0777891306</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1491,7 +1493,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1504,11 +1506,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Yến Phương</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1519,10 +1521,8 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0907234326</t>
-        </is>
+      <c r="F28" t="n">
+        <v/>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1531,7 +1531,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>500000</v>
+        <v>3000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1544,11 +1544,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Phan Thị Út</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0779841025</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1571,7 +1571,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1584,11 +1584,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1611,7 +1611,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1624,11 +1624,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1639,8 +1639,10 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0907234326</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1649,7 +1651,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>6000000</v>
+        <v>500000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1662,11 +1664,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1679,7 +1681,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0919972597</t>
+          <t>0779841025</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1689,7 +1691,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>19000000</v>
+        <v>1500000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1702,11 +1704,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1719,7 +1721,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0766931276</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1729,7 +1731,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>20000000</v>
+        <v>200000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1742,11 +1744,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1757,10 +1759,8 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0372525624</t>
-        </is>
+      <c r="F34" t="n">
+        <v/>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1769,7 +1769,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>21000000</v>
+        <v>6000000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1782,11 +1782,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1809,7 +1809,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>1500000</v>
+        <v>19000000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1822,11 +1822,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1849,7 +1849,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>3150000</v>
+        <v>20000000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1862,11 +1862,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1889,7 +1889,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>5000000</v>
+        <v>21000000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1902,11 +1902,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1929,7 +1929,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>25000000</v>
+        <v>1500000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1942,11 +1942,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1969,7 +1969,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>2000000</v>
+        <v>3150000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1982,11 +1982,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2009,7 +2009,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>22900000</v>
+        <v>5000000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2022,11 +2022,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2049,7 +2049,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>1050000</v>
+        <v>25000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2062,11 +2062,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2089,7 +2089,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2102,11 +2102,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2129,7 +2129,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>18000000</v>
+        <v>22900000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2142,11 +2142,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2169,7 +2169,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>35000000</v>
+        <v>1050000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2209,7 +2209,7 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2222,11 +2222,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2249,7 +2249,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2262,11 +2262,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2289,7 +2289,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>24800000</v>
+        <v>35000000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2329,10 +2329,10 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="J48" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2342,11 +2342,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2382,11 +2382,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2409,7 +2409,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>2800000</v>
+        <v>24800000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2422,11 +2422,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2449,10 +2449,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="52">
@@ -2462,11 +2462,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2489,10 +2489,10 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="J52" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2529,7 +2529,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>900000</v>
+        <v>2800000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2542,11 +2542,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2569,7 +2569,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>2600000</v>
+        <v>3000000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2582,11 +2582,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2609,10 +2609,10 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="56">
@@ -2622,11 +2622,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2649,7 +2649,7 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>3700000</v>
+        <v>900000</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2662,11 +2662,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2689,7 +2689,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>6000000</v>
+        <v>2600000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2702,11 +2702,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2729,7 +2729,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>17730000</v>
+        <v>1500000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2742,11 +2742,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2769,7 +2769,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>14000000</v>
+        <v>3700000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2782,11 +2782,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2809,7 +2809,7 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2822,11 +2822,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2837,8 +2837,10 @@
       <c r="E61" t="n">
         <v/>
       </c>
-      <c r="F61" t="n">
-        <v/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0971073757</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v/>
@@ -2847,7 +2849,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>1500000</v>
+        <v>17730000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2860,11 +2862,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2877,7 +2879,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2887,7 +2889,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>2000000</v>
+        <v>14000000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2900,11 +2902,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2915,8 +2917,10 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="n">
-        <v/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2925,7 +2929,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2938,11 +2942,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2953,10 +2957,8 @@
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F64" t="n">
+        <v/>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -2965,7 +2967,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2978,11 +2980,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2995,7 +2997,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0347433400</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3005,7 +3007,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>21000000</v>
+        <v>2000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3018,11 +3020,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3033,10 +3035,8 @@
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0865677896</t>
-        </is>
+      <c r="F66" t="n">
+        <v/>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -3045,7 +3045,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>20500000</v>
+        <v>1500000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3058,11 +3058,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3073,8 +3073,10 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="n">
-        <v/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0974370797</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -3083,7 +3085,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>900000</v>
+        <v>15000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3096,11 +3098,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3113,7 +3115,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0347433400</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3123,7 +3125,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>2500000</v>
+        <v>21000000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3136,11 +3138,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3153,7 +3155,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3163,7 +3165,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>2000000</v>
+        <v>20500000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3176,11 +3178,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3191,10 +3193,8 @@
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0786942575</t>
-        </is>
+      <c r="F70" t="n">
+        <v/>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -3203,7 +3203,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3216,11 +3216,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3243,7 +3243,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3256,11 +3256,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3283,7 +3283,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>15000000</v>
+        <v>2000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3296,11 +3296,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3323,7 +3323,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3336,11 +3336,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3363,7 +3363,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3376,11 +3376,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3403,7 +3403,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>2500000</v>
+        <v>15000000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3416,11 +3416,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3443,7 +3443,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>30000000</v>
+        <v>1500000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3483,7 +3483,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>53000000</v>
+        <v>3000000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3496,11 +3496,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3523,7 +3523,7 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>27500000</v>
+        <v>2500000</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3536,11 +3536,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3551,8 +3551,10 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="n">
-        <v/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0936335226</t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3561,7 +3563,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>2000000</v>
+        <v>30000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3574,11 +3576,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3591,7 +3593,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3601,7 +3603,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>2000000</v>
+        <v>53000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3614,11 +3616,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3631,7 +3633,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3641,7 +3643,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>2500000</v>
+        <v>27500000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3654,11 +3656,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3669,10 +3671,8 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0833644489</t>
-        </is>
+      <c r="F82" t="n">
+        <v/>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3681,7 +3681,7 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>9000000</v>
+        <v>2000000</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3694,11 +3694,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3721,7 +3721,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>35000000</v>
+        <v>2000000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3734,11 +3734,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3749,8 +3749,10 @@
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="n">
-        <v/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0939268869</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3759,7 +3761,7 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>30000000</v>
+        <v>2500000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3772,11 +3774,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3789,7 +3791,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3799,7 +3801,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>4000000</v>
+        <v>9000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3812,11 +3814,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3829,7 +3831,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3839,7 +3841,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>31500000</v>
+        <v>35000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3852,11 +3854,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3867,10 +3869,8 @@
       <c r="E87" t="n">
         <v/>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>0383095255</t>
-        </is>
+      <c r="F87" t="n">
+        <v/>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -3879,7 +3879,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>45000000</v>
+        <v>30000000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3892,11 +3892,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3919,7 +3919,7 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3932,11 +3932,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3959,7 +3959,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>35000000</v>
+        <v>31500000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3972,11 +3972,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3999,7 +3999,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>1900000</v>
+        <v>45000000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4012,11 +4012,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4039,7 +4039,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>27300000</v>
+        <v>5000000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4052,11 +4052,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -4079,10 +4079,10 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>7000000</v>
+        <v>35000000</v>
       </c>
       <c r="J92" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4092,11 +4092,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4119,7 +4119,7 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>28000000</v>
+        <v>1900000</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -4132,11 +4132,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4159,7 +4159,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>13000000</v>
+        <v>27300000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4172,11 +4172,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4199,10 +4199,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>33000000</v>
+        <v>7000000</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="96">
@@ -4212,11 +4212,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4239,7 +4239,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>20000000</v>
+        <v>28000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4252,11 +4252,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4279,7 +4279,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>19000000</v>
+        <v>13000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4292,11 +4292,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4319,10 +4319,10 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>15000000</v>
+        <v>33000000</v>
       </c>
       <c r="J98" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4332,11 +4332,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4359,7 +4359,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>33000000</v>
+        <v>20000000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4372,11 +4372,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4399,7 +4399,7 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>38000000</v>
+        <v>19000000</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4412,11 +4412,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4439,10 +4439,10 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>6000000</v>
+        <v>15000000</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="102">
@@ -4452,11 +4452,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4479,7 +4479,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>17000000</v>
+        <v>33000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4492,11 +4492,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4519,7 +4519,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>19000000</v>
+        <v>38000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4532,11 +4532,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4559,10 +4559,10 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>18000000</v>
+        <v>6000000</v>
       </c>
       <c r="J104" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4572,11 +4572,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4587,8 +4587,10 @@
       <c r="E105" t="n">
         <v/>
       </c>
-      <c r="F105" t="n">
-        <v/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G105" t="n">
         <v/>
@@ -4597,7 +4599,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>23500000</v>
+        <v>17000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4610,11 +4612,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4625,8 +4627,10 @@
       <c r="E106" t="n">
         <v/>
       </c>
-      <c r="F106" t="n">
-        <v/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -4635,10 +4639,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>19000000</v>
       </c>
       <c r="J106" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4648,11 +4652,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4663,8 +4667,10 @@
       <c r="E107" t="n">
         <v/>
       </c>
-      <c r="F107" t="n">
-        <v/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G107" t="n">
         <v/>
@@ -4673,10 +4679,10 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>33500000</v>
+        <v>18000000</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="108">
@@ -4686,11 +4692,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4711,7 +4717,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>27500000</v>
+        <v>23500000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4724,11 +4730,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4749,10 +4755,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>27500000</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="110">
@@ -4762,11 +4768,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4787,7 +4793,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>5000000</v>
+        <v>33500000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4800,11 +4806,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4825,7 +4831,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>17500000</v>
+        <v>27500000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4838,11 +4844,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4863,7 +4869,7 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>2000000</v>
+        <v>27500000</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -4876,11 +4882,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4901,7 +4907,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>1800000</v>
+        <v>5000000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4914,11 +4920,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4939,7 +4945,7 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>5000000</v>
+        <v>17500000</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4952,11 +4958,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4977,7 +4983,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4990,11 +4996,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5015,7 +5021,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>57000000</v>
+        <v>1800000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5028,11 +5034,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5066,11 +5072,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5091,7 +5097,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5104,11 +5110,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5129,7 +5135,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>19000000</v>
+        <v>57000000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5142,11 +5148,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5157,10 +5163,8 @@
       <c r="E120" t="n">
         <v/>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F120" t="n">
+        <v/>
       </c>
       <c r="G120" t="n">
         <v/>
@@ -5169,7 +5173,7 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>33500000</v>
+        <v>5000000</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5182,11 +5186,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5197,10 +5201,8 @@
       <c r="E121" t="n">
         <v/>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F121" t="n">
+        <v/>
       </c>
       <c r="G121" t="n">
         <v/>
@@ -5209,7 +5211,7 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -5222,11 +5224,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5247,7 +5249,7 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>22000000</v>
+        <v>19000000</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -5260,11 +5262,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5275,8 +5277,10 @@
       <c r="E123" t="n">
         <v/>
       </c>
-      <c r="F123" t="n">
-        <v/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G123" t="n">
         <v/>
@@ -5285,7 +5289,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>13000000</v>
+        <v>33500000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5298,11 +5302,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5313,8 +5317,10 @@
       <c r="E124" t="n">
         <v/>
       </c>
-      <c r="F124" t="n">
-        <v/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G124" t="n">
         <v/>
@@ -5323,10 +5329,10 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>14600000</v>
+        <v>30000000</v>
       </c>
       <c r="J124" t="n">
-        <v>10400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5336,11 +5342,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5349,12 +5355,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F125" t="n">
+        <v/>
       </c>
       <c r="G125" t="n">
         <v/>
@@ -5363,10 +5367,10 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>44000000</v>
+        <v>22000000</v>
       </c>
       <c r="J125" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5376,11 +5380,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5401,7 +5405,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>1200000</v>
+        <v>13000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5414,11 +5418,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5439,10 +5443,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>24700000</v>
+        <v>14600000</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>10400000</v>
       </c>
     </row>
     <row r="128">
@@ -5452,11 +5456,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5465,10 +5469,12 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v/>
-      </c>
-      <c r="F128" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G128" t="n">
         <v/>
@@ -5477,10 +5483,10 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>25000000</v>
+        <v>44000000</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="129">
@@ -5490,11 +5496,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5515,7 +5521,7 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5528,11 +5534,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5553,7 +5559,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>4000000</v>
+        <v>24700000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5566,11 +5572,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5591,7 +5597,7 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5604,11 +5610,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5629,7 +5635,7 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>35000000</v>
+        <v>4000000</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5642,11 +5648,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5667,7 +5673,7 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5680,11 +5686,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5705,10 +5711,10 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>6000000</v>
+        <v>20000000</v>
       </c>
       <c r="J134" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5718,11 +5724,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5743,7 +5749,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5756,11 +5762,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5771,10 +5777,8 @@
       <c r="E136" t="n">
         <v/>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F136" t="n">
+        <v/>
       </c>
       <c r="G136" t="n">
         <v/>
@@ -5783,10 +5787,10 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>19000000</v>
+        <v>5000000</v>
       </c>
       <c r="J136" t="n">
-        <v>19000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5796,11 +5800,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5821,10 +5825,10 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="138">
@@ -5834,11 +5838,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5859,7 +5863,7 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>18000000</v>
+        <v>20000000</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -5872,11 +5876,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5887,8 +5891,10 @@
       <c r="E139" t="n">
         <v/>
       </c>
-      <c r="F139" t="n">
-        <v/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G139" t="n">
         <v/>
@@ -5897,10 +5903,10 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>1200000</v>
+        <v>19000000</v>
       </c>
       <c r="J139" t="n">
-        <v>300000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="140">
@@ -5910,11 +5916,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5935,7 +5941,7 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -5948,11 +5954,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5973,10 +5979,10 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>10300000</v>
+        <v>18000000</v>
       </c>
       <c r="J141" t="n">
-        <v>23500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5986,11 +5992,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6011,10 +6017,10 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>10000000</v>
+        <v>1200000</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="143">
@@ -6024,11 +6030,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6039,10 +6045,8 @@
       <c r="E143" t="n">
         <v/>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F143" t="n">
+        <v/>
       </c>
       <c r="G143" t="n">
         <v/>
@@ -6051,10 +6055,10 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>16500000</v>
+        <v>10000000</v>
       </c>
       <c r="J143" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6064,11 +6068,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6089,10 +6093,10 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>43000000</v>
+        <v>10300000</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="145">
@@ -6102,11 +6106,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6127,7 +6131,7 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -6140,11 +6144,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6155,8 +6159,10 @@
       <c r="E146" t="n">
         <v/>
       </c>
-      <c r="F146" t="n">
-        <v/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G146" t="n">
         <v/>
@@ -6165,10 +6171,10 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>2000000</v>
+        <v>16500000</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="147">
@@ -6178,11 +6184,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6203,7 +6209,7 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>4500000</v>
+        <v>43000000</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -6216,11 +6222,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6241,7 +6247,7 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -6254,11 +6260,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6279,7 +6285,7 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -6292,11 +6298,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6317,7 +6323,7 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>2000000</v>
+        <v>4500000</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -6330,11 +6336,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6355,7 +6361,7 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -6368,11 +6374,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6393,7 +6399,7 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -6406,11 +6412,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6431,7 +6437,7 @@
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -6444,11 +6450,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6469,7 +6475,7 @@
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>8000000</v>
+        <v>2500000</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -6482,11 +6488,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6507,7 +6513,7 @@
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -6520,11 +6526,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6545,7 +6551,7 @@
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>15000000</v>
+        <v>8000000</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -6558,11 +6564,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6573,10 +6579,8 @@
       <c r="E157" t="n">
         <v/>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F157" t="n">
+        <v/>
       </c>
       <c r="G157" t="n">
         <v/>
@@ -6585,10 +6589,10 @@
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>4500000</v>
+        <v>8000000</v>
       </c>
       <c r="J157" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6598,11 +6602,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6623,7 +6627,7 @@
         <v/>
       </c>
       <c r="I158" t="n">
-        <v>20000000</v>
+        <v>1200000</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -6636,11 +6640,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6661,7 +6665,7 @@
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>6000000</v>
+        <v>15000000</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6674,11 +6678,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6689,8 +6693,10 @@
       <c r="E160" t="n">
         <v/>
       </c>
-      <c r="F160" t="n">
-        <v/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G160" t="n">
         <v/>
@@ -6699,10 +6705,10 @@
         <v/>
       </c>
       <c r="I160" t="n">
-        <v>1500000</v>
+        <v>4500000</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="161">
@@ -6712,11 +6718,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6737,7 +6743,7 @@
         <v/>
       </c>
       <c r="I161" t="n">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -6750,11 +6756,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6775,7 +6781,7 @@
         <v/>
       </c>
       <c r="I162" t="n">
-        <v>11000000</v>
+        <v>6000000</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -6788,11 +6794,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6813,7 +6819,7 @@
         <v/>
       </c>
       <c r="I163" t="n">
-        <v>11000000</v>
+        <v>1500000</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -6826,11 +6832,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6851,7 +6857,7 @@
         <v/>
       </c>
       <c r="I164" t="n">
-        <v>7000000</v>
+        <v>10000000</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -6864,11 +6870,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6889,7 +6895,7 @@
         <v/>
       </c>
       <c r="I165" t="n">
-        <v>27000000</v>
+        <v>11000000</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -6902,11 +6908,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6927,7 +6933,7 @@
         <v/>
       </c>
       <c r="I166" t="n">
-        <v>14000000</v>
+        <v>11000000</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -6940,11 +6946,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6965,7 +6971,7 @@
         <v/>
       </c>
       <c r="I167" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -6978,11 +6984,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7003,7 +7009,7 @@
         <v/>
       </c>
       <c r="I168" t="n">
-        <v>6000000</v>
+        <v>27000000</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -7016,11 +7022,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7041,7 +7047,7 @@
         <v/>
       </c>
       <c r="I169" t="n">
-        <v>30000000</v>
+        <v>14000000</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -7054,11 +7060,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7079,7 +7085,7 @@
         <v/>
       </c>
       <c r="I170" t="n">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -7092,11 +7098,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7117,7 +7123,7 @@
         <v/>
       </c>
       <c r="I171" t="n">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -7130,11 +7136,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7155,7 +7161,7 @@
         <v/>
       </c>
       <c r="I172" t="n">
-        <v>12000000</v>
+        <v>30000000</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -7168,11 +7174,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7193,7 +7199,7 @@
         <v/>
       </c>
       <c r="I173" t="n">
-        <v>5000000</v>
+        <v>18000000</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -7206,11 +7212,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7231,7 +7237,7 @@
         <v/>
       </c>
       <c r="I174" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -7244,11 +7250,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7269,7 +7275,7 @@
         <v/>
       </c>
       <c r="I175" t="n">
-        <v>2700000</v>
+        <v>12000000</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -7282,11 +7288,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7307,7 +7313,7 @@
         <v/>
       </c>
       <c r="I176" t="n">
-        <v>27500000</v>
+        <v>5000000</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -7320,11 +7326,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7345,7 +7351,7 @@
         <v/>
       </c>
       <c r="I177" t="n">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -7358,11 +7364,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7383,7 +7389,7 @@
         <v/>
       </c>
       <c r="I178" t="n">
-        <v>3000000</v>
+        <v>2700000</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -7396,11 +7402,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7421,7 +7427,7 @@
         <v/>
       </c>
       <c r="I179" t="n">
-        <v>34200000</v>
+        <v>27500000</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -7434,11 +7440,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7459,7 +7465,7 @@
         <v/>
       </c>
       <c r="I180" t="n">
-        <v>4000000</v>
+        <v>18000000</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -7472,36 +7478,150 @@
         </is>
       </c>
       <c r="B181" t="n">
+        <v>44</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v/>
+      </c>
+      <c r="F181" t="n">
+        <v/>
+      </c>
+      <c r="G181" t="n">
+        <v/>
+      </c>
+      <c r="H181" t="n">
+        <v/>
+      </c>
+      <c r="I181" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>43</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v/>
+      </c>
+      <c r="F182" t="n">
+        <v/>
+      </c>
+      <c r="G182" t="n">
+        <v/>
+      </c>
+      <c r="H182" t="n">
+        <v/>
+      </c>
+      <c r="I182" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>42</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v/>
+      </c>
+      <c r="F183" t="n">
+        <v/>
+      </c>
+      <c r="G183" t="n">
+        <v/>
+      </c>
+      <c r="H183" t="n">
+        <v/>
+      </c>
+      <c r="I183" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
         <v>41</v>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v/>
-      </c>
-      <c r="F181" t="inlineStr">
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v/>
+      </c>
+      <c r="F184" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G181" t="n">
-        <v/>
-      </c>
-      <c r="H181" t="n">
-        <v/>
-      </c>
-      <c r="I181" t="n">
+      <c r="G184" t="n">
+        <v/>
+      </c>
+      <c r="H184" t="n">
+        <v/>
+      </c>
+      <c r="I184" t="n">
         <v>18000000</v>
       </c>
-      <c r="J181" t="n">
+      <c r="J184" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Phan Thị Diễm My</t>
+          <t>Ngô Thị Trúc Mỹ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0898814050</t>
+          <t>0339950712</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>25500000</v>
+        <v>4800000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyễn Yến Nhi</t>
+          <t>Nguyễn Thị Ngọc Thượng</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0978942740</t>
+          <t>0762558484</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,7 +547,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>19500000</v>
+        <v>2000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Đặng Thị Hồng Hạnh</t>
+          <t>Nguyễn Thị My Sa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0342841309</t>
+          <t>0901799807</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,7 +587,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>3000000</v>
+        <v>25500000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thoa</t>
+          <t>Lâm Tuyết Nghi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09651666555</t>
+          <t>0911502345</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,7 +627,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1800000</v>
+        <v>1400000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Như Ý</t>
+          <t>Lê Ngọc Huệ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0966680674</t>
+          <t>0775151789</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,10 +667,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>27000000</v>
+        <v>4550000</v>
       </c>
       <c r="J6" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -680,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Đặng Thảo Nhi</t>
+          <t>Phan Thị Diễm My</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0358588022</t>
+          <t>0898814050</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,7 +707,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>2800000</v>
+        <v>25500000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -720,11 +720,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Ngọc Tâm</t>
+          <t>Nguyễn Yến Nhi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0927644696</t>
+          <t>0978942740</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -747,7 +747,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>3700000</v>
+        <v>19500000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -760,11 +760,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Đoàn Minh Thư</t>
+          <t>Đặng Thị Hồng Hạnh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0368615610</t>
+          <t>0342841309</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -787,7 +787,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -800,11 +800,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hồ Minh Trường</t>
+          <t>Nguyễn Thị Thoa</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -815,8 +815,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>09651666555</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -825,7 +827,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>23300000</v>
+        <v>1800000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -838,11 +840,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chị Sa</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -853,8 +855,10 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0966680674</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -863,10 +867,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>26000000</v>
+        <v>27000000</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="12">
@@ -876,11 +880,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lê Thị Bích Liên</t>
+          <t>Nguyễn Đặng Thảo Nhi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -893,7 +897,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0939365840</t>
+          <t>0358588022</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -903,7 +907,7 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>8000000</v>
+        <v>2800000</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -916,11 +920,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Phan Thuỵ</t>
+          <t>Nguyễn Thị Ngọc Tâm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -933,7 +937,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0363459594</t>
+          <t>0927644696</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -943,7 +947,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1200000</v>
+        <v>3700000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -956,11 +960,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ngọc</t>
+          <t>Đoàn Minh Thư</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -973,7 +977,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0939597583</t>
+          <t>0368615610</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -983,7 +987,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -996,11 +1000,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Huyền Trân</t>
+          <t>Hồ Minh Trường</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1021,7 +1025,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>2000000</v>
+        <v>23300000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1034,11 +1038,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bé Su</t>
+          <t>Chị Sa</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1049,10 +1053,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0369845277</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1061,7 +1063,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>5400000</v>
+        <v>26000000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1074,11 +1076,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Huyền Trang</t>
+          <t>Lê Thị Bích Liên</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1091,7 +1093,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0931088891</t>
+          <t>0939365840</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1101,7 +1103,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1114,11 +1116,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Trần Thị Nhi</t>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1131,7 +1133,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0941047740</t>
+          <t>0363459594</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1141,7 +1143,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1154,11 +1156,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>Nguyễn Như Ngọc</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1169,8 +1171,10 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="n">
-        <v/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0939597583</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1179,7 +1183,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>9000000</v>
+        <v>4000000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1192,11 +1196,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Huyền Trân</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1217,10 +1221,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>7000000</v>
+        <v>2000000</v>
       </c>
       <c r="J20" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1230,11 +1234,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thắm</t>
+          <t>Bé Su</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1247,7 +1251,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0978886601</t>
+          <t>0369845277</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1257,7 +1261,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>2000000</v>
+        <v>5400000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1270,11 +1274,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Võ Thị Thuỳ Trang</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1287,7 +1291,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0939293038</t>
+          <t>0931088891</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1297,7 +1301,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1310,11 +1314,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phạm Thị Trúc Lài</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1325,8 +1329,10 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="n">
-        <v/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0941047740</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1335,7 +1341,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1348,11 +1354,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc Dung</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1386,11 +1392,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Trần Thị Thanh Nhàn</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1401,10 +1407,8 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0981499994</t>
-        </is>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1413,10 +1417,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>28000000</v>
+        <v>7000000</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="26">
@@ -1426,11 +1430,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Phạm Thị Thu Hà</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1443,7 +1447,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0908896604</t>
+          <t>0978886601</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1453,7 +1457,7 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1466,11 +1470,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Quyên</t>
+          <t>Võ Thị Thuỳ Trang</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1483,7 +1487,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0777891306</t>
+          <t>0939293038</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1493,7 +1497,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>8000000</v>
+        <v>2400000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1506,11 +1510,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc</t>
+          <t>Phạm Thị Trúc Lài</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1531,7 +1535,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1544,11 +1548,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Trần Thị Ngọc Dung</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1559,10 +1563,8 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0988903782</t>
-        </is>
+      <c r="F29" t="n">
+        <v/>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1571,7 +1573,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>1300000</v>
+        <v>9000000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1584,11 +1586,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Bé</t>
+          <t>Trần Thị Thanh Nhàn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1601,7 +1603,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0981499994</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1611,7 +1613,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>1000000</v>
+        <v>28000000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1624,11 +1626,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Yến Phương</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1641,7 +1643,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0908896604</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1651,7 +1653,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1664,11 +1666,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Phan Thị Út</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1681,7 +1683,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0779841025</t>
+          <t>0777891306</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1691,7 +1693,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>1500000</v>
+        <v>8000000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1704,11 +1706,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1719,10 +1721,8 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0988903782</t>
-        </is>
+      <c r="F33" t="n">
+        <v/>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1731,7 +1731,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>200000</v>
+        <v>3000000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1744,11 +1744,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1759,8 +1759,10 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="n">
-        <v/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0988903782</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1769,7 +1771,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>6000000</v>
+        <v>1300000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1782,11 +1784,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1799,7 +1801,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0919972597</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1809,7 +1811,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>19000000</v>
+        <v>1000000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1822,11 +1824,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1839,7 +1841,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0766931276</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1849,7 +1851,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>20000000</v>
+        <v>500000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1862,11 +1864,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1879,7 +1881,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0779841025</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1889,7 +1891,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>21000000</v>
+        <v>1500000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1902,11 +1904,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1919,7 +1921,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1929,7 +1931,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>1500000</v>
+        <v>200000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1942,11 +1944,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1957,10 +1959,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0901372461</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1969,7 +1969,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>3150000</v>
+        <v>6000000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1982,11 +1982,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2009,7 +2009,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>5000000</v>
+        <v>19000000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2022,11 +2022,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2049,7 +2049,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>25000000</v>
+        <v>20000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2062,11 +2062,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2089,7 +2089,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>2000000</v>
+        <v>21000000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2102,11 +2102,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2129,7 +2129,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>22900000</v>
+        <v>1500000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2142,11 +2142,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2169,7 +2169,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>1050000</v>
+        <v>3150000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2209,7 +2209,7 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>1800000</v>
+        <v>5000000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2222,11 +2222,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2249,7 +2249,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>18000000</v>
+        <v>25000000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2262,11 +2262,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2289,7 +2289,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>35000000</v>
+        <v>2000000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2329,7 +2329,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>1300000</v>
+        <v>22900000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2342,11 +2342,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2369,7 +2369,7 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>1500000</v>
+        <v>1050000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2382,11 +2382,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2409,7 +2409,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>24800000</v>
+        <v>1800000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2422,11 +2422,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2449,10 +2449,10 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="J51" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2462,11 +2462,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2489,7 +2489,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>1500000</v>
+        <v>35000000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2529,7 +2529,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>2800000</v>
+        <v>1300000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2542,11 +2542,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2569,7 +2569,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2582,11 +2582,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2609,10 +2609,10 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>12000000</v>
+        <v>24800000</v>
       </c>
       <c r="J55" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2622,11 +2622,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2649,10 +2649,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="57">
@@ -2662,11 +2662,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2689,7 +2689,7 @@
         <v/>
       </c>
       <c r="I57" t="n">
-        <v>2600000</v>
+        <v>1500000</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2702,11 +2702,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2729,7 +2729,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>1500000</v>
+        <v>2800000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2742,11 +2742,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2769,7 +2769,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>3700000</v>
+        <v>3000000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2782,11 +2782,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2809,10 +2809,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="J60" t="n">
         <v>6000000</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2822,11 +2822,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2849,7 +2849,7 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>17730000</v>
+        <v>900000</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -2862,11 +2862,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2889,7 +2889,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>14000000</v>
+        <v>2600000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2902,11 +2902,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2929,7 +2929,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2942,11 +2942,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2957,8 +2957,10 @@
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="n">
-        <v/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -2967,7 +2969,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>1500000</v>
+        <v>3700000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2980,11 +2982,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2997,7 +2999,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3007,7 +3009,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3020,11 +3022,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3035,8 +3037,10 @@
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="n">
-        <v/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0971073757</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -3045,7 +3049,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>1500000</v>
+        <v>17730000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3058,11 +3062,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3075,7 +3079,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3085,7 +3089,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>15000000</v>
+        <v>14000000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3098,11 +3102,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3115,7 +3119,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0347433400</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3125,7 +3129,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>21000000</v>
+        <v>2000000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3138,11 +3142,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3153,10 +3157,8 @@
       <c r="E69" t="n">
         <v/>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0865677896</t>
-        </is>
+      <c r="F69" t="n">
+        <v/>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -3165,7 +3167,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>20500000</v>
+        <v>1500000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3178,11 +3180,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3193,8 +3195,10 @@
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="n">
-        <v/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -3203,7 +3207,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3216,11 +3220,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3231,10 +3235,8 @@
       <c r="E71" t="n">
         <v/>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F71" t="n">
+        <v/>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -3243,7 +3245,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3256,11 +3258,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3273,7 +3275,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3283,7 +3285,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>2000000</v>
+        <v>15000000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3296,11 +3298,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3313,7 +3315,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0347433400</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3323,7 +3325,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>2000000</v>
+        <v>21000000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3336,11 +3338,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3353,7 +3355,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3363,7 +3365,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>1000000</v>
+        <v>20500000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3376,11 +3378,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3391,10 +3393,8 @@
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0918667208</t>
-        </is>
+      <c r="F75" t="n">
+        <v/>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -3403,7 +3403,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>15000000</v>
+        <v>900000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3416,11 +3416,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3443,7 +3443,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3483,7 +3483,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3496,11 +3496,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3523,7 +3523,7 @@
         <v/>
       </c>
       <c r="I78" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3536,11 +3536,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3563,7 +3563,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>30000000</v>
+        <v>1000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3576,11 +3576,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3603,7 +3603,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>53000000</v>
+        <v>15000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3616,11 +3616,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3643,7 +3643,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>27500000</v>
+        <v>1500000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3656,11 +3656,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3671,8 +3671,10 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0974646251</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3681,7 +3683,7 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3694,11 +3696,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3711,7 +3713,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3721,7 +3723,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3734,11 +3736,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3751,7 +3753,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3761,7 +3763,7 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>2500000</v>
+        <v>30000000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3774,11 +3776,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3791,7 +3793,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3801,7 +3803,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>9000000</v>
+        <v>53000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3814,11 +3816,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3831,7 +3833,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3841,7 +3843,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>35000000</v>
+        <v>27500000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3854,11 +3856,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3879,7 +3881,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>30000000</v>
+        <v>2000000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3892,11 +3894,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3909,7 +3911,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3919,7 +3921,7 @@
         <v/>
       </c>
       <c r="I88" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3932,11 +3934,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3949,7 +3951,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3959,7 +3961,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>31500000</v>
+        <v>2500000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3972,11 +3974,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3989,7 +3991,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3999,7 +4001,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>45000000</v>
+        <v>9000000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4012,11 +4014,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4029,7 +4031,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4039,7 +4041,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>5000000</v>
+        <v>35000000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4052,11 +4054,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4067,10 +4069,8 @@
       <c r="E92" t="n">
         <v/>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>0968119924</t>
-        </is>
+      <c r="F92" t="n">
+        <v/>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -4079,7 +4079,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4092,11 +4092,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4119,7 +4119,7 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>1900000</v>
+        <v>4000000</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -4132,11 +4132,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4159,7 +4159,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>27300000</v>
+        <v>31500000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4172,11 +4172,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4199,10 +4199,10 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>7000000</v>
+        <v>45000000</v>
       </c>
       <c r="J95" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4212,11 +4212,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4239,7 +4239,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>28000000</v>
+        <v>5000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4252,11 +4252,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4279,7 +4279,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>13000000</v>
+        <v>35000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4292,11 +4292,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4319,7 +4319,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>33000000</v>
+        <v>1900000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4332,11 +4332,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4359,7 +4359,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>20000000</v>
+        <v>27300000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4372,11 +4372,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4399,10 +4399,10 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>19000000</v>
+        <v>8000000</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="101">
@@ -4412,11 +4412,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4439,10 +4439,10 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>15000000</v>
+        <v>28000000</v>
       </c>
       <c r="J101" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4452,11 +4452,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4479,7 +4479,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>33000000</v>
+        <v>13000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4492,11 +4492,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4519,7 +4519,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>38000000</v>
+        <v>33000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4532,11 +4532,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4559,7 +4559,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>6000000</v>
+        <v>20000000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4572,11 +4572,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4599,7 +4599,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>17000000</v>
+        <v>19000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4612,11 +4612,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4639,10 +4639,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>19000000</v>
+        <v>15000000</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="107">
@@ -4652,11 +4652,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -4679,10 +4679,10 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>18000000</v>
+        <v>33000000</v>
       </c>
       <c r="J107" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4692,11 +4692,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4707,8 +4707,10 @@
       <c r="E108" t="n">
         <v/>
       </c>
-      <c r="F108" t="n">
-        <v/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0703145712</t>
+        </is>
       </c>
       <c r="G108" t="n">
         <v/>
@@ -4717,7 +4719,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>23500000</v>
+        <v>38000000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4730,11 +4732,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4745,8 +4747,10 @@
       <c r="E109" t="n">
         <v/>
       </c>
-      <c r="F109" t="n">
-        <v/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G109" t="n">
         <v/>
@@ -4755,10 +4759,10 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="J109" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4768,11 +4772,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4783,8 +4787,10 @@
       <c r="E110" t="n">
         <v/>
       </c>
-      <c r="F110" t="n">
-        <v/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G110" t="n">
         <v/>
@@ -4793,7 +4799,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>33500000</v>
+        <v>17000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4806,11 +4812,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4821,8 +4827,10 @@
       <c r="E111" t="n">
         <v/>
       </c>
-      <c r="F111" t="n">
-        <v/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G111" t="n">
         <v/>
@@ -4831,7 +4839,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>27500000</v>
+        <v>19000000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4844,11 +4852,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4859,8 +4867,10 @@
       <c r="E112" t="n">
         <v/>
       </c>
-      <c r="F112" t="n">
-        <v/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G112" t="n">
         <v/>
@@ -4869,10 +4879,10 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>27500000</v>
+        <v>18000000</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="113">
@@ -4882,11 +4892,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4907,7 +4917,7 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>5000000</v>
+        <v>23500000</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4920,11 +4930,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4945,10 +4955,10 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>17500000</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="115">
@@ -4958,11 +4968,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4983,7 +4993,7 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>2000000</v>
+        <v>33500000</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4996,11 +5006,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5021,7 +5031,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>1800000</v>
+        <v>27500000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5034,11 +5044,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5059,7 +5069,7 @@
         <v/>
       </c>
       <c r="I117" t="n">
-        <v>5000000</v>
+        <v>27500000</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -5072,11 +5082,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5097,7 +5107,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5110,11 +5120,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5135,7 +5145,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>57000000</v>
+        <v>17500000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5148,11 +5158,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5173,7 +5183,7 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5186,11 +5196,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5211,7 +5221,7 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -5224,11 +5234,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5249,7 +5259,7 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>19000000</v>
+        <v>5000000</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -5262,11 +5272,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5277,10 +5287,8 @@
       <c r="E123" t="n">
         <v/>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F123" t="n">
+        <v/>
       </c>
       <c r="G123" t="n">
         <v/>
@@ -5289,7 +5297,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>33500000</v>
+        <v>10000000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5302,11 +5310,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5317,10 +5325,8 @@
       <c r="E124" t="n">
         <v/>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F124" t="n">
+        <v/>
       </c>
       <c r="G124" t="n">
         <v/>
@@ -5329,7 +5335,7 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>30000000</v>
+        <v>57000000</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -5342,11 +5348,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5367,7 +5373,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>22000000</v>
+        <v>5000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5380,11 +5386,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5405,7 +5411,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>13000000</v>
+        <v>2000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5418,11 +5424,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5443,10 +5449,10 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>14600000</v>
+        <v>19000000</v>
       </c>
       <c r="J127" t="n">
-        <v>10400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5456,11 +5462,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5469,11 +5475,11 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>89197014107</v>
+        <v/>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0822323252</t>
+          <t>0329634779</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5483,10 +5489,10 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>44000000</v>
+        <v>33500000</v>
       </c>
       <c r="J128" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5496,11 +5502,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5511,8 +5517,10 @@
       <c r="E129" t="n">
         <v/>
       </c>
-      <c r="F129" t="n">
-        <v/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G129" t="n">
         <v/>
@@ -5521,7 +5529,7 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>1200000</v>
+        <v>30000000</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5534,11 +5542,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5559,7 +5567,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>24700000</v>
+        <v>22000000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5572,11 +5580,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5597,7 +5605,7 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>25000000</v>
+        <v>13000000</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5610,11 +5618,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5635,10 +5643,10 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>4000000</v>
+        <v>18800000</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>6200000</v>
       </c>
     </row>
     <row r="133">
@@ -5648,11 +5656,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5661,10 +5669,12 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v/>
-      </c>
-      <c r="F133" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G133" t="n">
         <v/>
@@ -5673,10 +5683,10 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>4000000</v>
+        <v>44000000</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="134">
@@ -5686,11 +5696,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5711,7 +5721,7 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>20000000</v>
+        <v>1200000</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -5724,11 +5734,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5749,7 +5759,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>35000000</v>
+        <v>24700000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5762,11 +5772,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5787,7 +5797,7 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -5800,11 +5810,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5825,10 +5835,10 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="J137" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5838,11 +5848,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5863,7 +5873,7 @@
         <v/>
       </c>
       <c r="I138" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -5876,11 +5886,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5891,10 +5901,8 @@
       <c r="E139" t="n">
         <v/>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F139" t="n">
+        <v/>
       </c>
       <c r="G139" t="n">
         <v/>
@@ -5903,10 +5911,10 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>19000000</v>
+        <v>20000000</v>
       </c>
       <c r="J139" t="n">
-        <v>19000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -5916,11 +5924,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5941,7 +5949,7 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>12000000</v>
+        <v>35000000</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -5954,11 +5962,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5979,7 +5987,7 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>18000000</v>
+        <v>5000000</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -5992,11 +6000,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6017,10 +6025,10 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>1200000</v>
+        <v>6000000</v>
       </c>
       <c r="J142" t="n">
-        <v>300000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="143">
@@ -6030,11 +6038,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6055,7 +6063,7 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -6068,11 +6076,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6083,8 +6091,10 @@
       <c r="E144" t="n">
         <v/>
       </c>
-      <c r="F144" t="n">
-        <v/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G144" t="n">
         <v/>
@@ -6093,10 +6103,10 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>10300000</v>
+        <v>22000000</v>
       </c>
       <c r="J144" t="n">
-        <v>23500000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="145">
@@ -6106,11 +6116,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6131,7 +6141,7 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -6144,11 +6154,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6159,10 +6169,8 @@
       <c r="E146" t="n">
         <v/>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F146" t="n">
+        <v/>
       </c>
       <c r="G146" t="n">
         <v/>
@@ -6171,10 +6179,10 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>16500000</v>
+        <v>18000000</v>
       </c>
       <c r="J146" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6184,11 +6192,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6209,10 +6217,10 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>43000000</v>
+        <v>1200000</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="148">
@@ -6222,11 +6230,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6247,7 +6255,7 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -6260,11 +6268,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6285,10 +6293,10 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>2000000</v>
+        <v>10300000</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="150">
@@ -6298,11 +6306,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6323,7 +6331,7 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -6336,11 +6344,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6351,8 +6359,10 @@
       <c r="E151" t="n">
         <v/>
       </c>
-      <c r="F151" t="n">
-        <v/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G151" t="n">
         <v/>
@@ -6361,10 +6371,10 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>2000000</v>
+        <v>16500000</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="152">
@@ -6374,11 +6384,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6399,7 +6409,7 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>3000000</v>
+        <v>43000000</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -6412,11 +6422,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6437,7 +6447,7 @@
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -6450,11 +6460,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6475,7 +6485,7 @@
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -6488,11 +6498,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6513,7 +6523,7 @@
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>1000000</v>
+        <v>4500000</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -6526,11 +6536,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6551,7 +6561,7 @@
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -6564,11 +6574,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6589,7 +6599,7 @@
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>8000000</v>
+        <v>3000000</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -6602,11 +6612,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6627,7 +6637,7 @@
         <v/>
       </c>
       <c r="I158" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -6640,11 +6650,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6665,7 +6675,7 @@
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>15000000</v>
+        <v>2500000</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6678,11 +6688,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6693,10 +6703,8 @@
       <c r="E160" t="n">
         <v/>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F160" t="n">
+        <v/>
       </c>
       <c r="G160" t="n">
         <v/>
@@ -6705,10 +6713,10 @@
         <v/>
       </c>
       <c r="I160" t="n">
-        <v>4500000</v>
+        <v>1000000</v>
       </c>
       <c r="J160" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6718,11 +6726,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6743,7 +6751,7 @@
         <v/>
       </c>
       <c r="I161" t="n">
-        <v>20000000</v>
+        <v>8000000</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -6756,11 +6764,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6781,7 +6789,7 @@
         <v/>
       </c>
       <c r="I162" t="n">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -6794,11 +6802,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6819,7 +6827,7 @@
         <v/>
       </c>
       <c r="I163" t="n">
-        <v>1500000</v>
+        <v>1200000</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -6832,11 +6840,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6857,7 +6865,7 @@
         <v/>
       </c>
       <c r="I164" t="n">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -6870,11 +6878,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6885,8 +6893,10 @@
       <c r="E165" t="n">
         <v/>
       </c>
-      <c r="F165" t="n">
-        <v/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G165" t="n">
         <v/>
@@ -6895,10 +6905,10 @@
         <v/>
       </c>
       <c r="I165" t="n">
-        <v>11000000</v>
+        <v>4500000</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="166">
@@ -6908,11 +6918,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6933,7 +6943,7 @@
         <v/>
       </c>
       <c r="I166" t="n">
-        <v>11000000</v>
+        <v>20000000</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -6946,11 +6956,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6971,7 +6981,7 @@
         <v/>
       </c>
       <c r="I167" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -6984,11 +6994,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7009,7 +7019,7 @@
         <v/>
       </c>
       <c r="I168" t="n">
-        <v>27000000</v>
+        <v>1500000</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -7022,11 +7032,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7047,7 +7057,7 @@
         <v/>
       </c>
       <c r="I169" t="n">
-        <v>14000000</v>
+        <v>10000000</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -7060,11 +7070,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7085,7 +7095,7 @@
         <v/>
       </c>
       <c r="I170" t="n">
-        <v>4000000</v>
+        <v>11000000</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -7098,11 +7108,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7123,7 +7133,7 @@
         <v/>
       </c>
       <c r="I171" t="n">
-        <v>6000000</v>
+        <v>11000000</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -7136,11 +7146,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7161,7 +7171,7 @@
         <v/>
       </c>
       <c r="I172" t="n">
-        <v>30000000</v>
+        <v>7000000</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -7174,11 +7184,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7199,7 +7209,7 @@
         <v/>
       </c>
       <c r="I173" t="n">
-        <v>18000000</v>
+        <v>27000000</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -7212,11 +7222,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7237,7 +7247,7 @@
         <v/>
       </c>
       <c r="I174" t="n">
-        <v>12000000</v>
+        <v>14000000</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -7250,11 +7260,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7275,7 +7285,7 @@
         <v/>
       </c>
       <c r="I175" t="n">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -7288,11 +7298,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7313,7 +7323,7 @@
         <v/>
       </c>
       <c r="I176" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -7326,11 +7336,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7351,7 +7361,7 @@
         <v/>
       </c>
       <c r="I177" t="n">
-        <v>2000000</v>
+        <v>30000000</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -7364,11 +7374,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7389,7 +7399,7 @@
         <v/>
       </c>
       <c r="I178" t="n">
-        <v>2700000</v>
+        <v>18000000</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -7402,11 +7412,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7427,7 +7437,7 @@
         <v/>
       </c>
       <c r="I179" t="n">
-        <v>27500000</v>
+        <v>12000000</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -7440,11 +7450,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7465,7 +7475,7 @@
         <v/>
       </c>
       <c r="I180" t="n">
-        <v>18000000</v>
+        <v>12000000</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -7478,11 +7488,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -7503,7 +7513,7 @@
         <v/>
       </c>
       <c r="I181" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -7516,11 +7526,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7541,7 +7551,7 @@
         <v/>
       </c>
       <c r="I182" t="n">
-        <v>34200000</v>
+        <v>2000000</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -7554,11 +7564,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7579,7 +7589,7 @@
         <v/>
       </c>
       <c r="I183" t="n">
-        <v>4000000</v>
+        <v>2700000</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -7592,36 +7602,226 @@
         </is>
       </c>
       <c r="B184" t="n">
+        <v>46</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ngọc Tuyền </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v/>
+      </c>
+      <c r="F184" t="n">
+        <v/>
+      </c>
+      <c r="G184" t="n">
+        <v/>
+      </c>
+      <c r="H184" t="n">
+        <v/>
+      </c>
+      <c r="I184" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>45</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v/>
+      </c>
+      <c r="F185" t="n">
+        <v/>
+      </c>
+      <c r="G185" t="n">
+        <v/>
+      </c>
+      <c r="H185" t="n">
+        <v/>
+      </c>
+      <c r="I185" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>44</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v/>
+      </c>
+      <c r="F186" t="n">
+        <v/>
+      </c>
+      <c r="G186" t="n">
+        <v/>
+      </c>
+      <c r="H186" t="n">
+        <v/>
+      </c>
+      <c r="I186" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>43</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v/>
+      </c>
+      <c r="F187" t="n">
+        <v/>
+      </c>
+      <c r="G187" t="n">
+        <v/>
+      </c>
+      <c r="H187" t="n">
+        <v/>
+      </c>
+      <c r="I187" t="n">
+        <v>34200000</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>42</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v/>
+      </c>
+      <c r="F188" t="n">
+        <v/>
+      </c>
+      <c r="G188" t="n">
+        <v/>
+      </c>
+      <c r="H188" t="n">
+        <v/>
+      </c>
+      <c r="I188" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
         <v>41</v>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v/>
-      </c>
-      <c r="F184" t="inlineStr">
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v/>
+      </c>
+      <c r="F189" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G184" t="n">
-        <v/>
-      </c>
-      <c r="H184" t="n">
-        <v/>
-      </c>
-      <c r="I184" t="n">
+      <c r="G189" t="n">
+        <v/>
+      </c>
+      <c r="H189" t="n">
+        <v/>
+      </c>
+      <c r="I189" t="n">
         <v>18000000</v>
       </c>
-      <c r="J184" t="n">
+      <c r="J189" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ngô Thị Trúc Mỹ</t>
+          <t>Nguyễn Ngọc Hân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0339950712</t>
+          <t>0587025000</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>4800000</v>
+        <v>8500000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Ngọc Thượng</t>
+          <t>Ngô Thị Trúc Mỹ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0762558484</t>
+          <t>0339950712</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,7 +547,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>2000000</v>
+        <v>4800000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Thị My Sa</t>
+          <t>Nguyễn Thị Ngọc Thượng</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0901799807</t>
+          <t>0762558484</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,7 +587,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>25500000</v>
+        <v>2000000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -600,11 +600,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lâm Tuyết Nghi</t>
+          <t>Nguyễn Thị My Sa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0911502345</t>
+          <t>0901799807</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,7 +627,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1400000</v>
+        <v>25500000</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lê Ngọc Huệ</t>
+          <t>Lâm Tuyết Nghi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0775151789</t>
+          <t>0911502345</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,7 +667,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>4550000</v>
+        <v>1400000</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -680,11 +680,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Phan Thị Diễm My</t>
+          <t>Lê Ngọc Huệ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0898814050</t>
+          <t>0775151789</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,7 +707,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>25500000</v>
+        <v>4550000</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -720,11 +720,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Yến Nhi</t>
+          <t>Phan Thị Diễm My</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0978942740</t>
+          <t>0898814050</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -747,7 +747,7 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>19500000</v>
+        <v>25500000</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -760,11 +760,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Đặng Thị Hồng Hạnh</t>
+          <t>Nguyễn Yến Nhi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0342841309</t>
+          <t>0978942740</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -787,7 +787,7 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>3000000</v>
+        <v>19500000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -800,11 +800,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thoa</t>
+          <t>Đặng Thị Hồng Hạnh</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09651666555</t>
+          <t>0342841309</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -827,7 +827,7 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>1800000</v>
+        <v>3000000</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -840,11 +840,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Như Ý</t>
+          <t>Nguyễn Thị Thoa</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0966680674</t>
+          <t>09651666555</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -867,10 +867,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>27000000</v>
+        <v>1800000</v>
       </c>
       <c r="J11" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -880,11 +880,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nguyễn Đặng Thảo Nhi</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0358588022</t>
+          <t>0966680674</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -907,10 +907,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>2800000</v>
+        <v>27000000</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="13">
@@ -920,11 +920,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Ngọc Tâm</t>
+          <t>Nguyễn Đặng Thảo Nhi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0927644696</t>
+          <t>0358588022</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -947,7 +947,7 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>3700000</v>
+        <v>2800000</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Đoàn Minh Thư</t>
+          <t>Nguyễn Thị Ngọc Tâm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0368615610</t>
+          <t>0927644696</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -987,7 +987,7 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1500000</v>
+        <v>3700000</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1000,11 +1000,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hồ Minh Trường</t>
+          <t>Đoàn Minh Thư</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1015,8 +1015,10 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0368615610</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1025,7 +1027,7 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>23300000</v>
+        <v>1500000</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1038,11 +1040,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chị Sa</t>
+          <t>Hồ Minh Trường</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1063,7 +1065,7 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>26000000</v>
+        <v>23300000</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1076,11 +1078,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lê Thị Bích Liên</t>
+          <t>Chị Sa</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1091,10 +1093,8 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0939365840</t>
-        </is>
+      <c r="F17" t="n">
+        <v/>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -1103,7 +1103,7 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>8000000</v>
+        <v>26000000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Phan Thuỵ</t>
+          <t>Lê Thị Bích Liên</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0363459594</t>
+          <t>0939365840</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1143,7 +1143,7 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>1200000</v>
+        <v>8000000</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1156,11 +1156,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ngọc</t>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0939597583</t>
+          <t>0363459594</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1183,7 +1183,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1196,11 +1196,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Huyền Trân</t>
+          <t>Nguyễn Như Ngọc</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1211,8 +1211,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0939597583</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1221,7 +1223,7 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1234,11 +1236,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bé Su</t>
+          <t>Huyền Trân</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1249,10 +1251,8 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0369845277</t>
-        </is>
+      <c r="F21" t="n">
+        <v/>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1261,7 +1261,7 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1274,11 +1274,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Huyền Trang</t>
+          <t>Bé Su</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0931088891</t>
+          <t>0369845277</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1301,7 +1301,7 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>4000000</v>
+        <v>5400000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1314,11 +1314,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Trần Thị Nhi</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0941047740</t>
+          <t>0931088891</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1341,7 +1341,7 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1354,11 +1354,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1369,8 +1369,10 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0941047740</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1379,7 +1381,7 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1392,11 +1394,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1417,10 +1419,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="J25" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1430,11 +1432,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thắm</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1445,10 +1447,8 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0978886601</t>
-        </is>
+      <c r="F26" t="n">
+        <v/>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1457,10 +1457,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="27">
@@ -1470,11 +1470,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Võ Thị Thuỳ Trang</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0939293038</t>
+          <t>0978886601</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1497,7 +1497,7 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>2400000</v>
+        <v>2000000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1510,11 +1510,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Phạm Thị Trúc Lài</t>
+          <t>Võ Thị Thuỳ Trang</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1525,8 +1525,10 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="n">
-        <v/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0939293038</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1535,7 +1537,7 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>1000000</v>
+        <v>2400000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1548,11 +1550,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc Dung</t>
+          <t>Phạm Thị Trúc Lài</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1573,7 +1575,7 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>9000000</v>
+        <v>1000000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1586,11 +1588,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Trần Thị Thanh Nhàn</t>
+          <t>Trần Thị Ngọc Dung</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1601,10 +1603,8 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0981499994</t>
-        </is>
+      <c r="F30" t="n">
+        <v/>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1613,7 +1613,7 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>28000000</v>
+        <v>9000000</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1626,11 +1626,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Phạm Thị Thu Hà</t>
+          <t>Trần Thị Thanh Nhàn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0908896604</t>
+          <t>0981499994</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1653,7 +1653,7 @@
         <v/>
       </c>
       <c r="I31" t="n">
-        <v>1500000</v>
+        <v>28000000</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1666,11 +1666,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Quyên</t>
+          <t>Phạm Thị Thu Hà</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0777891306</t>
+          <t>0908896604</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1693,7 +1693,7 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1706,11 +1706,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Trần Thị Ngọc</t>
+          <t>Nguyễn Thị Kim Quyên</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1721,8 +1721,10 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0777891306</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1731,7 +1733,7 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1744,11 +1746,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Trần Thị Ngọc</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1759,10 +1761,8 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0988903782</t>
-        </is>
+      <c r="F34" t="n">
+        <v/>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1771,7 +1771,7 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>1300000</v>
+        <v>3000000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1784,11 +1784,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Bé</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0907234326</t>
+          <t>0988903782</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1811,7 +1811,7 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1824,11 +1824,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Yến Phương</t>
+          <t>Nguyễn Thị Bé</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1851,7 +1851,7 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1864,11 +1864,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Phan Thị Út</t>
+          <t>Nguyễn Thị Yến Phương</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0779841025</t>
+          <t>0907234326</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1891,7 +1891,7 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1904,11 +1904,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Thị Minh</t>
+          <t>Phan Thị Út</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0988903782</t>
+          <t>0779841025</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1931,7 +1931,7 @@
         <v/>
       </c>
       <c r="I38" t="n">
-        <v>200000</v>
+        <v>1500000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1944,11 +1944,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Huỳnh Huyền Trân</t>
+          <t>Thị Minh</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1959,8 +1959,10 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0988903782</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1969,7 +1971,7 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>6000000</v>
+        <v>200000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1982,11 +1984,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Trần Thị Lệ</t>
+          <t>Huỳnh Huyền Trân</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1997,10 +1999,8 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0919972597</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -2009,7 +2009,7 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>19000000</v>
+        <v>6000000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2022,11 +2022,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Trần Thị Lệ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0766931276</t>
+          <t>0919972597</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2049,7 +2049,7 @@
         <v/>
       </c>
       <c r="I41" t="n">
-        <v>20000000</v>
+        <v>19000000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2062,11 +2062,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Trần Ái Mỹ</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0372525624</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2089,7 +2089,7 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>21000000</v>
+        <v>20000000</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2102,11 +2102,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nguyễn Kim Hoàng</t>
+          <t>Trần Ái Mỹ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0702919070</t>
+          <t>0372525624</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2129,7 +2129,7 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>1500000</v>
+        <v>21000000</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2142,11 +2142,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Mỹ Duyên</t>
+          <t>Nguyễn Kim Hoàng</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0901372461</t>
+          <t>0702919070</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2169,7 +2169,7 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>3150000</v>
+        <v>1500000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phương</t>
+          <t>Nguyễn Thị Mỹ Duyên</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0962101850</t>
+          <t>0901372461</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2209,7 +2209,7 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>5000000</v>
+        <v>3150000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2222,11 +2222,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan Anh</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0564820827</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2249,7 +2249,7 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2262,11 +2262,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2289,7 +2289,7 @@
         <v/>
       </c>
       <c r="I47" t="n">
-        <v>2000000</v>
+        <v>25000000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2329,7 +2329,7 @@
         <v/>
       </c>
       <c r="I48" t="n">
-        <v>22900000</v>
+        <v>2000000</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2342,11 +2342,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2369,7 +2369,7 @@
         <v/>
       </c>
       <c r="I49" t="n">
-        <v>1050000</v>
+        <v>22900000</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2382,11 +2382,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2409,7 +2409,7 @@
         <v/>
       </c>
       <c r="I50" t="n">
-        <v>1800000</v>
+        <v>1050000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2422,11 +2422,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2449,7 +2449,7 @@
         <v/>
       </c>
       <c r="I51" t="n">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2462,11 +2462,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2489,7 +2489,7 @@
         <v/>
       </c>
       <c r="I52" t="n">
-        <v>35000000</v>
+        <v>18000000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2529,7 +2529,7 @@
         <v/>
       </c>
       <c r="I53" t="n">
-        <v>1300000</v>
+        <v>35000000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2542,11 +2542,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2569,7 +2569,7 @@
         <v/>
       </c>
       <c r="I54" t="n">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2582,11 +2582,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2609,7 +2609,7 @@
         <v/>
       </c>
       <c r="I55" t="n">
-        <v>24800000</v>
+        <v>1500000</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2622,11 +2622,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2649,10 +2649,10 @@
         <v/>
       </c>
       <c r="I56" t="n">
-        <v>1500000</v>
+        <v>24800000</v>
       </c>
       <c r="J56" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2662,11 +2662,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2692,7 +2692,7 @@
         <v>1500000</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="58">
@@ -2702,11 +2702,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2729,7 +2729,7 @@
         <v/>
       </c>
       <c r="I58" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2742,11 +2742,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2769,7 +2769,7 @@
         <v/>
       </c>
       <c r="I59" t="n">
-        <v>3000000</v>
+        <v>2800000</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2782,11 +2782,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2809,10 +2809,10 @@
         <v/>
       </c>
       <c r="I60" t="n">
-        <v>12000000</v>
+        <v>3000000</v>
       </c>
       <c r="J60" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2822,11 +2822,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2849,10 +2849,10 @@
         <v/>
       </c>
       <c r="I61" t="n">
-        <v>900000</v>
+        <v>12000000</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="62">
@@ -2862,11 +2862,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2889,7 +2889,7 @@
         <v/>
       </c>
       <c r="I62" t="n">
-        <v>2600000</v>
+        <v>900000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2902,11 +2902,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2929,7 +2929,7 @@
         <v/>
       </c>
       <c r="I63" t="n">
-        <v>1500000</v>
+        <v>2600000</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2942,11 +2942,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2969,7 +2969,7 @@
         <v/>
       </c>
       <c r="I64" t="n">
-        <v>3700000</v>
+        <v>1500000</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2982,11 +2982,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3009,7 +3009,7 @@
         <v/>
       </c>
       <c r="I65" t="n">
-        <v>6000000</v>
+        <v>3700000</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3022,11 +3022,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3049,7 +3049,7 @@
         <v/>
       </c>
       <c r="I66" t="n">
-        <v>17730000</v>
+        <v>6000000</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3062,11 +3062,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3089,7 +3089,7 @@
         <v/>
       </c>
       <c r="I67" t="n">
-        <v>14000000</v>
+        <v>17730000</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3102,11 +3102,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3129,7 +3129,7 @@
         <v/>
       </c>
       <c r="I68" t="n">
-        <v>2000000</v>
+        <v>14000000</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3142,11 +3142,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3157,8 +3157,10 @@
       <c r="E69" t="n">
         <v/>
       </c>
-      <c r="F69" t="n">
-        <v/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -3167,7 +3169,7 @@
         <v/>
       </c>
       <c r="I69" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3180,11 +3182,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3195,10 +3197,8 @@
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0788716689</t>
-        </is>
+      <c r="F70" t="n">
+        <v/>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -3207,7 +3207,7 @@
         <v/>
       </c>
       <c r="I70" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3220,11 +3220,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3235,8 +3235,10 @@
       <c r="E71" t="n">
         <v/>
       </c>
-      <c r="F71" t="n">
-        <v/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -3245,7 +3247,7 @@
         <v/>
       </c>
       <c r="I71" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3258,11 +3260,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3273,10 +3275,8 @@
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F72" t="n">
+        <v/>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -3285,7 +3285,7 @@
         <v/>
       </c>
       <c r="I72" t="n">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3298,11 +3298,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0347433400</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3325,7 +3325,7 @@
         <v/>
       </c>
       <c r="I73" t="n">
-        <v>21000000</v>
+        <v>15000000</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3338,11 +3338,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0347433400</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3365,7 +3365,7 @@
         <v/>
       </c>
       <c r="I74" t="n">
-        <v>20500000</v>
+        <v>21000000</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3378,11 +3378,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3393,8 +3393,10 @@
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="n">
-        <v/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0865677896</t>
+        </is>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -3403,7 +3405,7 @@
         <v/>
       </c>
       <c r="I75" t="n">
-        <v>900000</v>
+        <v>20500000</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3416,11 +3418,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3431,10 +3433,8 @@
       <c r="E76" t="n">
         <v/>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F76" t="n">
+        <v/>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -3443,7 +3443,7 @@
         <v/>
       </c>
       <c r="I76" t="n">
-        <v>2500000</v>
+        <v>900000</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3483,7 +3483,7 @@
         <v/>
       </c>
       <c r="I77" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3496,11 +3496,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3536,11 +3536,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3563,7 +3563,7 @@
         <v/>
       </c>
       <c r="I79" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3576,11 +3576,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3603,7 +3603,7 @@
         <v/>
       </c>
       <c r="I80" t="n">
-        <v>15000000</v>
+        <v>1000000</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3616,11 +3616,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3643,7 +3643,7 @@
         <v/>
       </c>
       <c r="I81" t="n">
-        <v>1500000</v>
+        <v>15000000</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3656,11 +3656,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3683,7 +3683,7 @@
         <v/>
       </c>
       <c r="I82" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3696,11 +3696,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3723,7 +3723,7 @@
         <v/>
       </c>
       <c r="I83" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3736,11 +3736,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3763,7 +3763,7 @@
         <v/>
       </c>
       <c r="I84" t="n">
-        <v>30000000</v>
+        <v>2500000</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3776,11 +3776,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3803,7 +3803,7 @@
         <v/>
       </c>
       <c r="I85" t="n">
-        <v>53000000</v>
+        <v>30000000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3816,11 +3816,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3843,7 +3843,7 @@
         <v/>
       </c>
       <c r="I86" t="n">
-        <v>27500000</v>
+        <v>53000000</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -3856,11 +3856,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3871,8 +3871,10 @@
       <c r="E87" t="n">
         <v/>
       </c>
-      <c r="F87" t="n">
-        <v/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0845450305</t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -3881,7 +3883,7 @@
         <v/>
       </c>
       <c r="I87" t="n">
-        <v>2000000</v>
+        <v>27500000</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3894,11 +3896,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3909,10 +3911,8 @@
       <c r="E88" t="n">
         <v/>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>0772155826</t>
-        </is>
+      <c r="F88" t="n">
+        <v/>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3934,11 +3934,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3961,7 +3961,7 @@
         <v/>
       </c>
       <c r="I89" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3974,11 +3974,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4001,7 +4001,7 @@
         <v/>
       </c>
       <c r="I90" t="n">
-        <v>9000000</v>
+        <v>2500000</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4014,11 +4014,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4041,7 +4041,7 @@
         <v/>
       </c>
       <c r="I91" t="n">
-        <v>35000000</v>
+        <v>9000000</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4054,11 +4054,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4069,8 +4069,10 @@
       <c r="E92" t="n">
         <v/>
       </c>
-      <c r="F92" t="n">
-        <v/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0918877304</t>
+        </is>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -4079,7 +4081,7 @@
         <v/>
       </c>
       <c r="I92" t="n">
-        <v>30000000</v>
+        <v>35000000</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4092,11 +4094,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4107,10 +4109,8 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>0949625783</t>
-        </is>
+      <c r="F93" t="n">
+        <v/>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -4119,7 +4119,7 @@
         <v/>
       </c>
       <c r="I93" t="n">
-        <v>4000000</v>
+        <v>30000000</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -4132,11 +4132,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4159,7 +4159,7 @@
         <v/>
       </c>
       <c r="I94" t="n">
-        <v>31500000</v>
+        <v>4000000</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4172,11 +4172,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4199,7 +4199,7 @@
         <v/>
       </c>
       <c r="I95" t="n">
-        <v>45000000</v>
+        <v>31500000</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -4212,11 +4212,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4239,7 +4239,7 @@
         <v/>
       </c>
       <c r="I96" t="n">
-        <v>5000000</v>
+        <v>45000000</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4252,11 +4252,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4279,7 +4279,7 @@
         <v/>
       </c>
       <c r="I97" t="n">
-        <v>35000000</v>
+        <v>5000000</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4292,11 +4292,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4319,7 +4319,7 @@
         <v/>
       </c>
       <c r="I98" t="n">
-        <v>1900000</v>
+        <v>35000000</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -4332,11 +4332,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4359,7 +4359,7 @@
         <v/>
       </c>
       <c r="I99" t="n">
-        <v>27300000</v>
+        <v>1900000</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -4372,11 +4372,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4399,10 +4399,10 @@
         <v/>
       </c>
       <c r="I100" t="n">
-        <v>8000000</v>
+        <v>27300000</v>
       </c>
       <c r="J100" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4412,11 +4412,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4439,10 +4439,10 @@
         <v/>
       </c>
       <c r="I101" t="n">
-        <v>28000000</v>
+        <v>8000000</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="102">
@@ -4452,11 +4452,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4479,7 +4479,7 @@
         <v/>
       </c>
       <c r="I102" t="n">
-        <v>13000000</v>
+        <v>28000000</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4492,11 +4492,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4519,7 +4519,7 @@
         <v/>
       </c>
       <c r="I103" t="n">
-        <v>33000000</v>
+        <v>13000000</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -4532,11 +4532,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4559,7 +4559,7 @@
         <v/>
       </c>
       <c r="I104" t="n">
-        <v>20000000</v>
+        <v>33000000</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
@@ -4572,11 +4572,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4599,7 +4599,7 @@
         <v/>
       </c>
       <c r="I105" t="n">
-        <v>19000000</v>
+        <v>20000000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -4612,11 +4612,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4639,10 +4639,10 @@
         <v/>
       </c>
       <c r="I106" t="n">
-        <v>15000000</v>
+        <v>19000000</v>
       </c>
       <c r="J106" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4652,11 +4652,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -4679,10 +4679,10 @@
         <v/>
       </c>
       <c r="I107" t="n">
-        <v>33000000</v>
+        <v>15000000</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="108">
@@ -4692,11 +4692,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -4719,7 +4719,7 @@
         <v/>
       </c>
       <c r="I108" t="n">
-        <v>38000000</v>
+        <v>33000000</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -4732,11 +4732,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -4759,7 +4759,7 @@
         <v/>
       </c>
       <c r="I109" t="n">
-        <v>6000000</v>
+        <v>38000000</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -4772,11 +4772,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4799,7 +4799,7 @@
         <v/>
       </c>
       <c r="I110" t="n">
-        <v>17000000</v>
+        <v>6000000</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -4812,11 +4812,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -4839,7 +4839,7 @@
         <v/>
       </c>
       <c r="I111" t="n">
-        <v>19000000</v>
+        <v>17000000</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4852,11 +4852,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0777004897</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -4879,10 +4879,10 @@
         <v/>
       </c>
       <c r="I112" t="n">
-        <v>18000000</v>
+        <v>19000000</v>
       </c>
       <c r="J112" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4892,11 +4892,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4907,8 +4907,10 @@
       <c r="E113" t="n">
         <v/>
       </c>
-      <c r="F113" t="n">
-        <v/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G113" t="n">
         <v/>
@@ -4917,10 +4919,10 @@
         <v/>
       </c>
       <c r="I113" t="n">
-        <v>23500000</v>
+        <v>18000000</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="114">
@@ -4930,11 +4932,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4955,10 +4957,10 @@
         <v/>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>23500000</v>
       </c>
       <c r="J114" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4968,11 +4970,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4993,10 +4995,10 @@
         <v/>
       </c>
       <c r="I115" t="n">
-        <v>33500000</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="116">
@@ -5006,11 +5008,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5031,7 +5033,7 @@
         <v/>
       </c>
       <c r="I116" t="n">
-        <v>27500000</v>
+        <v>33500000</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -5044,11 +5046,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5082,11 +5084,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5107,7 +5109,7 @@
         <v/>
       </c>
       <c r="I118" t="n">
-        <v>5000000</v>
+        <v>27500000</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
@@ -5120,11 +5122,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5145,7 +5147,7 @@
         <v/>
       </c>
       <c r="I119" t="n">
-        <v>17500000</v>
+        <v>5000000</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -5158,11 +5160,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5183,7 +5185,7 @@
         <v/>
       </c>
       <c r="I120" t="n">
-        <v>2000000</v>
+        <v>17500000</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -5196,11 +5198,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5221,7 +5223,7 @@
         <v/>
       </c>
       <c r="I121" t="n">
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -5234,11 +5236,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5259,7 +5261,7 @@
         <v/>
       </c>
       <c r="I122" t="n">
-        <v>5000000</v>
+        <v>1800000</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -5272,11 +5274,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5297,7 +5299,7 @@
         <v/>
       </c>
       <c r="I123" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5310,11 +5312,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5335,7 +5337,7 @@
         <v/>
       </c>
       <c r="I124" t="n">
-        <v>57000000</v>
+        <v>10000000</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -5348,11 +5350,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5373,7 +5375,7 @@
         <v/>
       </c>
       <c r="I125" t="n">
-        <v>5000000</v>
+        <v>57000000</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -5386,11 +5388,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5411,7 +5413,7 @@
         <v/>
       </c>
       <c r="I126" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -5424,11 +5426,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5449,7 +5451,7 @@
         <v/>
       </c>
       <c r="I127" t="n">
-        <v>19000000</v>
+        <v>2000000</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -5462,11 +5464,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5477,10 +5479,8 @@
       <c r="E128" t="n">
         <v/>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F128" t="n">
+        <v/>
       </c>
       <c r="G128" t="n">
         <v/>
@@ -5489,7 +5489,7 @@
         <v/>
       </c>
       <c r="I128" t="n">
-        <v>33500000</v>
+        <v>19000000</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5502,11 +5502,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>TN-89</t>
+          <t>0329634779</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -5529,7 +5529,7 @@
         <v/>
       </c>
       <c r="I129" t="n">
-        <v>30000000</v>
+        <v>33500000</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5542,11 +5542,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5557,8 +5557,10 @@
       <c r="E130" t="n">
         <v/>
       </c>
-      <c r="F130" t="n">
-        <v/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G130" t="n">
         <v/>
@@ -5567,7 +5569,7 @@
         <v/>
       </c>
       <c r="I130" t="n">
-        <v>22000000</v>
+        <v>30000000</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -5580,11 +5582,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5605,7 +5607,7 @@
         <v/>
       </c>
       <c r="I131" t="n">
-        <v>13000000</v>
+        <v>22000000</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -5618,11 +5620,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5643,10 +5645,10 @@
         <v/>
       </c>
       <c r="I132" t="n">
-        <v>18800000</v>
+        <v>13000000</v>
       </c>
       <c r="J132" t="n">
-        <v>6200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5656,11 +5658,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5669,12 +5671,10 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F133" t="n">
+        <v/>
       </c>
       <c r="G133" t="n">
         <v/>
@@ -5683,10 +5683,10 @@
         <v/>
       </c>
       <c r="I133" t="n">
-        <v>44000000</v>
+        <v>18800000</v>
       </c>
       <c r="J133" t="n">
-        <v>5000000</v>
+        <v>6200000</v>
       </c>
     </row>
     <row r="134">
@@ -5696,11 +5696,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5709,10 +5709,12 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v/>
-      </c>
-      <c r="F134" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G134" t="n">
         <v/>
@@ -5721,10 +5723,10 @@
         <v/>
       </c>
       <c r="I134" t="n">
-        <v>1200000</v>
+        <v>44000000</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="135">
@@ -5734,11 +5736,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5759,7 +5761,7 @@
         <v/>
       </c>
       <c r="I135" t="n">
-        <v>24700000</v>
+        <v>1200000</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -5772,11 +5774,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5797,7 +5799,7 @@
         <v/>
       </c>
       <c r="I136" t="n">
-        <v>25000000</v>
+        <v>24700000</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -5810,11 +5812,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5835,7 +5837,7 @@
         <v/>
       </c>
       <c r="I137" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -5848,7 +5850,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -5886,11 +5888,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5911,7 +5913,7 @@
         <v/>
       </c>
       <c r="I139" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -5924,11 +5926,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5949,7 +5951,7 @@
         <v/>
       </c>
       <c r="I140" t="n">
-        <v>35000000</v>
+        <v>20000000</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -5962,11 +5964,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5987,7 +5989,7 @@
         <v/>
       </c>
       <c r="I141" t="n">
-        <v>5000000</v>
+        <v>35000000</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -6000,11 +6002,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6025,10 +6027,10 @@
         <v/>
       </c>
       <c r="I142" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J142" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -6038,11 +6040,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6063,10 +6065,10 @@
         <v/>
       </c>
       <c r="I143" t="n">
-        <v>20000000</v>
+        <v>6000000</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="144">
@@ -6076,11 +6078,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6091,10 +6093,8 @@
       <c r="E144" t="n">
         <v/>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F144" t="n">
+        <v/>
       </c>
       <c r="G144" t="n">
         <v/>
@@ -6103,10 +6103,10 @@
         <v/>
       </c>
       <c r="I144" t="n">
-        <v>22000000</v>
+        <v>20000000</v>
       </c>
       <c r="J144" t="n">
-        <v>16000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6116,11 +6116,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6131,8 +6131,10 @@
       <c r="E145" t="n">
         <v/>
       </c>
-      <c r="F145" t="n">
-        <v/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G145" t="n">
         <v/>
@@ -6141,10 +6143,10 @@
         <v/>
       </c>
       <c r="I145" t="n">
-        <v>12000000</v>
+        <v>22000000</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="146">
@@ -6154,11 +6156,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6179,7 +6181,7 @@
         <v/>
       </c>
       <c r="I146" t="n">
-        <v>18000000</v>
+        <v>12000000</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -6192,11 +6194,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6217,10 +6219,10 @@
         <v/>
       </c>
       <c r="I147" t="n">
-        <v>1200000</v>
+        <v>18000000</v>
       </c>
       <c r="J147" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6230,11 +6232,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6255,10 +6257,10 @@
         <v/>
       </c>
       <c r="I148" t="n">
-        <v>10000000</v>
+        <v>1200000</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="149">
@@ -6268,11 +6270,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6293,10 +6295,10 @@
         <v/>
       </c>
       <c r="I149" t="n">
-        <v>10300000</v>
+        <v>10000000</v>
       </c>
       <c r="J149" t="n">
-        <v>23500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6306,11 +6308,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6331,10 +6333,10 @@
         <v/>
       </c>
       <c r="I150" t="n">
-        <v>10000000</v>
+        <v>10300000</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="151">
@@ -6344,11 +6346,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6359,10 +6361,8 @@
       <c r="E151" t="n">
         <v/>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F151" t="n">
+        <v/>
       </c>
       <c r="G151" t="n">
         <v/>
@@ -6371,10 +6371,10 @@
         <v/>
       </c>
       <c r="I151" t="n">
-        <v>16500000</v>
+        <v>10000000</v>
       </c>
       <c r="J151" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -6384,11 +6384,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6399,8 +6399,10 @@
       <c r="E152" t="n">
         <v/>
       </c>
-      <c r="F152" t="n">
-        <v/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G152" t="n">
         <v/>
@@ -6409,10 +6411,10 @@
         <v/>
       </c>
       <c r="I152" t="n">
-        <v>43000000</v>
+        <v>16500000</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="153">
@@ -6422,11 +6424,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6447,7 +6449,7 @@
         <v/>
       </c>
       <c r="I153" t="n">
-        <v>1000000</v>
+        <v>43000000</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -6460,11 +6462,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6485,7 +6487,7 @@
         <v/>
       </c>
       <c r="I154" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -6498,11 +6500,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6523,7 +6525,7 @@
         <v/>
       </c>
       <c r="I155" t="n">
-        <v>4500000</v>
+        <v>2000000</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -6536,11 +6538,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6561,7 +6563,7 @@
         <v/>
       </c>
       <c r="I156" t="n">
-        <v>2000000</v>
+        <v>4500000</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -6574,11 +6576,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6599,7 +6601,7 @@
         <v/>
       </c>
       <c r="I157" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -6612,11 +6614,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6637,7 +6639,7 @@
         <v/>
       </c>
       <c r="I158" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -6650,11 +6652,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6675,7 +6677,7 @@
         <v/>
       </c>
       <c r="I159" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -6688,11 +6690,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6713,7 +6715,7 @@
         <v/>
       </c>
       <c r="I160" t="n">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -6726,11 +6728,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6751,7 +6753,7 @@
         <v/>
       </c>
       <c r="I161" t="n">
-        <v>8000000</v>
+        <v>1000000</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -6764,11 +6766,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6802,11 +6804,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6827,7 +6829,7 @@
         <v/>
       </c>
       <c r="I163" t="n">
-        <v>1200000</v>
+        <v>8000000</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -6840,11 +6842,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6865,7 +6867,7 @@
         <v/>
       </c>
       <c r="I164" t="n">
-        <v>15000000</v>
+        <v>1200000</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -6878,11 +6880,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6893,10 +6895,8 @@
       <c r="E165" t="n">
         <v/>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F165" t="n">
+        <v/>
       </c>
       <c r="G165" t="n">
         <v/>
@@ -6905,10 +6905,10 @@
         <v/>
       </c>
       <c r="I165" t="n">
-        <v>4500000</v>
+        <v>15000000</v>
       </c>
       <c r="J165" t="n">
-        <v>10500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -6918,11 +6918,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6933,8 +6933,10 @@
       <c r="E166" t="n">
         <v/>
       </c>
-      <c r="F166" t="n">
-        <v/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G166" t="n">
         <v/>
@@ -6943,10 +6945,10 @@
         <v/>
       </c>
       <c r="I166" t="n">
-        <v>20000000</v>
+        <v>4500000</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="167">
@@ -6956,11 +6958,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6981,7 +6983,7 @@
         <v/>
       </c>
       <c r="I167" t="n">
-        <v>6000000</v>
+        <v>20000000</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -6994,11 +6996,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7019,7 +7021,7 @@
         <v/>
       </c>
       <c r="I168" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -7032,11 +7034,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7057,7 +7059,7 @@
         <v/>
       </c>
       <c r="I169" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -7070,11 +7072,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7095,7 +7097,7 @@
         <v/>
       </c>
       <c r="I170" t="n">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -7108,11 +7110,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7146,11 +7148,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7171,7 +7173,7 @@
         <v/>
       </c>
       <c r="I172" t="n">
-        <v>7000000</v>
+        <v>11000000</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -7184,11 +7186,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7209,7 +7211,7 @@
         <v/>
       </c>
       <c r="I173" t="n">
-        <v>27000000</v>
+        <v>7000000</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -7222,11 +7224,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7247,7 +7249,7 @@
         <v/>
       </c>
       <c r="I174" t="n">
-        <v>14000000</v>
+        <v>27000000</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -7260,11 +7262,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7285,7 +7287,7 @@
         <v/>
       </c>
       <c r="I175" t="n">
-        <v>4000000</v>
+        <v>14000000</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -7298,11 +7300,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7323,7 +7325,7 @@
         <v/>
       </c>
       <c r="I176" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -7336,11 +7338,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7361,7 +7363,7 @@
         <v/>
       </c>
       <c r="I177" t="n">
-        <v>30000000</v>
+        <v>6000000</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -7374,11 +7376,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7399,7 +7401,7 @@
         <v/>
       </c>
       <c r="I178" t="n">
-        <v>18000000</v>
+        <v>30000000</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -7412,11 +7414,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7437,7 +7439,7 @@
         <v/>
       </c>
       <c r="I179" t="n">
-        <v>12000000</v>
+        <v>18000000</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -7450,11 +7452,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7488,11 +7490,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -7513,7 +7515,7 @@
         <v/>
       </c>
       <c r="I181" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -7526,11 +7528,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7551,7 +7553,7 @@
         <v/>
       </c>
       <c r="I182" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -7564,11 +7566,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7589,7 +7591,7 @@
         <v/>
       </c>
       <c r="I183" t="n">
-        <v>2700000</v>
+        <v>2000000</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -7602,11 +7604,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7627,7 +7629,7 @@
         <v/>
       </c>
       <c r="I184" t="n">
-        <v>27500000</v>
+        <v>2700000</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -7640,11 +7642,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7665,7 +7667,7 @@
         <v/>
       </c>
       <c r="I185" t="n">
-        <v>18000000</v>
+        <v>27500000</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
@@ -7678,11 +7680,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -7703,7 +7705,7 @@
         <v/>
       </c>
       <c r="I186" t="n">
-        <v>3000000</v>
+        <v>18000000</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -7716,11 +7718,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7741,7 +7743,7 @@
         <v/>
       </c>
       <c r="I187" t="n">
-        <v>34200000</v>
+        <v>3000000</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
@@ -7754,11 +7756,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Anh Toàn</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7779,7 +7781,7 @@
         <v/>
       </c>
       <c r="I188" t="n">
-        <v>4000000</v>
+        <v>34200000</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -7792,36 +7794,74 @@
         </is>
       </c>
       <c r="B189" t="n">
+        <v>42</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v/>
+      </c>
+      <c r="F189" t="n">
+        <v/>
+      </c>
+      <c r="G189" t="n">
+        <v/>
+      </c>
+      <c r="H189" t="n">
+        <v/>
+      </c>
+      <c r="I189" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
         <v>41</v>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v/>
-      </c>
-      <c r="F189" t="inlineStr">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v/>
+      </c>
+      <c r="F190" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G189" t="n">
-        <v/>
-      </c>
-      <c r="H189" t="n">
-        <v/>
-      </c>
-      <c r="I189" t="n">
+      <c r="G190" t="n">
+        <v/>
+      </c>
+      <c r="H190" t="n">
+        <v/>
+      </c>
+      <c r="I190" t="n">
         <v>18000000</v>
       </c>
-      <c r="J189" t="n">
+      <c r="J190" t="n">
         <v>0</v>
       </c>
     </row>
